--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BP364\web_scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20200228start\python_ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBE53F5-D4F8-4DF1-9E66-473CBCEA3866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Do_Data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Do_Data!$A$1:$G$121</definedName>
+  </definedNames>
+  <calcPr calcId="0" calcCompleted="0" calcOnSave="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="423">
   <si>
     <t>삼성전자</t>
   </si>
@@ -703,12 +712,601 @@
   </si>
   <si>
     <t>-1.41%</t>
+  </si>
+  <si>
+    <t>216,883</t>
+  </si>
+  <si>
+    <t>7,499</t>
+  </si>
+  <si>
+    <t>-0.52%</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>24,349</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>-1.96%</t>
+  </si>
+  <si>
+    <t>60,681</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>-1.04%</t>
+  </si>
+  <si>
+    <t>18,982</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>-1.15%</t>
+  </si>
+  <si>
+    <t>42,558</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>-0.26%</t>
+  </si>
+  <si>
+    <t>12,942</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>+0.98%</t>
+  </si>
+  <si>
+    <t>28,645</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>-0.22%</t>
+  </si>
+  <si>
+    <t>11,632</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>18,597</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>-1.62%</t>
+  </si>
+  <si>
+    <t>덴티움</t>
+  </si>
+  <si>
+    <t>8,291</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>-0.11%</t>
+  </si>
+  <si>
+    <t>LG디스플레이</t>
+  </si>
+  <si>
+    <t>13,832</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>-4.73%</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
+    <t>8,120</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>-1.24%</t>
+  </si>
+  <si>
+    <t>13,411</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>+1.22%</t>
+  </si>
+  <si>
+    <t>7,291</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>-1.29%</t>
+  </si>
+  <si>
+    <t>12,739</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>-2.00%</t>
+  </si>
+  <si>
+    <t>7,150</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>-2.21%</t>
+  </si>
+  <si>
+    <t>12,718</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>+1.91%</t>
+  </si>
+  <si>
+    <t>6,992</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>-3.24%</t>
+  </si>
+  <si>
+    <t>10,629</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>+0.47%</t>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>6,872</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>-1.33%</t>
+  </si>
+  <si>
+    <t>10,481</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>-5.23%</t>
+  </si>
+  <si>
+    <t>5,879</t>
+  </si>
+  <si>
+    <t>-1.21%</t>
+  </si>
+  <si>
+    <t>10,123</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>+0.39%</t>
+  </si>
+  <si>
+    <t>코스모신소재</t>
+  </si>
+  <si>
+    <t>5,649</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>+0.34%</t>
+  </si>
+  <si>
+    <t>9,182</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>-2.41%</t>
+  </si>
+  <si>
+    <t>5,388</t>
+  </si>
+  <si>
+    <t>7,312</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>-0.50%</t>
+  </si>
+  <si>
+    <t>SK아이이테크놀로지</t>
+  </si>
+  <si>
+    <t>5,347</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>7,123</t>
+  </si>
+  <si>
+    <t>-0.70%</t>
+  </si>
+  <si>
+    <t>4,743</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>-0.93%</t>
+  </si>
+  <si>
+    <t>6,710</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>-1.63%</t>
+  </si>
+  <si>
+    <t>4,322</t>
+  </si>
+  <si>
+    <t>2,383</t>
+  </si>
+  <si>
+    <t>5,460</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>4,264</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>+0.25%</t>
+  </si>
+  <si>
+    <t>한국카본</t>
+  </si>
+  <si>
+    <t>4,951</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>+3.31%</t>
+  </si>
+  <si>
+    <t>3,555</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>-2.47%</t>
+  </si>
+  <si>
+    <t>4,722</t>
+  </si>
+  <si>
+    <t>1,623</t>
+  </si>
+  <si>
+    <t>대덕전자</t>
+  </si>
+  <si>
+    <t>3,422</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>+0.54%</t>
+  </si>
+  <si>
+    <t>KODEX 코스닥150선물인버스</t>
+  </si>
+  <si>
+    <t>4,558</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>후성</t>
+  </si>
+  <si>
+    <t>3,178</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>+2.52%</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
+    <t>4,065</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>두산</t>
+  </si>
+  <si>
+    <t>2,686</t>
+  </si>
+  <si>
+    <t>+0.48%</t>
+  </si>
+  <si>
+    <t>4,007</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>+1.18%</t>
+  </si>
+  <si>
+    <t>SKC</t>
+  </si>
+  <si>
+    <t>2,566</t>
+  </si>
+  <si>
+    <t>+0.78%</t>
+  </si>
+  <si>
+    <t>3,945</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>-1.10%</t>
+  </si>
+  <si>
+    <t>한세실업</t>
+  </si>
+  <si>
+    <t>2,499</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>-0.30%</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>+1.24%</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>2,488</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>-1.94%</t>
+  </si>
+  <si>
+    <t>현대에너지솔루션</t>
+  </si>
+  <si>
+    <t>3,802</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>F&amp;F</t>
+  </si>
+  <si>
+    <t>2,439</t>
+  </si>
+  <si>
+    <t>-1.98%</t>
+  </si>
+  <si>
+    <t>포스코인터내셔널</t>
+  </si>
+  <si>
+    <t>3,784</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>+3.93%</t>
+  </si>
+  <si>
+    <t>코스모화학</t>
+  </si>
+  <si>
+    <t>2,403</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
+    <t>3,774</t>
+  </si>
+  <si>
+    <t>-3.62%</t>
+  </si>
+  <si>
+    <t>현대제철</t>
+  </si>
+  <si>
+    <t>2,338</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>-1.37%</t>
+  </si>
+  <si>
+    <t>3,535</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>-0.99%</t>
+  </si>
+  <si>
+    <t>2,319</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>TIGER 미국테크TOP10 INDXX</t>
+  </si>
+  <si>
+    <t>3,491</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>-1.39%</t>
+  </si>
+  <si>
+    <t>신성이엔지</t>
+  </si>
+  <si>
+    <t>2,291</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>+0.87%</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>3,242</t>
+  </si>
+  <si>
+    <t>-0.76%</t>
+  </si>
+  <si>
+    <t>KODEX 2차전지산업</t>
+  </si>
+  <si>
+    <t>2,170</t>
+  </si>
+  <si>
+    <t>종목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>등락</t>
+  </si>
+  <si>
+    <t>매수매도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>합계 : 금액작업</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,8 +1343,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -762,6 +1370,2215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="44795.466156481481" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="120" xr:uid="{582B77B4-A6BE-4CE4-80A6-E7AE7DC98DC7}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G121" sheet="Do_Data"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="종목명" numFmtId="0">
+      <sharedItems count="86">
+        <s v="삼성전자"/>
+        <s v="NAVER"/>
+        <s v="현대차"/>
+        <s v="기아"/>
+        <s v="삼성SDI"/>
+        <s v="SK하이닉스"/>
+        <s v="두산에너빌리티"/>
+        <s v="셀트리온"/>
+        <s v="현대모비스"/>
+        <s v="SK바이오사이언스"/>
+        <s v="LG화학"/>
+        <s v="하나금융지주"/>
+        <s v="LG에너지솔루션"/>
+        <s v="카카오페이"/>
+        <s v="포스코케미칼"/>
+        <s v="SK텔레콤"/>
+        <s v="현대미포조선"/>
+        <s v="카카오뱅크"/>
+        <s v="강원랜드"/>
+        <s v="카카오"/>
+        <s v="KODEX 200선물인버스2X"/>
+        <s v="TIGER 미국필라델피아반도체나스닥"/>
+        <s v="KODEX 레버리지"/>
+        <s v="POSCO홀딩스"/>
+        <s v="삼성전기"/>
+        <s v="한화솔루션"/>
+        <s v="한화에어로스페이스"/>
+        <s v="KODEX 인버스"/>
+        <s v="LIG넥스원"/>
+        <s v="삼성에스디에스"/>
+        <s v="고려아연"/>
+        <s v="현대차우"/>
+        <s v="이수화학"/>
+        <s v="삼성증권"/>
+        <s v="하이브"/>
+        <s v="씨에스윈드"/>
+        <s v="오리온"/>
+        <s v="현대오토에버"/>
+        <s v="엔씨소프트"/>
+        <s v="S-Oil"/>
+        <s v="BGF리테일"/>
+        <s v="한국전력"/>
+        <s v="TIGER 차이나전기차SOLACTIVE"/>
+        <s v="우리금융지주"/>
+        <s v="삼성화재"/>
+        <s v="SK이노베이션"/>
+        <s v="한전기술"/>
+        <s v="일진머티리얼즈"/>
+        <s v="삼성중공업"/>
+        <s v="TIGER 원유선물Enhanced(H)"/>
+        <s v="현대해상"/>
+        <s v="KODEX 200"/>
+        <s v="한화"/>
+        <s v="LG전자"/>
+        <s v="현대위아"/>
+        <s v="KT"/>
+        <s v="해성디에스"/>
+        <s v="BNK금융지주"/>
+        <s v="대한전선"/>
+        <s v="SK바이오팜"/>
+        <s v="덴티움"/>
+        <s v="LG디스플레이"/>
+        <s v="한국항공우주"/>
+        <s v="LG이노텍"/>
+        <s v="코스모신소재"/>
+        <s v="SK아이이테크놀로지"/>
+        <s v="한국카본"/>
+        <s v="대덕전자"/>
+        <s v="KODEX 코스닥150선물인버스"/>
+        <s v="후성"/>
+        <s v="아모레퍼시픽"/>
+        <s v="두산"/>
+        <s v="SKC"/>
+        <s v="한세실업"/>
+        <s v="에스엘"/>
+        <s v="HMM"/>
+        <s v="현대에너지솔루션"/>
+        <s v="F&amp;F"/>
+        <s v="포스코인터내셔널"/>
+        <s v="코스모화학"/>
+        <s v="영원무역"/>
+        <s v="현대제철"/>
+        <s v="TIGER 미국테크TOP10 INDXX"/>
+        <s v="신성이엔지"/>
+        <s v="코웨이"/>
+        <s v="KODEX 2차전지산업"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="금액" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1978" maxValue="270993"/>
+    </cacheField>
+    <cacheField name="수량" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="7499"/>
+    </cacheField>
+    <cacheField name="등락" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.1699999999999995E-2" maxValue="3.9300000000000002E-2"/>
+    </cacheField>
+    <cacheField name="매수매도" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="날짜" numFmtId="0">
+      <sharedItems count="2">
+        <s v="2022-08-18"/>
+        <s v="2022-08-19"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="금액작업" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-34567" maxValue="270993" count="120">
+        <n v="270993"/>
+        <n v="-34567"/>
+        <n v="44367"/>
+        <n v="-27298"/>
+        <n v="28431"/>
+        <n v="-20882"/>
+        <n v="15000"/>
+        <n v="-16767"/>
+        <n v="13827"/>
+        <n v="-14064"/>
+        <n v="13654"/>
+        <n v="-13911"/>
+        <n v="10587"/>
+        <n v="-13765"/>
+        <n v="9459"/>
+        <n v="-12523"/>
+        <n v="8604"/>
+        <n v="-8809"/>
+        <n v="7314"/>
+        <n v="-6504"/>
+        <n v="7261"/>
+        <n v="-5536"/>
+        <n v="7145"/>
+        <n v="-5369"/>
+        <n v="5935"/>
+        <n v="-5257"/>
+        <n v="5758"/>
+        <n v="-5117"/>
+        <n v="5749"/>
+        <n v="-4353"/>
+        <n v="5445"/>
+        <n v="-3925"/>
+        <n v="5381"/>
+        <n v="-3661"/>
+        <n v="5194"/>
+        <n v="-3285"/>
+        <n v="4696"/>
+        <n v="-3251"/>
+        <n v="4063"/>
+        <n v="-3084"/>
+        <n v="4015"/>
+        <n v="-3022"/>
+        <n v="3725"/>
+        <n v="-2938"/>
+        <n v="3480"/>
+        <n v="-2789"/>
+        <n v="3458"/>
+        <n v="-2644"/>
+        <n v="3289"/>
+        <n v="-2372"/>
+        <n v="3182"/>
+        <n v="-2220"/>
+        <n v="3039"/>
+        <n v="-2078"/>
+        <n v="3028"/>
+        <n v="-2051"/>
+        <n v="2968"/>
+        <n v="-1988"/>
+        <n v="2878"/>
+        <n v="-1978"/>
+        <n v="216883"/>
+        <n v="-24349"/>
+        <n v="60681"/>
+        <n v="-18982"/>
+        <n v="42558"/>
+        <n v="-12942"/>
+        <n v="28645"/>
+        <n v="-11632"/>
+        <n v="18597"/>
+        <n v="-8291"/>
+        <n v="13832"/>
+        <n v="-8120"/>
+        <n v="13411"/>
+        <n v="-7291"/>
+        <n v="12739"/>
+        <n v="-7150"/>
+        <n v="12718"/>
+        <n v="-6992"/>
+        <n v="10629"/>
+        <n v="-6872"/>
+        <n v="10481"/>
+        <n v="-5879"/>
+        <n v="10123"/>
+        <n v="-5649"/>
+        <n v="9182"/>
+        <n v="-5388"/>
+        <n v="7312"/>
+        <n v="-5347"/>
+        <n v="7123"/>
+        <n v="-4743"/>
+        <n v="6710"/>
+        <n v="-4322"/>
+        <n v="5460"/>
+        <n v="-4264"/>
+        <n v="4951"/>
+        <n v="-3555"/>
+        <n v="4722"/>
+        <n v="-3422"/>
+        <n v="4558"/>
+        <n v="-3178"/>
+        <n v="4065"/>
+        <n v="-2686"/>
+        <n v="4007"/>
+        <n v="-2566"/>
+        <n v="3945"/>
+        <n v="-2499"/>
+        <n v="3925"/>
+        <n v="-2488"/>
+        <n v="3802"/>
+        <n v="-2439"/>
+        <n v="3784"/>
+        <n v="-2403"/>
+        <n v="3774"/>
+        <n v="-2338"/>
+        <n v="3535"/>
+        <n v="-2319"/>
+        <n v="3491"/>
+        <n v="-2291"/>
+        <n v="3242"/>
+        <n v="-2170"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+  <r>
+    <x v="0"/>
+    <n v="270993"/>
+    <n v="4448"/>
+    <n v="-9.7999999999999997E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="34567"/>
+    <n v="138"/>
+    <n v="-8.0000000000000002E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="44367"/>
+    <n v="239"/>
+    <n v="2.1499999999999998E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="27298"/>
+    <n v="355"/>
+    <n v="6.4999999999999997E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="28431"/>
+    <n v="46"/>
+    <n v="-9.5999999999999992E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20882"/>
+    <n v="218"/>
+    <n v="7.3000000000000001E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="15000"/>
+    <n v="703"/>
+    <n v="-1.4E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="16767"/>
+    <n v="81"/>
+    <n v="-4.8999999999999998E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="13827"/>
+    <n v="66"/>
+    <n v="1.66E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="14064"/>
+    <n v="114"/>
+    <n v="-4.5100000000000001E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="13654"/>
+    <n v="21"/>
+    <n v="-1.6899999999999998E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="13911"/>
+    <n v="359"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="10587"/>
+    <n v="24"/>
+    <n v="-1.11E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="13765"/>
+    <n v="198"/>
+    <n v="5.7999999999999996E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="9459"/>
+    <n v="59"/>
+    <n v="-2.7900000000000001E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="12523"/>
+    <n v="245"/>
+    <n v="-3.8999999999999998E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="8604"/>
+    <n v="80"/>
+    <n v="1.3899999999999999E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="8809"/>
+    <n v="280"/>
+    <n v="-8.1699999999999995E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="7314"/>
+    <n v="279"/>
+    <n v="5.7000000000000002E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="6504"/>
+    <n v="84"/>
+    <n v="-3.1600000000000003E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="7261"/>
+    <n v="2474"/>
+    <n v="1.04E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="5536"/>
+    <n v="527"/>
+    <n v="1.8499999999999999E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="7145"/>
+    <n v="444"/>
+    <n v="-1.23E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="5369"/>
+    <n v="21"/>
+    <n v="-3.8999999999999998E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="5935"/>
+    <n v="43"/>
+    <n v="-1.09E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="5257"/>
+    <n v="113"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="5758"/>
+    <n v="81"/>
+    <n v="-1.12E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="5117"/>
+    <n v="1085"/>
+    <n v="6.4000000000000003E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="5749"/>
+    <n v="63"/>
+    <n v="2.2000000000000001E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="4353"/>
+    <n v="33"/>
+    <n v="3.8E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="5445"/>
+    <n v="9"/>
+    <n v="-3.3999999999999998E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="3925"/>
+    <n v="44"/>
+    <n v="1.1299999999999999E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="5381"/>
+    <n v="310"/>
+    <n v="-8.8000000000000005E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="3661"/>
+    <n v="104"/>
+    <n v="-2.8E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="5194"/>
+    <n v="28"/>
+    <n v="-8.0000000000000002E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="3285"/>
+    <n v="50"/>
+    <n v="-6.1999999999999998E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="4696"/>
+    <n v="43"/>
+    <n v="9.1999999999999998E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="3251"/>
+    <n v="27"/>
+    <n v="-2.07E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="4063"/>
+    <n v="11"/>
+    <n v="-2.0899999999999998E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="3084"/>
+    <n v="33"/>
+    <n v="1.84E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="4015"/>
+    <n v="24"/>
+    <n v="-1.72E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="3022"/>
+    <n v="140"/>
+    <n v="-2.3E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="3725"/>
+    <n v="226"/>
+    <n v="-2.3199999999999998E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="2938"/>
+    <n v="240"/>
+    <n v="2.0500000000000001E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="3480"/>
+    <n v="18"/>
+    <n v="1.26E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="2789"/>
+    <n v="14"/>
+    <n v="-2.8500000000000001E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="3458"/>
+    <n v="47"/>
+    <n v="-2.8000000000000001E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="2644"/>
+    <n v="36"/>
+    <n v="2.07E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="3289"/>
+    <n v="551"/>
+    <n v="3.3E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="2372"/>
+    <n v="500"/>
+    <n v="2.1100000000000001E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <n v="3182"/>
+    <n v="93"/>
+    <n v="1.32E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <n v="2220"/>
+    <n v="67"/>
+    <n v="-5.7999999999999996E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <n v="3039"/>
+    <n v="98"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="2078"/>
+    <n v="21"/>
+    <n v="-9.7999999999999997E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <n v="3028"/>
+    <n v="44"/>
+    <n v="-7.3000000000000001E-3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="2051"/>
+    <n v="54"/>
+    <n v="1.7100000000000001E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <n v="2968"/>
+    <n v="50"/>
+    <n v="-2.1000000000000001E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <n v="1988"/>
+    <n v="291"/>
+    <n v="2.8999999999999998E-3"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <n v="2878"/>
+    <n v="1564"/>
+    <n v="-3.5099999999999999E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="1978"/>
+    <n v="26"/>
+    <n v="-1.41E-2"/>
+    <n v="-1"/>
+    <x v="0"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="216883"/>
+    <n v="7499"/>
+    <n v="-5.1999999999999998E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="24349"/>
+    <n v="316"/>
+    <n v="-1.9599999999999999E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="60681"/>
+    <n v="627"/>
+    <n v="-1.04E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="18982"/>
+    <n v="312"/>
+    <n v="-1.15E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="42558"/>
+    <n v="224"/>
+    <n v="-2.5999999999999999E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="12942"/>
+    <n v="255"/>
+    <n v="9.7999999999999997E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="28645"/>
+    <n v="64"/>
+    <n v="-2.2000000000000001E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="11632"/>
+    <n v="151"/>
+    <n v="6.4999999999999997E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="18597"/>
+    <n v="30"/>
+    <n v="-1.6199999999999999E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <n v="8291"/>
+    <n v="92"/>
+    <n v="-1.1000000000000001E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <n v="13832"/>
+    <n v="819"/>
+    <n v="-4.7300000000000002E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <n v="8120"/>
+    <n v="144"/>
+    <n v="-1.24E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="13411"/>
+    <n v="65"/>
+    <n v="1.2200000000000001E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7291"/>
+    <n v="62"/>
+    <n v="-1.29E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="12739"/>
+    <n v="798"/>
+    <n v="-0.02"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="7150"/>
+    <n v="186"/>
+    <n v="-2.2100000000000002E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="12718"/>
+    <n v="82"/>
+    <n v="1.9099999999999999E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="6992"/>
+    <n v="97"/>
+    <n v="-3.2399999999999998E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="10629"/>
+    <n v="16"/>
+    <n v="4.7000000000000002E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <n v="6872"/>
+    <n v="20"/>
+    <n v="-1.3299999999999999E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="10481"/>
+    <n v="152"/>
+    <n v="-5.2299999999999999E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="5879"/>
+    <n v="24"/>
+    <n v="-1.21E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="10123"/>
+    <n v="263"/>
+    <n v="3.8999999999999998E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <n v="5649"/>
+    <n v="94"/>
+    <n v="3.3999999999999998E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="9182"/>
+    <n v="48"/>
+    <n v="-2.41E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="5388"/>
+    <n v="21"/>
+    <n v="-1.9599999999999999E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="7312"/>
+    <n v="37"/>
+    <n v="-5.0000000000000001E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <n v="5347"/>
+    <n v="58"/>
+    <n v="-1.11E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="7123"/>
+    <n v="33"/>
+    <n v="-7.0000000000000001E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="4743"/>
+    <n v="221"/>
+    <n v="-9.2999999999999992E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="6710"/>
+    <n v="623"/>
+    <n v="-1.6299999999999999E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <n v="4322"/>
+    <n v="2383"/>
+    <n v="-2.8E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="5460"/>
+    <n v="440"/>
+    <n v="-2.41E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="4264"/>
+    <n v="256"/>
+    <n v="2.5000000000000001E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <n v="4951"/>
+    <n v="311"/>
+    <n v="3.3099999999999997E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="3555"/>
+    <n v="79"/>
+    <n v="-2.47E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="4722"/>
+    <n v="1623"/>
+    <n v="2.0500000000000001E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <n v="3422"/>
+    <n v="119"/>
+    <n v="5.4000000000000003E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <n v="4558"/>
+    <n v="963"/>
+    <n v="1.04E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <n v="3178"/>
+    <n v="199"/>
+    <n v="2.52E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <n v="4065"/>
+    <n v="32"/>
+    <n v="-3.8999999999999998E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="2686"/>
+    <n v="32"/>
+    <n v="4.7999999999999996E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4007"/>
+    <n v="190"/>
+    <n v="1.18E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="102"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="2566"/>
+    <n v="20"/>
+    <n v="7.7999999999999996E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="3945"/>
+    <n v="29"/>
+    <n v="-1.0999999999999999E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="2499"/>
+    <n v="146"/>
+    <n v="-3.0000000000000001E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="3925"/>
+    <n v="108"/>
+    <n v="1.24E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="106"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="2488"/>
+    <n v="106"/>
+    <n v="-1.9400000000000001E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="107"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="3802"/>
+    <n v="68"/>
+    <n v="-7.3000000000000001E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="108"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="2439"/>
+    <n v="16"/>
+    <n v="-1.9800000000000002E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="109"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="3784"/>
+    <n v="143"/>
+    <n v="3.9300000000000002E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="110"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <n v="2403"/>
+    <n v="111"/>
+    <n v="9.7999999999999997E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="111"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <n v="3774"/>
+    <n v="79"/>
+    <n v="-3.6200000000000003E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="112"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <n v="2338"/>
+    <n v="71"/>
+    <n v="-1.37E-2"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="113"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="3535"/>
+    <n v="35"/>
+    <n v="-9.9000000000000008E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="114"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="2319"/>
+    <n v="35"/>
+    <n v="-3.0999999999999999E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="115"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <n v="3491"/>
+    <n v="292"/>
+    <n v="-1.3899999999999999E-2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="116"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <n v="2291"/>
+    <n v="966"/>
+    <n v="8.6999999999999994E-3"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="117"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <n v="3242"/>
+    <n v="50"/>
+    <n v="-7.6E-3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="118"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <n v="2170"/>
+    <n v="106"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <x v="1"/>
+    <x v="119"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7A4E3F3-44BE-4032-BA4E-209E690D9D4B}" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B210" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="87">
+        <item x="40"/>
+        <item x="57"/>
+        <item x="77"/>
+        <item x="75"/>
+        <item x="51"/>
+        <item x="20"/>
+        <item x="85"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="68"/>
+        <item x="55"/>
+        <item x="61"/>
+        <item x="12"/>
+        <item x="63"/>
+        <item x="53"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="1"/>
+        <item x="23"/>
+        <item x="72"/>
+        <item x="9"/>
+        <item x="59"/>
+        <item x="65"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="39"/>
+        <item x="82"/>
+        <item x="21"/>
+        <item x="49"/>
+        <item x="42"/>
+        <item x="18"/>
+        <item x="30"/>
+        <item x="3"/>
+        <item x="67"/>
+        <item x="58"/>
+        <item x="60"/>
+        <item x="71"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="29"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="48"/>
+        <item x="33"/>
+        <item x="44"/>
+        <item x="7"/>
+        <item x="83"/>
+        <item x="35"/>
+        <item x="70"/>
+        <item x="74"/>
+        <item x="38"/>
+        <item x="80"/>
+        <item x="36"/>
+        <item x="43"/>
+        <item x="32"/>
+        <item x="47"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="64"/>
+        <item x="79"/>
+        <item x="84"/>
+        <item x="78"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="34"/>
+        <item x="41"/>
+        <item x="66"/>
+        <item x="62"/>
+        <item x="73"/>
+        <item x="46"/>
+        <item x="52"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="56"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="76"/>
+        <item x="37"/>
+        <item x="54"/>
+        <item x="81"/>
+        <item x="2"/>
+        <item x="31"/>
+        <item x="50"/>
+        <item x="69"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="121">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="61"/>
+        <item x="5"/>
+        <item x="63"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="65"/>
+        <item x="15"/>
+        <item x="67"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="71"/>
+        <item x="73"/>
+        <item x="75"/>
+        <item x="77"/>
+        <item x="79"/>
+        <item x="19"/>
+        <item x="81"/>
+        <item x="83"/>
+        <item x="21"/>
+        <item x="85"/>
+        <item x="23"/>
+        <item x="87"/>
+        <item x="25"/>
+        <item x="27"/>
+        <item x="89"/>
+        <item x="29"/>
+        <item x="91"/>
+        <item x="93"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="95"/>
+        <item x="97"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="99"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="101"/>
+        <item x="47"/>
+        <item x="103"/>
+        <item x="105"/>
+        <item x="107"/>
+        <item x="109"/>
+        <item x="111"/>
+        <item x="49"/>
+        <item x="113"/>
+        <item x="115"/>
+        <item x="117"/>
+        <item x="51"/>
+        <item x="119"/>
+        <item x="53"/>
+        <item x="55"/>
+        <item x="57"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="56"/>
+        <item x="54"/>
+        <item x="52"/>
+        <item x="50"/>
+        <item x="118"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="44"/>
+        <item x="116"/>
+        <item x="114"/>
+        <item x="42"/>
+        <item x="112"/>
+        <item x="110"/>
+        <item x="108"/>
+        <item x="106"/>
+        <item x="104"/>
+        <item x="102"/>
+        <item x="40"/>
+        <item x="38"/>
+        <item x="100"/>
+        <item x="98"/>
+        <item x="36"/>
+        <item x="96"/>
+        <item x="94"/>
+        <item x="34"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="92"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="90"/>
+        <item x="88"/>
+        <item x="22"/>
+        <item x="20"/>
+        <item x="86"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="84"/>
+        <item x="14"/>
+        <item x="82"/>
+        <item x="80"/>
+        <item x="12"/>
+        <item x="78"/>
+        <item x="76"/>
+        <item x="74"/>
+        <item x="72"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="70"/>
+        <item x="6"/>
+        <item x="68"/>
+        <item x="4"/>
+        <item x="66"/>
+        <item x="64"/>
+        <item x="2"/>
+        <item x="62"/>
+        <item x="60"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="207">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="94"/>
+    </i>
+    <i r="1">
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="104"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="112"/>
+    </i>
+    <i r="1">
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="100"/>
+    </i>
+    <i r="1">
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="85"/>
+    </i>
+    <i r="1">
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="115"/>
+    </i>
+    <i r="1">
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 금액작업" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,11 +3865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2257,9 +5074,5839 @@
         <v>4</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62">
+        <v>-1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64">
+        <v>-1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66">
+        <v>-1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>-1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>253</v>
+      </c>
+      <c r="D69" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D70" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70">
+        <v>-1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72">
+        <v>-1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" t="s">
+        <v>268</v>
+      </c>
+      <c r="D73" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74">
+        <v>-1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76">
+        <v>-1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" t="s">
+        <v>284</v>
+      </c>
+      <c r="E78">
+        <v>-1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" t="s">
+        <v>287</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>290</v>
+      </c>
+      <c r="D80" t="s">
+        <v>291</v>
+      </c>
+      <c r="E80">
+        <v>-1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82">
+        <v>-1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" t="s">
+        <v>299</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>300</v>
+      </c>
+      <c r="B84" t="s">
+        <v>301</v>
+      </c>
+      <c r="C84" t="s">
+        <v>302</v>
+      </c>
+      <c r="D84" t="s">
+        <v>303</v>
+      </c>
+      <c r="E84">
+        <v>-1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>304</v>
+      </c>
+      <c r="C85" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" t="s">
+        <v>306</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86">
+        <v>-1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>311</v>
+      </c>
+      <c r="B88" t="s">
+        <v>312</v>
+      </c>
+      <c r="C88" t="s">
+        <v>313</v>
+      </c>
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88">
+        <v>-1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" t="s">
+        <v>315</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" t="s">
+        <v>316</v>
+      </c>
+      <c r="C90" t="s">
+        <v>317</v>
+      </c>
+      <c r="D90" t="s">
+        <v>318</v>
+      </c>
+      <c r="E90">
+        <v>-1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>319</v>
+      </c>
+      <c r="C91" t="s">
+        <v>320</v>
+      </c>
+      <c r="D91" t="s">
+        <v>321</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" t="s">
+        <v>322</v>
+      </c>
+      <c r="C92" t="s">
+        <v>323</v>
+      </c>
+      <c r="D92" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92">
+        <v>-1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" t="s">
+        <v>324</v>
+      </c>
+      <c r="C93" t="s">
+        <v>325</v>
+      </c>
+      <c r="D93" t="s">
+        <v>306</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>326</v>
+      </c>
+      <c r="C94" t="s">
+        <v>327</v>
+      </c>
+      <c r="D94" t="s">
+        <v>328</v>
+      </c>
+      <c r="E94">
+        <v>-1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B95" t="s">
+        <v>330</v>
+      </c>
+      <c r="C95" t="s">
+        <v>331</v>
+      </c>
+      <c r="D95" t="s">
+        <v>332</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>333</v>
+      </c>
+      <c r="C96" t="s">
+        <v>334</v>
+      </c>
+      <c r="D96" t="s">
+        <v>335</v>
+      </c>
+      <c r="E96">
+        <v>-1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" t="s">
+        <v>336</v>
+      </c>
+      <c r="C97" t="s">
+        <v>337</v>
+      </c>
+      <c r="D97" t="s">
+        <v>168</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>338</v>
+      </c>
+      <c r="B98" t="s">
+        <v>339</v>
+      </c>
+      <c r="C98" t="s">
+        <v>340</v>
+      </c>
+      <c r="D98" t="s">
+        <v>341</v>
+      </c>
+      <c r="E98">
+        <v>-1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>342</v>
+      </c>
+      <c r="B99" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>345</v>
+      </c>
+      <c r="B100" t="s">
+        <v>346</v>
+      </c>
+      <c r="C100" t="s">
+        <v>347</v>
+      </c>
+      <c r="D100" t="s">
+        <v>348</v>
+      </c>
+      <c r="E100">
+        <v>-1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>349</v>
+      </c>
+      <c r="B101" t="s">
+        <v>350</v>
+      </c>
+      <c r="C101" t="s">
+        <v>351</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>352</v>
+      </c>
+      <c r="B102" t="s">
+        <v>353</v>
+      </c>
+      <c r="C102" t="s">
+        <v>351</v>
+      </c>
+      <c r="D102" t="s">
+        <v>354</v>
+      </c>
+      <c r="E102">
+        <v>-1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>355</v>
+      </c>
+      <c r="C103" t="s">
+        <v>356</v>
+      </c>
+      <c r="D103" t="s">
+        <v>357</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>358</v>
+      </c>
+      <c r="B104" t="s">
+        <v>359</v>
+      </c>
+      <c r="C104" t="s">
+        <v>290</v>
+      </c>
+      <c r="D104" t="s">
+        <v>360</v>
+      </c>
+      <c r="E104">
+        <v>-1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" t="s">
+        <v>361</v>
+      </c>
+      <c r="C105" t="s">
+        <v>362</v>
+      </c>
+      <c r="D105" t="s">
+        <v>363</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>364</v>
+      </c>
+      <c r="B106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C106" t="s">
+        <v>366</v>
+      </c>
+      <c r="D106" t="s">
+        <v>367</v>
+      </c>
+      <c r="E106">
+        <v>-1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>368</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" t="s">
+        <v>369</v>
+      </c>
+      <c r="D107" t="s">
+        <v>370</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>371</v>
+      </c>
+      <c r="B108" t="s">
+        <v>372</v>
+      </c>
+      <c r="C108" t="s">
+        <v>373</v>
+      </c>
+      <c r="D108" t="s">
+        <v>374</v>
+      </c>
+      <c r="E108">
+        <v>-1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>375</v>
+      </c>
+      <c r="B109" t="s">
+        <v>376</v>
+      </c>
+      <c r="C109" t="s">
+        <v>377</v>
+      </c>
+      <c r="D109" t="s">
+        <v>208</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>378</v>
+      </c>
+      <c r="B110" t="s">
+        <v>379</v>
+      </c>
+      <c r="C110" t="s">
+        <v>286</v>
+      </c>
+      <c r="D110" t="s">
+        <v>380</v>
+      </c>
+      <c r="E110">
+        <v>-1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>381</v>
+      </c>
+      <c r="B111" t="s">
+        <v>382</v>
+      </c>
+      <c r="C111" t="s">
+        <v>383</v>
+      </c>
+      <c r="D111" t="s">
+        <v>384</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>385</v>
+      </c>
+      <c r="B112" t="s">
+        <v>386</v>
+      </c>
+      <c r="C112" t="s">
+        <v>387</v>
+      </c>
+      <c r="D112" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112">
+        <v>-1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>388</v>
+      </c>
+      <c r="B113" t="s">
+        <v>389</v>
+      </c>
+      <c r="C113" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" t="s">
+        <v>390</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>391</v>
+      </c>
+      <c r="B114" t="s">
+        <v>392</v>
+      </c>
+      <c r="C114" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" t="s">
+        <v>394</v>
+      </c>
+      <c r="E114">
+        <v>-1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" t="s">
+        <v>395</v>
+      </c>
+      <c r="C115" t="s">
+        <v>396</v>
+      </c>
+      <c r="D115" t="s">
+        <v>397</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" t="s">
+        <v>398</v>
+      </c>
+      <c r="C116" t="s">
+        <v>396</v>
+      </c>
+      <c r="D116" t="s">
+        <v>399</v>
+      </c>
+      <c r="E116">
+        <v>-1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>400</v>
+      </c>
+      <c r="B117" t="s">
+        <v>401</v>
+      </c>
+      <c r="C117" t="s">
+        <v>402</v>
+      </c>
+      <c r="D117" t="s">
+        <v>403</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>404</v>
+      </c>
+      <c r="B118" t="s">
+        <v>405</v>
+      </c>
+      <c r="C118" t="s">
+        <v>406</v>
+      </c>
+      <c r="D118" t="s">
+        <v>407</v>
+      </c>
+      <c r="E118">
+        <v>-1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>408</v>
+      </c>
+      <c r="B119" t="s">
+        <v>409</v>
+      </c>
+      <c r="C119" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119" t="s">
+        <v>410</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>411</v>
+      </c>
+      <c r="B120" t="s">
+        <v>412</v>
+      </c>
+      <c r="C120" t="s">
+        <v>373</v>
+      </c>
+      <c r="D120" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120">
+        <v>-1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17ACC5D-9262-4FCA-859E-A1DC0F9E8E34}">
+  <dimension ref="A3:B210"/>
+  <sheetViews>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="61" width="7" bestFit="1" customWidth="1"/>
+    <col min="62" max="102" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="103" max="119" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4015</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-1988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>-1988</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-1988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-2439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>-2439</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-2439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-2488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>-2488</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-2488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-2220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>-2220</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-2220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="6">
+        <v>11983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>4722</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>7261</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-2170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>-2170</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-2170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6">
+        <v>19884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>7145</v>
+      </c>
+      <c r="B20" s="6">
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>12739</v>
+      </c>
+      <c r="B21" s="6">
+        <v>12739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-5117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>-5117</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-5117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>4558</v>
+      </c>
+      <c r="B25" s="6">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="6">
+        <v>8072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>-2051</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-2051</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>10123</v>
+      </c>
+      <c r="B28" s="6">
+        <v>10123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="6">
+        <v>13832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>13832</v>
+      </c>
+      <c r="B30" s="6">
+        <v>13832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="6">
+        <v>39232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>10587</v>
+      </c>
+      <c r="B32" s="6">
+        <v>10587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>28645</v>
+      </c>
+      <c r="B33" s="6">
+        <v>28645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-6872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>-6872</v>
+      </c>
+      <c r="B35" s="6">
+        <v>-6872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>-2078</v>
+      </c>
+      <c r="B37" s="6">
+        <v>-2078</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>3535</v>
+      </c>
+      <c r="B38" s="6">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6">
+        <v>24283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>10629</v>
+      </c>
+      <c r="B40" s="6">
+        <v>10629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>13654</v>
+      </c>
+      <c r="B41" s="6">
+        <v>13654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="6">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>5749</v>
+      </c>
+      <c r="B43" s="6">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="6">
+        <v>-40446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>-34567</v>
+      </c>
+      <c r="B45" s="6">
+        <v>-34567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>-5879</v>
+      </c>
+      <c r="B46" s="6">
+        <v>-5879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="6">
+        <v>-10757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>-5388</v>
+      </c>
+      <c r="B48" s="6">
+        <v>-5388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>-5369</v>
+      </c>
+      <c r="B49" s="6">
+        <v>-5369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B50" s="6">
+        <v>-2566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>-2566</v>
+      </c>
+      <c r="B51" s="6">
+        <v>-2566</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="6">
+        <v>-21355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>-14064</v>
+      </c>
+      <c r="B53" s="6">
+        <v>-14064</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>-7291</v>
+      </c>
+      <c r="B54" s="6">
+        <v>-7291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="6">
+        <v>-1978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>-1978</v>
+      </c>
+      <c r="B56" s="6">
+        <v>-1978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B57" s="6">
+        <v>-5347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>-5347</v>
+      </c>
+      <c r="B58" s="6">
+        <v>-5347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="6">
+        <v>10622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>-2789</v>
+      </c>
+      <c r="B60" s="6">
+        <v>-2789</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>13411</v>
+      </c>
+      <c r="B61" s="6">
+        <v>13411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6">
+        <v>-25465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>-12942</v>
+      </c>
+      <c r="B63" s="6">
+        <v>-12942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>-12523</v>
+      </c>
+      <c r="B64" s="6">
+        <v>-12523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="6">
+        <v>39799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>-20882</v>
+      </c>
+      <c r="B66" s="6">
+        <v>-20882</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>60681</v>
+      </c>
+      <c r="B67" s="6">
+        <v>60681</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="6">
+        <v>-3084</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>-3084</v>
+      </c>
+      <c r="B69" s="6">
+        <v>-3084</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B70" s="6">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>3491</v>
+      </c>
+      <c r="B71" s="6">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>-5536</v>
+      </c>
+      <c r="B73" s="6">
+        <v>-5536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>6710</v>
+      </c>
+      <c r="B74" s="6">
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="6">
+        <v>-2372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>-2372</v>
+      </c>
+      <c r="B76" s="6">
+        <v>-2372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="6">
+        <v>-539</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>-4264</v>
+      </c>
+      <c r="B78" s="6">
+        <v>-4264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>3725</v>
+      </c>
+      <c r="B79" s="6">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="6">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>7314</v>
+      </c>
+      <c r="B81" s="6">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="6">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>5445</v>
+      </c>
+      <c r="B83" s="6">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="6">
+        <v>-38930</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>-27298</v>
+      </c>
+      <c r="B85" s="6">
+        <v>-27298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>-11632</v>
+      </c>
+      <c r="B86" s="6">
+        <v>-11632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B87" s="6">
+        <v>-3422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>-3422</v>
+      </c>
+      <c r="B88" s="6">
+        <v>-3422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="6">
+        <v>-1444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>-4322</v>
+      </c>
+      <c r="B90" s="6">
+        <v>-4322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>2878</v>
+      </c>
+      <c r="B91" s="6">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="6">
+        <v>-8291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>-8291</v>
+      </c>
+      <c r="B93" s="6">
+        <v>-8291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B94" s="6">
+        <v>-2686</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>-2686</v>
+      </c>
+      <c r="B95" s="6">
+        <v>-2686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="6">
+        <v>19007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>4007</v>
+      </c>
+      <c r="B97" s="6">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>15000</v>
+      </c>
+      <c r="B98" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="6">
+        <v>47028</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>18597</v>
+      </c>
+      <c r="B100" s="6">
+        <v>18597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>28431</v>
+      </c>
+      <c r="B101" s="6">
+        <v>28431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="6">
+        <v>-4353</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>-4353</v>
+      </c>
+      <c r="B103" s="6">
+        <v>-4353</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="6">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>3945</v>
+      </c>
+      <c r="B105" s="6">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>5935</v>
+      </c>
+      <c r="B106" s="6">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="6">
+        <v>252011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>-18982</v>
+      </c>
+      <c r="B108" s="6">
+        <v>-18982</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>270993</v>
+      </c>
+      <c r="B109" s="6">
+        <v>270993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="6">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>3289</v>
+      </c>
+      <c r="B111" s="6">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="6">
+        <v>-3661</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>-3661</v>
+      </c>
+      <c r="B113" s="6">
+        <v>-3661</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="6">
+        <v>10792</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>3480</v>
+      </c>
+      <c r="B115" s="6">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>7312</v>
+      </c>
+      <c r="B116" s="6">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" s="6">
+        <v>-16767</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>-16767</v>
+      </c>
+      <c r="B118" s="6">
+        <v>-16767</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B119" s="6">
+        <v>-2291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>-2291</v>
+      </c>
+      <c r="B120" s="6">
+        <v>-2291</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" s="6">
+        <v>-5604</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>-3285</v>
+      </c>
+      <c r="B122" s="6">
+        <v>-3285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>-2319</v>
+      </c>
+      <c r="B123" s="6">
+        <v>-2319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B124" s="6">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>4065</v>
+      </c>
+      <c r="B125" s="6">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B126" s="6">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>3925</v>
+      </c>
+      <c r="B127" s="6">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" s="6">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>4063</v>
+      </c>
+      <c r="B129" s="6">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B130" s="6">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>3774</v>
+      </c>
+      <c r="B131" s="6">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="6">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>4696</v>
+      </c>
+      <c r="B133" s="6">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" s="6">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>-2938</v>
+      </c>
+      <c r="B135" s="6">
+        <v>-2938</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>5460</v>
+      </c>
+      <c r="B136" s="6">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B137" s="6">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <v>5381</v>
+      </c>
+      <c r="B138" s="6">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B139" s="6">
+        <v>-9636</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <v>-6992</v>
+      </c>
+      <c r="B140" s="6">
+        <v>-6992</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <v>-2644</v>
+      </c>
+      <c r="B141" s="6">
+        <v>-2644</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" s="6">
+        <v>-30853</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
+        <v>-24349</v>
+      </c>
+      <c r="B143" s="6">
+        <v>-24349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <v>-6504</v>
+      </c>
+      <c r="B144" s="6">
+        <v>-6504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" s="6">
+        <v>208074</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>-8809</v>
+      </c>
+      <c r="B146" s="6">
+        <v>-8809</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>216883</v>
+      </c>
+      <c r="B147" s="6">
+        <v>216883</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B148" s="6">
+        <v>-3284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <v>-13765</v>
+      </c>
+      <c r="B149" s="6">
+        <v>-13765</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <v>10481</v>
+      </c>
+      <c r="B150" s="6">
+        <v>10481</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="6">
+        <v>-5649</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
+        <v>-5649</v>
+      </c>
+      <c r="B152" s="6">
+        <v>-5649</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B153" s="6">
+        <v>-2403</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
+        <v>-2403</v>
+      </c>
+      <c r="B154" s="6">
+        <v>-2403</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B155" s="6">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <v>3242</v>
+      </c>
+      <c r="B156" s="6">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B157" s="6">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
+        <v>3784</v>
+      </c>
+      <c r="B158" s="6">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B159" s="6">
+        <v>22177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>9459</v>
+      </c>
+      <c r="B160" s="6">
+        <v>9459</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
+        <v>12718</v>
+      </c>
+      <c r="B161" s="6">
+        <v>12718</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="6">
+        <v>-21061</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
+        <v>-13911</v>
+      </c>
+      <c r="B163" s="6">
+        <v>-13911</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>-7150</v>
+      </c>
+      <c r="B164" s="6">
+        <v>-7150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" s="6">
+        <v>14376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>5194</v>
+      </c>
+      <c r="B166" s="6">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>9182</v>
+      </c>
+      <c r="B167" s="6">
+        <v>9182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="6">
+        <v>-7765</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
+        <v>-4743</v>
+      </c>
+      <c r="B169" s="6">
+        <v>-4743</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
+        <v>-3022</v>
+      </c>
+      <c r="B170" s="6">
+        <v>-3022</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B171" s="6">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <v>4951</v>
+      </c>
+      <c r="B172" s="6">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B173" s="6">
+        <v>-8120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
+        <v>-8120</v>
+      </c>
+      <c r="B174" s="6">
+        <v>-8120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B175" s="6">
+        <v>-2499</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="5">
+        <v>-2499</v>
+      </c>
+      <c r="B176" s="6">
+        <v>-2499</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="6">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
+        <v>3458</v>
+      </c>
+      <c r="B178" s="6">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179" s="6">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
+        <v>3039</v>
+      </c>
+      <c r="B180" s="6">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B181" s="6">
+        <v>-8812</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>-5257</v>
+      </c>
+      <c r="B182" s="6">
+        <v>-5257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <v>-3555</v>
+      </c>
+      <c r="B183" s="6">
+        <v>-3555</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B184" s="6">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <v>5758</v>
+      </c>
+      <c r="B185" s="6">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B186" s="6">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>2968</v>
+      </c>
+      <c r="B187" s="6">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B188" s="6">
+        <v>20950</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <v>7123</v>
+      </c>
+      <c r="B189" s="6">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <v>13827</v>
+      </c>
+      <c r="B190" s="6">
+        <v>13827</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B191" s="6">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <v>8604</v>
+      </c>
+      <c r="B192" s="6">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B193" s="6">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
+        <v>3802</v>
+      </c>
+      <c r="B194" s="6">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B195" s="6">
+        <v>-3251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
+        <v>-3251</v>
+      </c>
+      <c r="B196" s="6">
+        <v>-3251</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B197" s="6">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="5">
+        <v>3028</v>
+      </c>
+      <c r="B198" s="6">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" s="6">
+        <v>-2338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="5">
+        <v>-2338</v>
+      </c>
+      <c r="B200" s="6">
+        <v>-2338</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="6">
+        <v>86925</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="5">
+        <v>42558</v>
+      </c>
+      <c r="B202" s="6">
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="5">
+        <v>44367</v>
+      </c>
+      <c r="B203" s="6">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B204" s="6">
+        <v>-3925</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="5">
+        <v>-3925</v>
+      </c>
+      <c r="B205" s="6">
+        <v>-3925</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B206" s="6">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="5">
+        <v>3182</v>
+      </c>
+      <c r="B207" s="6">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B208" s="6">
+        <v>-3178</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="5">
+        <v>-3178</v>
+      </c>
+      <c r="B209" s="6">
+        <v>-3178</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B210" s="6">
+        <v>632235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64F9EF4-6288-4496-BAB2-036C63700A83}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P126" sqref="P126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>270993</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4448</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f ca="1">E2*B2</f>
+        <v>270993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>34567</v>
+      </c>
+      <c r="C3">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f ca="1">E3*B3</f>
+        <v>-34567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44367</v>
+      </c>
+      <c r="C4">
+        <v>239</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f ca="1">E4*B4</f>
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>27298</v>
+      </c>
+      <c r="C5">
+        <v>355</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f ca="1">E5*B5</f>
+        <v>-27298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>28431</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-9.5999999999999992E-3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f ca="1">E6*B6</f>
+        <v>28431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20882</v>
+      </c>
+      <c r="C7">
+        <v>218</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f ca="1">E7*B7</f>
+        <v>-20882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C8">
+        <v>703</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f ca="1">E8*B8</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16767</v>
+      </c>
+      <c r="C9">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f ca="1">E9*B9</f>
+        <v>-16767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>13827</v>
+      </c>
+      <c r="C10">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <f ca="1">E10*B10</f>
+        <v>13827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14064</v>
+      </c>
+      <c r="C11">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-4.5100000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f ca="1">E11*B11</f>
+        <v>-14064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13654</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1.6899999999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f ca="1">E12*B12</f>
+        <v>13654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13911</v>
+      </c>
+      <c r="C13">
+        <v>359</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f ca="1">E13*B13</f>
+        <v>-13911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10587</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f ca="1">E14*B14</f>
+        <v>10587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13765</v>
+      </c>
+      <c r="C15">
+        <v>198</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <f ca="1">E15*B15</f>
+        <v>-13765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9459</v>
+      </c>
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f ca="1">E16*B16</f>
+        <v>9459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12523</v>
+      </c>
+      <c r="C17">
+        <v>245</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <f ca="1">E17*B17</f>
+        <v>-12523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8604</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <f ca="1">E18*B18</f>
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8809</v>
+      </c>
+      <c r="C19">
+        <v>280</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-8.1699999999999995E-2</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <f ca="1">E19*B19</f>
+        <v>-8809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7314</v>
+      </c>
+      <c r="C20">
+        <v>279</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <f ca="1">E20*B20</f>
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6504</v>
+      </c>
+      <c r="C21">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-3.1600000000000003E-2</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f ca="1">E21*B21</f>
+        <v>-6504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7261</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2474</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.04E-2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f ca="1">E22*B22</f>
+        <v>7261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5536</v>
+      </c>
+      <c r="C23">
+        <v>527</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f ca="1">E23*B23</f>
+        <v>-5536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7145</v>
+      </c>
+      <c r="C24">
+        <v>444</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-1.23E-2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <f ca="1">E24*B24</f>
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5369</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f ca="1">E25*B25</f>
+        <v>-5369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5935</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f ca="1">E26*B26</f>
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5257</v>
+      </c>
+      <c r="C27">
+        <v>113</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f ca="1">E27*B27</f>
+        <v>-5257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5758</v>
+      </c>
+      <c r="C28">
+        <v>81</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1.12E-2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <f ca="1">E28*B28</f>
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5117</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1085</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <f ca="1">E29*B29</f>
+        <v>-5117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5749</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <f ca="1">E30*B30</f>
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4353</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <f ca="1">E31*B31</f>
+        <v>-4353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5445</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <f ca="1">E32*B32</f>
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3925</v>
+      </c>
+      <c r="C33">
+        <v>44</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <f ca="1">E33*B33</f>
+        <v>-3925</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5381</v>
+      </c>
+      <c r="C34">
+        <v>310</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <f ca="1">E34*B34</f>
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3661</v>
+      </c>
+      <c r="C35">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <f ca="1">E35*B35</f>
+        <v>-3661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5194</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <f ca="1">E36*B36</f>
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3285</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f ca="1">E37*B37</f>
+        <v>-3285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4696</v>
+      </c>
+      <c r="C38">
+        <v>43</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <f ca="1">E38*B38</f>
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3251</v>
+      </c>
+      <c r="C39">
+        <v>27</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-2.07E-2</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <f ca="1">E39*B39</f>
+        <v>-3251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4063</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f ca="1">E40*B40</f>
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3084</v>
+      </c>
+      <c r="C41">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <f ca="1">E41*B41</f>
+        <v>-3084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4015</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-1.72E-2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <f ca="1">E42*B42</f>
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3022</v>
+      </c>
+      <c r="C43">
+        <v>140</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <f ca="1">E43*B43</f>
+        <v>-3022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3725</v>
+      </c>
+      <c r="C44">
+        <v>226</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-2.3199999999999998E-2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <f ca="1">E44*B44</f>
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2938</v>
+      </c>
+      <c r="C45">
+        <v>240</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <f ca="1">E45*B45</f>
+        <v>-2938</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3480</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <f ca="1">E46*B46</f>
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2789</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-2.8500000000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <f ca="1">E47*B47</f>
+        <v>-2789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3458</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <f ca="1">E48*B48</f>
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2644</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2.07E-2</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <f ca="1">E49*B49</f>
+        <v>-2644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3289</v>
+      </c>
+      <c r="C50">
+        <v>551</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <f ca="1">E50*B50</f>
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2372</v>
+      </c>
+      <c r="C51">
+        <v>500</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <f ca="1">E51*B51</f>
+        <v>-2372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3182</v>
+      </c>
+      <c r="C52">
+        <v>93</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.32E-2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <f ca="1">E52*B52</f>
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2220</v>
+      </c>
+      <c r="C53">
+        <v>67</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="E53">
+        <v>-1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <f ca="1">E53*B53</f>
+        <v>-2220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3039</v>
+      </c>
+      <c r="C54">
+        <v>98</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <f ca="1">E54*B54</f>
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2078</v>
+      </c>
+      <c r="C55">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2">
+        <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="E55">
+        <v>-1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <f ca="1">E55*B55</f>
+        <v>-2078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3028</v>
+      </c>
+      <c r="C56">
+        <v>44</v>
+      </c>
+      <c r="D56" s="2">
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <f ca="1">E56*B56</f>
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2051</v>
+      </c>
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <f ca="1">E57*B57</f>
+        <v>-2051</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2968</v>
+      </c>
+      <c r="C58">
+        <v>50</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <f ca="1">E58*B58</f>
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C59">
+        <v>291</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <f ca="1">E59*B59</f>
+        <v>-1988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2878</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1564</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-3.5099999999999999E-2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <f ca="1">E60*B60</f>
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1978</v>
+      </c>
+      <c r="C61">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-1.41E-2</v>
+      </c>
+      <c r="E61">
+        <v>-1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <f ca="1">E61*B61</f>
+        <v>-1978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="1">
+        <v>216883</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7499</v>
+      </c>
+      <c r="D62" s="2">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>231</v>
+      </c>
+      <c r="G62">
+        <f ca="1">E62*B62</f>
+        <v>216883</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="1">
+        <v>24349</v>
+      </c>
+      <c r="C63">
+        <v>316</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="E63">
+        <v>-1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>231</v>
+      </c>
+      <c r="G63">
+        <f ca="1">E63*B63</f>
+        <v>-24349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="1">
+        <v>60681</v>
+      </c>
+      <c r="C64">
+        <v>627</v>
+      </c>
+      <c r="D64" s="2">
+        <v>-1.04E-2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>231</v>
+      </c>
+      <c r="G64">
+        <f ca="1">E64*B64</f>
+        <v>60681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>18982</v>
+      </c>
+      <c r="C65">
+        <v>312</v>
+      </c>
+      <c r="D65" s="2">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>231</v>
+      </c>
+      <c r="G65">
+        <f ca="1">E65*B65</f>
+        <v>-18982</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42558</v>
+      </c>
+      <c r="C66">
+        <v>224</v>
+      </c>
+      <c r="D66" s="2">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>231</v>
+      </c>
+      <c r="G66">
+        <f ca="1">E66*B66</f>
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="1">
+        <v>12942</v>
+      </c>
+      <c r="C67">
+        <v>255</v>
+      </c>
+      <c r="D67" s="2">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E67">
+        <v>-1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>231</v>
+      </c>
+      <c r="G67">
+        <f ca="1">E67*B67</f>
+        <v>-12942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="1">
+        <v>28645</v>
+      </c>
+      <c r="C68">
+        <v>64</v>
+      </c>
+      <c r="D68" s="2">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>231</v>
+      </c>
+      <c r="G68">
+        <f ca="1">E68*B68</f>
+        <v>28645</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1">
+        <v>11632</v>
+      </c>
+      <c r="C69">
+        <v>151</v>
+      </c>
+      <c r="D69" s="2">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E69">
+        <v>-1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>231</v>
+      </c>
+      <c r="G69">
+        <f ca="1">E69*B69</f>
+        <v>-11632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="1">
+        <v>18597</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70">
+        <f ca="1">E70*B70</f>
+        <v>18597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" s="1">
+        <v>8291</v>
+      </c>
+      <c r="C71">
+        <v>92</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>231</v>
+      </c>
+      <c r="G71">
+        <f ca="1">E71*B71</f>
+        <v>-8291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="1">
+        <v>13832</v>
+      </c>
+      <c r="C72">
+        <v>819</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-4.7300000000000002E-2</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72">
+        <f ca="1">E72*B72</f>
+        <v>13832</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="1">
+        <v>8120</v>
+      </c>
+      <c r="C73">
+        <v>144</v>
+      </c>
+      <c r="D73" s="2">
+        <v>-1.24E-2</v>
+      </c>
+      <c r="E73">
+        <v>-1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73">
+        <f ca="1">E73*B73</f>
+        <v>-8120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="1">
+        <v>13411</v>
+      </c>
+      <c r="C74">
+        <v>65</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>231</v>
+      </c>
+      <c r="G74">
+        <f ca="1">E74*B74</f>
+        <v>13411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="1">
+        <v>7291</v>
+      </c>
+      <c r="C75">
+        <v>62</v>
+      </c>
+      <c r="D75" s="2">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="E75">
+        <v>-1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>231</v>
+      </c>
+      <c r="G75">
+        <f ca="1">E75*B75</f>
+        <v>-7291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="1">
+        <v>12739</v>
+      </c>
+      <c r="C76">
+        <v>798</v>
+      </c>
+      <c r="D76" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>231</v>
+      </c>
+      <c r="G76">
+        <f ca="1">E76*B76</f>
+        <v>12739</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="1">
+        <v>7150</v>
+      </c>
+      <c r="C77">
+        <v>186</v>
+      </c>
+      <c r="D77" s="2">
+        <v>-2.2100000000000002E-2</v>
+      </c>
+      <c r="E77">
+        <v>-1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>231</v>
+      </c>
+      <c r="G77">
+        <f ca="1">E77*B77</f>
+        <v>-7150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="1">
+        <v>12718</v>
+      </c>
+      <c r="C78">
+        <v>82</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>231</v>
+      </c>
+      <c r="G78">
+        <f ca="1">E78*B78</f>
+        <v>12718</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6992</v>
+      </c>
+      <c r="C79">
+        <v>97</v>
+      </c>
+      <c r="D79" s="2">
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="E79">
+        <v>-1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>231</v>
+      </c>
+      <c r="G79">
+        <f ca="1">E79*B79</f>
+        <v>-6992</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="1">
+        <v>10629</v>
+      </c>
+      <c r="C80">
+        <v>16</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>231</v>
+      </c>
+      <c r="G80">
+        <f ca="1">E80*B80</f>
+        <v>10629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6872</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81" s="2">
+        <v>-1.3299999999999999E-2</v>
+      </c>
+      <c r="E81">
+        <v>-1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>231</v>
+      </c>
+      <c r="G81">
+        <f ca="1">E81*B81</f>
+        <v>-6872</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="1">
+        <v>10481</v>
+      </c>
+      <c r="C82">
+        <v>152</v>
+      </c>
+      <c r="D82" s="2">
+        <v>-5.2299999999999999E-2</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>231</v>
+      </c>
+      <c r="G82">
+        <f ca="1">E82*B82</f>
+        <v>10481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>5879</v>
+      </c>
+      <c r="C83">
+        <v>24</v>
+      </c>
+      <c r="D83" s="2">
+        <v>-1.21E-2</v>
+      </c>
+      <c r="E83">
+        <v>-1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>231</v>
+      </c>
+      <c r="G83">
+        <f ca="1">E83*B83</f>
+        <v>-5879</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10123</v>
+      </c>
+      <c r="C84">
+        <v>263</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>231</v>
+      </c>
+      <c r="G84">
+        <f ca="1">E84*B84</f>
+        <v>10123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" s="1">
+        <v>5649</v>
+      </c>
+      <c r="C85">
+        <v>94</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E85">
+        <v>-1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>231</v>
+      </c>
+      <c r="G85">
+        <f ca="1">E85*B85</f>
+        <v>-5649</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="1">
+        <v>9182</v>
+      </c>
+      <c r="C86">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2">
+        <v>-2.41E-2</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>231</v>
+      </c>
+      <c r="G86">
+        <f ca="1">E86*B86</f>
+        <v>9182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="1">
+        <v>5388</v>
+      </c>
+      <c r="C87">
+        <v>21</v>
+      </c>
+      <c r="D87" s="2">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="E87">
+        <v>-1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>231</v>
+      </c>
+      <c r="G87">
+        <f ca="1">E87*B87</f>
+        <v>-5388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="1">
+        <v>7312</v>
+      </c>
+      <c r="C88">
+        <v>37</v>
+      </c>
+      <c r="D88" s="2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>231</v>
+      </c>
+      <c r="G88">
+        <f ca="1">E88*B88</f>
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5347</v>
+      </c>
+      <c r="C89">
+        <v>58</v>
+      </c>
+      <c r="D89" s="2">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="E89">
+        <v>-1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>231</v>
+      </c>
+      <c r="G89">
+        <f ca="1">E89*B89</f>
+        <v>-5347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="1">
+        <v>7123</v>
+      </c>
+      <c r="C90">
+        <v>33</v>
+      </c>
+      <c r="D90" s="2">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>231</v>
+      </c>
+      <c r="G90">
+        <f ca="1">E90*B90</f>
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4743</v>
+      </c>
+      <c r="C91">
+        <v>221</v>
+      </c>
+      <c r="D91" s="2">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="E91">
+        <v>-1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>231</v>
+      </c>
+      <c r="G91">
+        <f ca="1">E91*B91</f>
+        <v>-4743</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="1">
+        <v>6710</v>
+      </c>
+      <c r="C92">
+        <v>623</v>
+      </c>
+      <c r="D92" s="2">
+        <v>-1.6299999999999999E-2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>231</v>
+      </c>
+      <c r="G92">
+        <f ca="1">E92*B92</f>
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4322</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2383</v>
+      </c>
+      <c r="D93" s="2">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="E93">
+        <v>-1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>231</v>
+      </c>
+      <c r="G93">
+        <f ca="1">E93*B93</f>
+        <v>-4322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5460</v>
+      </c>
+      <c r="C94">
+        <v>440</v>
+      </c>
+      <c r="D94" s="2">
+        <v>-2.41E-2</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>231</v>
+      </c>
+      <c r="G94">
+        <f ca="1">E94*B94</f>
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="1">
+        <v>4264</v>
+      </c>
+      <c r="C95">
+        <v>256</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E95">
+        <v>-1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>231</v>
+      </c>
+      <c r="G95">
+        <f ca="1">E95*B95</f>
+        <v>-4264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>329</v>
+      </c>
+      <c r="B96" s="1">
+        <v>4951</v>
+      </c>
+      <c r="C96">
+        <v>311</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>231</v>
+      </c>
+      <c r="G96">
+        <f ca="1">E96*B96</f>
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3555</v>
+      </c>
+      <c r="C97">
+        <v>79</v>
+      </c>
+      <c r="D97" s="2">
+        <v>-2.47E-2</v>
+      </c>
+      <c r="E97">
+        <v>-1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>231</v>
+      </c>
+      <c r="G97">
+        <f ca="1">E97*B97</f>
+        <v>-3555</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="1">
+        <v>4722</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1623</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>231</v>
+      </c>
+      <c r="G98">
+        <f ca="1">E98*B98</f>
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>338</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3422</v>
+      </c>
+      <c r="C99">
+        <v>119</v>
+      </c>
+      <c r="D99" s="2">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E99">
+        <v>-1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>231</v>
+      </c>
+      <c r="G99">
+        <f ca="1">E99*B99</f>
+        <v>-3422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>342</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4558</v>
+      </c>
+      <c r="C100">
+        <v>963</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1.04E-2</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>231</v>
+      </c>
+      <c r="G100">
+        <f ca="1">E100*B100</f>
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>345</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3178</v>
+      </c>
+      <c r="C101">
+        <v>199</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E101">
+        <v>-1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>231</v>
+      </c>
+      <c r="G101">
+        <f ca="1">E101*B101</f>
+        <v>-3178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>349</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4065</v>
+      </c>
+      <c r="C102">
+        <v>32</v>
+      </c>
+      <c r="D102" s="2">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>231</v>
+      </c>
+      <c r="G102">
+        <f ca="1">E102*B102</f>
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2686</v>
+      </c>
+      <c r="C103">
+        <v>32</v>
+      </c>
+      <c r="D103" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E103">
+        <v>-1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>231</v>
+      </c>
+      <c r="G103">
+        <f ca="1">E103*B103</f>
+        <v>-2686</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4007</v>
+      </c>
+      <c r="C104">
+        <v>190</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>231</v>
+      </c>
+      <c r="G104">
+        <f ca="1">E104*B104</f>
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>358</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2566</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105" s="2">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E105">
+        <v>-1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>231</v>
+      </c>
+      <c r="G105">
+        <f ca="1">E105*B105</f>
+        <v>-2566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3945</v>
+      </c>
+      <c r="C106">
+        <v>29</v>
+      </c>
+      <c r="D106" s="2">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>231</v>
+      </c>
+      <c r="G106">
+        <f ca="1">E106*B106</f>
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2499</v>
+      </c>
+      <c r="C107">
+        <v>146</v>
+      </c>
+      <c r="D107" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E107">
+        <v>-1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>231</v>
+      </c>
+      <c r="G107">
+        <f ca="1">E107*B107</f>
+        <v>-2499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>368</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3925</v>
+      </c>
+      <c r="C108">
+        <v>108</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>231</v>
+      </c>
+      <c r="G108">
+        <f ca="1">E108*B108</f>
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>371</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2488</v>
+      </c>
+      <c r="C109">
+        <v>106</v>
+      </c>
+      <c r="D109" s="2">
+        <v>-1.9400000000000001E-2</v>
+      </c>
+      <c r="E109">
+        <v>-1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>231</v>
+      </c>
+      <c r="G109">
+        <f ca="1">E109*B109</f>
+        <v>-2488</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>375</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3802</v>
+      </c>
+      <c r="C110">
+        <v>68</v>
+      </c>
+      <c r="D110" s="2">
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>231</v>
+      </c>
+      <c r="G110">
+        <f ca="1">E110*B110</f>
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>378</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2439</v>
+      </c>
+      <c r="C111">
+        <v>16</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="E111">
+        <v>-1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>231</v>
+      </c>
+      <c r="G111">
+        <f ca="1">E111*B111</f>
+        <v>-2439</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>381</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3784</v>
+      </c>
+      <c r="C112">
+        <v>143</v>
+      </c>
+      <c r="D112" s="2">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>231</v>
+      </c>
+      <c r="G112">
+        <f ca="1">E112*B112</f>
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>385</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2403</v>
+      </c>
+      <c r="C113">
+        <v>111</v>
+      </c>
+      <c r="D113" s="2">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E113">
+        <v>-1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>231</v>
+      </c>
+      <c r="G113">
+        <f ca="1">E113*B113</f>
+        <v>-2403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>388</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3774</v>
+      </c>
+      <c r="C114">
+        <v>79</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-3.6200000000000003E-2</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>231</v>
+      </c>
+      <c r="G114">
+        <f ca="1">E114*B114</f>
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>391</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2338</v>
+      </c>
+      <c r="C115">
+        <v>71</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1.37E-2</v>
+      </c>
+      <c r="E115">
+        <v>-1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>231</v>
+      </c>
+      <c r="G115">
+        <f ca="1">E115*B115</f>
+        <v>-2338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3535</v>
+      </c>
+      <c r="C116">
+        <v>35</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>231</v>
+      </c>
+      <c r="G116">
+        <f ca="1">E116*B116</f>
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2319</v>
+      </c>
+      <c r="C117">
+        <v>35</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="E117">
+        <v>-1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>231</v>
+      </c>
+      <c r="G117">
+        <f ca="1">E117*B117</f>
+        <v>-2319</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>400</v>
+      </c>
+      <c r="B118" s="1">
+        <v>3491</v>
+      </c>
+      <c r="C118">
+        <v>292</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-1.3899999999999999E-2</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>231</v>
+      </c>
+      <c r="G118">
+        <f ca="1">E118*B118</f>
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>404</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2291</v>
+      </c>
+      <c r="C119">
+        <v>966</v>
+      </c>
+      <c r="D119" s="2">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E119">
+        <v>-1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>231</v>
+      </c>
+      <c r="G119">
+        <f ca="1">E119*B119</f>
+        <v>-2291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>408</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3242</v>
+      </c>
+      <c r="C120">
+        <v>50</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-7.6E-3</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>231</v>
+      </c>
+      <c r="G120">
+        <f ca="1">E120*B120</f>
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>411</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2170</v>
+      </c>
+      <c r="C121">
+        <v>106</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>-1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>231</v>
+      </c>
+      <c r="G121">
+        <f ca="1">E121*B121</f>
+        <v>-2170</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G121" xr:uid="{C64F9EF4-6288-4496-BAB2-036C63700A83}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="KT"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20200228start\python_ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBE53F5-D4F8-4DF1-9E66-473CBCEA3866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADDEE22-08BA-455D-9A08-2C4BB31C2C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Do_Data!$A$1:$G$121</definedName>
   </definedNames>
-  <calcPr calcId="0" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="425">
   <si>
     <t>삼성전자</t>
   </si>
@@ -1301,6 +1311,12 @@
   </si>
   <si>
     <t>합계 : 금액작업</t>
+  </si>
+  <si>
+    <t>매수매도</t>
+  </si>
+  <si>
+    <t>열 레이블</t>
   </si>
 </sst>
 </file>
@@ -1475,10 +1491,118 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="7499"/>
     </cacheField>
     <cacheField name="등락" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.1699999999999995E-2" maxValue="3.9300000000000002E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.1699999999999995E-2" maxValue="3.9300000000000002E-2" count="104">
+        <n v="-9.7999999999999997E-3"/>
+        <n v="-8.0000000000000002E-3"/>
+        <n v="2.1499999999999998E-2"/>
+        <n v="6.4999999999999997E-3"/>
+        <n v="-9.5999999999999992E-3"/>
+        <n v="7.3000000000000001E-3"/>
+        <n v="-1.4E-2"/>
+        <n v="-4.8999999999999998E-3"/>
+        <n v="1.66E-2"/>
+        <n v="-4.5100000000000001E-2"/>
+        <n v="-1.6899999999999998E-2"/>
+        <n v="0"/>
+        <n v="-1.11E-2"/>
+        <n v="5.7999999999999996E-3"/>
+        <n v="-2.7900000000000001E-2"/>
+        <n v="-3.8999999999999998E-3"/>
+        <n v="1.3899999999999999E-2"/>
+        <n v="-8.1699999999999995E-2"/>
+        <n v="5.7000000000000002E-3"/>
+        <n v="-3.1600000000000003E-2"/>
+        <n v="1.04E-2"/>
+        <n v="1.8499999999999999E-2"/>
+        <n v="-1.23E-2"/>
+        <n v="-1.09E-2"/>
+        <n v="-1.12E-2"/>
+        <n v="6.4000000000000003E-3"/>
+        <n v="2.2000000000000001E-3"/>
+        <n v="3.8E-3"/>
+        <n v="-3.3999999999999998E-3"/>
+        <n v="1.1299999999999999E-2"/>
+        <n v="-8.8000000000000005E-3"/>
+        <n v="-2.8E-3"/>
+        <n v="-6.1999999999999998E-3"/>
+        <n v="9.1999999999999998E-3"/>
+        <n v="-2.07E-2"/>
+        <n v="-2.0899999999999998E-2"/>
+        <n v="1.84E-2"/>
+        <n v="-1.72E-2"/>
+        <n v="-2.3E-3"/>
+        <n v="-2.3199999999999998E-2"/>
+        <n v="2.0500000000000001E-2"/>
+        <n v="1.26E-2"/>
+        <n v="-2.8500000000000001E-2"/>
+        <n v="-2.8000000000000001E-2"/>
+        <n v="2.07E-2"/>
+        <n v="3.3E-3"/>
+        <n v="2.1100000000000001E-2"/>
+        <n v="1.32E-2"/>
+        <n v="-5.7999999999999996E-3"/>
+        <n v="-7.3000000000000001E-3"/>
+        <n v="1.7100000000000001E-2"/>
+        <n v="-2.1000000000000001E-2"/>
+        <n v="2.8999999999999998E-3"/>
+        <n v="-3.5099999999999999E-2"/>
+        <n v="-1.41E-2"/>
+        <n v="-5.1999999999999998E-3"/>
+        <n v="-1.9599999999999999E-2"/>
+        <n v="-1.04E-2"/>
+        <n v="-1.15E-2"/>
+        <n v="-2.5999999999999999E-3"/>
+        <n v="9.7999999999999997E-3"/>
+        <n v="-2.2000000000000001E-3"/>
+        <n v="-1.6199999999999999E-2"/>
+        <n v="-1.1000000000000001E-3"/>
+        <n v="-4.7300000000000002E-2"/>
+        <n v="-1.24E-2"/>
+        <n v="1.2200000000000001E-2"/>
+        <n v="-1.29E-2"/>
+        <n v="-0.02"/>
+        <n v="-2.2100000000000002E-2"/>
+        <n v="1.9099999999999999E-2"/>
+        <n v="-3.2399999999999998E-2"/>
+        <n v="4.7000000000000002E-3"/>
+        <n v="-1.3299999999999999E-2"/>
+        <n v="-5.2299999999999999E-2"/>
+        <n v="-1.21E-2"/>
+        <n v="3.8999999999999998E-3"/>
+        <n v="3.3999999999999998E-3"/>
+        <n v="-2.41E-2"/>
+        <n v="-5.0000000000000001E-3"/>
+        <n v="-7.0000000000000001E-3"/>
+        <n v="-9.2999999999999992E-3"/>
+        <n v="-1.6299999999999999E-2"/>
+        <n v="2.5000000000000001E-3"/>
+        <n v="3.3099999999999997E-2"/>
+        <n v="-2.47E-2"/>
+        <n v="5.4000000000000003E-3"/>
+        <n v="2.52E-2"/>
+        <n v="4.7999999999999996E-3"/>
+        <n v="1.18E-2"/>
+        <n v="7.7999999999999996E-3"/>
+        <n v="-1.0999999999999999E-2"/>
+        <n v="-3.0000000000000001E-3"/>
+        <n v="1.24E-2"/>
+        <n v="-1.9400000000000001E-2"/>
+        <n v="-1.9800000000000002E-2"/>
+        <n v="3.9300000000000002E-2"/>
+        <n v="-3.6200000000000003E-2"/>
+        <n v="-1.37E-2"/>
+        <n v="-9.9000000000000008E-3"/>
+        <n v="-3.0999999999999999E-3"/>
+        <n v="-1.3899999999999999E-2"/>
+        <n v="8.6999999999999994E-3"/>
+        <n v="-7.6E-3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="매수매도" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1" maxValue="1" count="2">
+        <n v="1"/>
+        <n v="-1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="날짜" numFmtId="0">
       <sharedItems count="2">
@@ -1625,8 +1749,8 @@
     <x v="0"/>
     <n v="270993"/>
     <n v="4448"/>
-    <n v="-9.7999999999999997E-3"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -1634,8 +1758,8 @@
     <x v="1"/>
     <n v="34567"/>
     <n v="138"/>
-    <n v="-8.0000000000000002E-3"/>
-    <n v="-1"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
   </r>
@@ -1643,8 +1767,8 @@
     <x v="2"/>
     <n v="44367"/>
     <n v="239"/>
-    <n v="2.1499999999999998E-2"/>
-    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
   </r>
@@ -1652,8 +1776,8 @@
     <x v="3"/>
     <n v="27298"/>
     <n v="355"/>
-    <n v="6.4999999999999997E-3"/>
-    <n v="-1"/>
+    <x v="3"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
   </r>
@@ -1661,8 +1785,8 @@
     <x v="4"/>
     <n v="28431"/>
     <n v="46"/>
-    <n v="-9.5999999999999992E-3"/>
-    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
   </r>
@@ -1670,8 +1794,8 @@
     <x v="5"/>
     <n v="20882"/>
     <n v="218"/>
-    <n v="7.3000000000000001E-3"/>
-    <n v="-1"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="5"/>
   </r>
@@ -1679,8 +1803,8 @@
     <x v="6"/>
     <n v="15000"/>
     <n v="703"/>
-    <n v="-1.4E-2"/>
-    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
   </r>
@@ -1688,8 +1812,8 @@
     <x v="7"/>
     <n v="16767"/>
     <n v="81"/>
-    <n v="-4.8999999999999998E-3"/>
-    <n v="-1"/>
+    <x v="7"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="7"/>
   </r>
@@ -1697,8 +1821,8 @@
     <x v="8"/>
     <n v="13827"/>
     <n v="66"/>
-    <n v="1.66E-2"/>
-    <n v="1"/>
+    <x v="8"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="8"/>
   </r>
@@ -1706,8 +1830,8 @@
     <x v="9"/>
     <n v="14064"/>
     <n v="114"/>
-    <n v="-4.5100000000000001E-2"/>
-    <n v="-1"/>
+    <x v="9"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="9"/>
   </r>
@@ -1715,8 +1839,8 @@
     <x v="10"/>
     <n v="13654"/>
     <n v="21"/>
-    <n v="-1.6899999999999998E-2"/>
-    <n v="1"/>
+    <x v="10"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="10"/>
   </r>
@@ -1724,8 +1848,8 @@
     <x v="11"/>
     <n v="13911"/>
     <n v="359"/>
-    <n v="0"/>
-    <n v="-1"/>
+    <x v="11"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="11"/>
   </r>
@@ -1733,8 +1857,8 @@
     <x v="12"/>
     <n v="10587"/>
     <n v="24"/>
-    <n v="-1.11E-2"/>
-    <n v="1"/>
+    <x v="12"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="12"/>
   </r>
@@ -1742,8 +1866,8 @@
     <x v="13"/>
     <n v="13765"/>
     <n v="198"/>
-    <n v="5.7999999999999996E-3"/>
-    <n v="-1"/>
+    <x v="13"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="13"/>
   </r>
@@ -1751,8 +1875,8 @@
     <x v="14"/>
     <n v="9459"/>
     <n v="59"/>
-    <n v="-2.7900000000000001E-2"/>
-    <n v="1"/>
+    <x v="14"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="14"/>
   </r>
@@ -1760,8 +1884,8 @@
     <x v="15"/>
     <n v="12523"/>
     <n v="245"/>
-    <n v="-3.8999999999999998E-3"/>
-    <n v="-1"/>
+    <x v="15"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="15"/>
   </r>
@@ -1769,8 +1893,8 @@
     <x v="16"/>
     <n v="8604"/>
     <n v="80"/>
-    <n v="1.3899999999999999E-2"/>
-    <n v="1"/>
+    <x v="16"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="16"/>
   </r>
@@ -1778,8 +1902,8 @@
     <x v="17"/>
     <n v="8809"/>
     <n v="280"/>
-    <n v="-8.1699999999999995E-2"/>
-    <n v="-1"/>
+    <x v="17"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="17"/>
   </r>
@@ -1787,8 +1911,8 @@
     <x v="18"/>
     <n v="7314"/>
     <n v="279"/>
-    <n v="5.7000000000000002E-3"/>
-    <n v="1"/>
+    <x v="18"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="18"/>
   </r>
@@ -1796,8 +1920,8 @@
     <x v="19"/>
     <n v="6504"/>
     <n v="84"/>
-    <n v="-3.1600000000000003E-2"/>
-    <n v="-1"/>
+    <x v="19"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="19"/>
   </r>
@@ -1805,8 +1929,8 @@
     <x v="20"/>
     <n v="7261"/>
     <n v="2474"/>
-    <n v="1.04E-2"/>
-    <n v="1"/>
+    <x v="20"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="20"/>
   </r>
@@ -1814,8 +1938,8 @@
     <x v="21"/>
     <n v="5536"/>
     <n v="527"/>
-    <n v="1.8499999999999999E-2"/>
-    <n v="-1"/>
+    <x v="21"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
   </r>
@@ -1823,8 +1947,8 @@
     <x v="22"/>
     <n v="7145"/>
     <n v="444"/>
-    <n v="-1.23E-2"/>
-    <n v="1"/>
+    <x v="22"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
   </r>
@@ -1832,8 +1956,8 @@
     <x v="23"/>
     <n v="5369"/>
     <n v="21"/>
-    <n v="-3.8999999999999998E-3"/>
-    <n v="-1"/>
+    <x v="15"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="23"/>
   </r>
@@ -1841,8 +1965,8 @@
     <x v="24"/>
     <n v="5935"/>
     <n v="43"/>
-    <n v="-1.09E-2"/>
-    <n v="1"/>
+    <x v="23"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="24"/>
   </r>
@@ -1850,8 +1974,8 @@
     <x v="25"/>
     <n v="5257"/>
     <n v="113"/>
-    <n v="0"/>
-    <n v="-1"/>
+    <x v="11"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="25"/>
   </r>
@@ -1859,8 +1983,8 @@
     <x v="26"/>
     <n v="5758"/>
     <n v="81"/>
-    <n v="-1.12E-2"/>
-    <n v="1"/>
+    <x v="24"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="26"/>
   </r>
@@ -1868,8 +1992,8 @@
     <x v="27"/>
     <n v="5117"/>
     <n v="1085"/>
-    <n v="6.4000000000000003E-3"/>
-    <n v="-1"/>
+    <x v="25"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="27"/>
   </r>
@@ -1877,8 +2001,8 @@
     <x v="28"/>
     <n v="5749"/>
     <n v="63"/>
-    <n v="2.2000000000000001E-3"/>
-    <n v="1"/>
+    <x v="26"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
   </r>
@@ -1886,8 +2010,8 @@
     <x v="29"/>
     <n v="4353"/>
     <n v="33"/>
-    <n v="3.8E-3"/>
-    <n v="-1"/>
+    <x v="27"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="29"/>
   </r>
@@ -1895,8 +2019,8 @@
     <x v="30"/>
     <n v="5445"/>
     <n v="9"/>
-    <n v="-3.3999999999999998E-3"/>
-    <n v="1"/>
+    <x v="28"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="30"/>
   </r>
@@ -1904,8 +2028,8 @@
     <x v="31"/>
     <n v="3925"/>
     <n v="44"/>
-    <n v="1.1299999999999999E-2"/>
-    <n v="-1"/>
+    <x v="29"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="31"/>
   </r>
@@ -1913,8 +2037,8 @@
     <x v="32"/>
     <n v="5381"/>
     <n v="310"/>
-    <n v="-8.8000000000000005E-3"/>
-    <n v="1"/>
+    <x v="30"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="32"/>
   </r>
@@ -1922,8 +2046,8 @@
     <x v="33"/>
     <n v="3661"/>
     <n v="104"/>
-    <n v="-2.8E-3"/>
-    <n v="-1"/>
+    <x v="31"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="33"/>
   </r>
@@ -1931,8 +2055,8 @@
     <x v="34"/>
     <n v="5194"/>
     <n v="28"/>
-    <n v="-8.0000000000000002E-3"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="34"/>
   </r>
@@ -1940,8 +2064,8 @@
     <x v="35"/>
     <n v="3285"/>
     <n v="50"/>
-    <n v="-6.1999999999999998E-3"/>
-    <n v="-1"/>
+    <x v="32"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="35"/>
   </r>
@@ -1949,8 +2073,8 @@
     <x v="36"/>
     <n v="4696"/>
     <n v="43"/>
-    <n v="9.1999999999999998E-3"/>
-    <n v="1"/>
+    <x v="33"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="36"/>
   </r>
@@ -1958,8 +2082,8 @@
     <x v="37"/>
     <n v="3251"/>
     <n v="27"/>
-    <n v="-2.07E-2"/>
-    <n v="-1"/>
+    <x v="34"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="37"/>
   </r>
@@ -1967,8 +2091,8 @@
     <x v="38"/>
     <n v="4063"/>
     <n v="11"/>
-    <n v="-2.0899999999999998E-2"/>
-    <n v="1"/>
+    <x v="35"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="38"/>
   </r>
@@ -1976,8 +2100,8 @@
     <x v="39"/>
     <n v="3084"/>
     <n v="33"/>
-    <n v="1.84E-2"/>
-    <n v="-1"/>
+    <x v="36"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="39"/>
   </r>
@@ -1985,8 +2109,8 @@
     <x v="40"/>
     <n v="4015"/>
     <n v="24"/>
-    <n v="-1.72E-2"/>
-    <n v="1"/>
+    <x v="37"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="40"/>
   </r>
@@ -1994,8 +2118,8 @@
     <x v="41"/>
     <n v="3022"/>
     <n v="140"/>
-    <n v="-2.3E-3"/>
-    <n v="-1"/>
+    <x v="38"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="41"/>
   </r>
@@ -2003,8 +2127,8 @@
     <x v="42"/>
     <n v="3725"/>
     <n v="226"/>
-    <n v="-2.3199999999999998E-2"/>
-    <n v="1"/>
+    <x v="39"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="42"/>
   </r>
@@ -2012,8 +2136,8 @@
     <x v="43"/>
     <n v="2938"/>
     <n v="240"/>
-    <n v="2.0500000000000001E-2"/>
-    <n v="-1"/>
+    <x v="40"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="43"/>
   </r>
@@ -2021,8 +2145,8 @@
     <x v="44"/>
     <n v="3480"/>
     <n v="18"/>
-    <n v="1.26E-2"/>
-    <n v="1"/>
+    <x v="41"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="44"/>
   </r>
@@ -2030,8 +2154,8 @@
     <x v="45"/>
     <n v="2789"/>
     <n v="14"/>
-    <n v="-2.8500000000000001E-2"/>
-    <n v="-1"/>
+    <x v="42"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="45"/>
   </r>
@@ -2039,8 +2163,8 @@
     <x v="46"/>
     <n v="3458"/>
     <n v="47"/>
-    <n v="-2.8000000000000001E-2"/>
-    <n v="1"/>
+    <x v="43"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
   </r>
@@ -2048,8 +2172,8 @@
     <x v="47"/>
     <n v="2644"/>
     <n v="36"/>
-    <n v="2.07E-2"/>
-    <n v="-1"/>
+    <x v="44"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="47"/>
   </r>
@@ -2057,8 +2181,8 @@
     <x v="48"/>
     <n v="3289"/>
     <n v="551"/>
-    <n v="3.3E-3"/>
-    <n v="1"/>
+    <x v="45"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
   </r>
@@ -2066,8 +2190,8 @@
     <x v="49"/>
     <n v="2372"/>
     <n v="500"/>
-    <n v="2.1100000000000001E-2"/>
-    <n v="-1"/>
+    <x v="46"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="49"/>
   </r>
@@ -2075,8 +2199,8 @@
     <x v="50"/>
     <n v="3182"/>
     <n v="93"/>
-    <n v="1.32E-2"/>
-    <n v="1"/>
+    <x v="47"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="50"/>
   </r>
@@ -2084,8 +2208,8 @@
     <x v="51"/>
     <n v="2220"/>
     <n v="67"/>
-    <n v="-5.7999999999999996E-3"/>
-    <n v="-1"/>
+    <x v="48"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="51"/>
   </r>
@@ -2093,8 +2217,8 @@
     <x v="52"/>
     <n v="3039"/>
     <n v="98"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="11"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="52"/>
   </r>
@@ -2102,8 +2226,8 @@
     <x v="53"/>
     <n v="2078"/>
     <n v="21"/>
-    <n v="-9.7999999999999997E-3"/>
-    <n v="-1"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="53"/>
   </r>
@@ -2111,8 +2235,8 @@
     <x v="54"/>
     <n v="3028"/>
     <n v="44"/>
-    <n v="-7.3000000000000001E-3"/>
-    <n v="1"/>
+    <x v="49"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="54"/>
   </r>
@@ -2120,8 +2244,8 @@
     <x v="55"/>
     <n v="2051"/>
     <n v="54"/>
-    <n v="1.7100000000000001E-2"/>
-    <n v="-1"/>
+    <x v="50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="55"/>
   </r>
@@ -2129,8 +2253,8 @@
     <x v="56"/>
     <n v="2968"/>
     <n v="50"/>
-    <n v="-2.1000000000000001E-2"/>
-    <n v="1"/>
+    <x v="51"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="56"/>
   </r>
@@ -2138,8 +2262,8 @@
     <x v="57"/>
     <n v="1988"/>
     <n v="291"/>
-    <n v="2.8999999999999998E-3"/>
-    <n v="-1"/>
+    <x v="52"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="57"/>
   </r>
@@ -2147,8 +2271,8 @@
     <x v="58"/>
     <n v="2878"/>
     <n v="1564"/>
-    <n v="-3.5099999999999999E-2"/>
-    <n v="1"/>
+    <x v="53"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="58"/>
   </r>
@@ -2156,8 +2280,8 @@
     <x v="59"/>
     <n v="1978"/>
     <n v="26"/>
-    <n v="-1.41E-2"/>
-    <n v="-1"/>
+    <x v="54"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="59"/>
   </r>
@@ -2165,8 +2289,8 @@
     <x v="17"/>
     <n v="216883"/>
     <n v="7499"/>
-    <n v="-5.1999999999999998E-3"/>
-    <n v="1"/>
+    <x v="55"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="60"/>
   </r>
@@ -2174,8 +2298,8 @@
     <x v="19"/>
     <n v="24349"/>
     <n v="316"/>
-    <n v="-1.9599999999999999E-2"/>
-    <n v="-1"/>
+    <x v="56"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="61"/>
   </r>
@@ -2183,8 +2307,8 @@
     <x v="5"/>
     <n v="60681"/>
     <n v="627"/>
-    <n v="-1.04E-2"/>
-    <n v="1"/>
+    <x v="57"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="62"/>
   </r>
@@ -2192,8 +2316,8 @@
     <x v="0"/>
     <n v="18982"/>
     <n v="312"/>
-    <n v="-1.15E-2"/>
-    <n v="-1"/>
+    <x v="58"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="63"/>
   </r>
@@ -2201,8 +2325,8 @@
     <x v="2"/>
     <n v="42558"/>
     <n v="224"/>
-    <n v="-2.5999999999999999E-3"/>
-    <n v="1"/>
+    <x v="59"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="64"/>
   </r>
@@ -2210,8 +2334,8 @@
     <x v="15"/>
     <n v="12942"/>
     <n v="255"/>
-    <n v="9.7999999999999997E-3"/>
-    <n v="-1"/>
+    <x v="60"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="65"/>
   </r>
@@ -2219,8 +2343,8 @@
     <x v="12"/>
     <n v="28645"/>
     <n v="64"/>
-    <n v="-2.2000000000000001E-3"/>
-    <n v="1"/>
+    <x v="61"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="66"/>
   </r>
@@ -2228,8 +2352,8 @@
     <x v="3"/>
     <n v="11632"/>
     <n v="151"/>
-    <n v="6.4999999999999997E-3"/>
-    <n v="-1"/>
+    <x v="3"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="67"/>
   </r>
@@ -2237,8 +2361,8 @@
     <x v="4"/>
     <n v="18597"/>
     <n v="30"/>
-    <n v="-1.6199999999999999E-2"/>
-    <n v="1"/>
+    <x v="62"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="68"/>
   </r>
@@ -2246,8 +2370,8 @@
     <x v="60"/>
     <n v="8291"/>
     <n v="92"/>
-    <n v="-1.1000000000000001E-3"/>
-    <n v="-1"/>
+    <x v="63"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="69"/>
   </r>
@@ -2255,8 +2379,8 @@
     <x v="61"/>
     <n v="13832"/>
     <n v="819"/>
-    <n v="-4.7300000000000002E-2"/>
-    <n v="1"/>
+    <x v="64"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="70"/>
   </r>
@@ -2264,8 +2388,8 @@
     <x v="62"/>
     <n v="8120"/>
     <n v="144"/>
-    <n v="-1.24E-2"/>
-    <n v="-1"/>
+    <x v="65"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="71"/>
   </r>
@@ -2273,8 +2397,8 @@
     <x v="45"/>
     <n v="13411"/>
     <n v="65"/>
-    <n v="1.2200000000000001E-2"/>
-    <n v="1"/>
+    <x v="66"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="72"/>
   </r>
@@ -2282,8 +2406,8 @@
     <x v="9"/>
     <n v="7291"/>
     <n v="62"/>
-    <n v="-1.29E-2"/>
-    <n v="-1"/>
+    <x v="67"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="73"/>
   </r>
@@ -2291,8 +2415,8 @@
     <x v="22"/>
     <n v="12739"/>
     <n v="798"/>
-    <n v="-0.02"/>
-    <n v="1"/>
+    <x v="68"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="74"/>
   </r>
@@ -2300,8 +2424,8 @@
     <x v="11"/>
     <n v="7150"/>
     <n v="186"/>
-    <n v="-2.2100000000000002E-2"/>
-    <n v="-1"/>
+    <x v="69"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="75"/>
   </r>
@@ -2309,8 +2433,8 @@
     <x v="14"/>
     <n v="12718"/>
     <n v="82"/>
-    <n v="1.9099999999999999E-2"/>
-    <n v="1"/>
+    <x v="70"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="76"/>
   </r>
@@ -2318,8 +2442,8 @@
     <x v="47"/>
     <n v="6992"/>
     <n v="97"/>
-    <n v="-3.2399999999999998E-2"/>
-    <n v="-1"/>
+    <x v="71"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="77"/>
   </r>
@@ -2327,8 +2451,8 @@
     <x v="10"/>
     <n v="10629"/>
     <n v="16"/>
-    <n v="4.7000000000000002E-3"/>
-    <n v="1"/>
+    <x v="72"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="78"/>
   </r>
@@ -2336,8 +2460,8 @@
     <x v="63"/>
     <n v="6872"/>
     <n v="20"/>
-    <n v="-1.3299999999999999E-2"/>
-    <n v="-1"/>
+    <x v="73"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="79"/>
   </r>
@@ -2345,8 +2469,8 @@
     <x v="13"/>
     <n v="10481"/>
     <n v="152"/>
-    <n v="-5.2299999999999999E-2"/>
-    <n v="1"/>
+    <x v="74"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="80"/>
   </r>
@@ -2354,8 +2478,8 @@
     <x v="1"/>
     <n v="5879"/>
     <n v="24"/>
-    <n v="-1.21E-2"/>
-    <n v="-1"/>
+    <x v="75"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="81"/>
   </r>
@@ -2363,8 +2487,8 @@
     <x v="55"/>
     <n v="10123"/>
     <n v="263"/>
-    <n v="3.8999999999999998E-3"/>
-    <n v="1"/>
+    <x v="76"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="82"/>
   </r>
@@ -2372,8 +2496,8 @@
     <x v="64"/>
     <n v="5649"/>
     <n v="94"/>
-    <n v="3.3999999999999998E-3"/>
-    <n v="-1"/>
+    <x v="77"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="83"/>
   </r>
@@ -2381,8 +2505,8 @@
     <x v="34"/>
     <n v="9182"/>
     <n v="48"/>
-    <n v="-2.41E-2"/>
-    <n v="1"/>
+    <x v="78"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="84"/>
   </r>
@@ -2390,8 +2514,8 @@
     <x v="23"/>
     <n v="5388"/>
     <n v="21"/>
-    <n v="-1.9599999999999999E-2"/>
-    <n v="-1"/>
+    <x v="56"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="85"/>
   </r>
@@ -2399,8 +2523,8 @@
     <x v="44"/>
     <n v="7312"/>
     <n v="37"/>
-    <n v="-5.0000000000000001E-3"/>
-    <n v="1"/>
+    <x v="79"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="86"/>
   </r>
@@ -2408,8 +2532,8 @@
     <x v="65"/>
     <n v="5347"/>
     <n v="58"/>
-    <n v="-1.11E-2"/>
-    <n v="-1"/>
+    <x v="12"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="87"/>
   </r>
@@ -2417,8 +2541,8 @@
     <x v="8"/>
     <n v="7123"/>
     <n v="33"/>
-    <n v="-7.0000000000000001E-3"/>
-    <n v="1"/>
+    <x v="80"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="88"/>
   </r>
@@ -2426,8 +2550,8 @@
     <x v="41"/>
     <n v="4743"/>
     <n v="221"/>
-    <n v="-9.2999999999999992E-3"/>
-    <n v="-1"/>
+    <x v="81"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="89"/>
   </r>
@@ -2435,8 +2559,8 @@
     <x v="21"/>
     <n v="6710"/>
     <n v="623"/>
-    <n v="-1.6299999999999999E-2"/>
-    <n v="1"/>
+    <x v="82"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="90"/>
   </r>
@@ -2444,8 +2568,8 @@
     <x v="58"/>
     <n v="4322"/>
     <n v="2383"/>
-    <n v="-2.8E-3"/>
-    <n v="-1"/>
+    <x v="31"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="91"/>
   </r>
@@ -2453,8 +2577,8 @@
     <x v="43"/>
     <n v="5460"/>
     <n v="440"/>
-    <n v="-2.41E-2"/>
-    <n v="1"/>
+    <x v="78"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="92"/>
   </r>
@@ -2462,8 +2586,8 @@
     <x v="42"/>
     <n v="4264"/>
     <n v="256"/>
-    <n v="2.5000000000000001E-3"/>
-    <n v="-1"/>
+    <x v="83"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="93"/>
   </r>
@@ -2471,8 +2595,8 @@
     <x v="66"/>
     <n v="4951"/>
     <n v="311"/>
-    <n v="3.3099999999999997E-2"/>
-    <n v="1"/>
+    <x v="84"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="94"/>
   </r>
@@ -2480,8 +2604,8 @@
     <x v="25"/>
     <n v="3555"/>
     <n v="79"/>
-    <n v="-2.47E-2"/>
-    <n v="-1"/>
+    <x v="85"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="95"/>
   </r>
@@ -2489,8 +2613,8 @@
     <x v="20"/>
     <n v="4722"/>
     <n v="1623"/>
-    <n v="2.0500000000000001E-2"/>
-    <n v="1"/>
+    <x v="40"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="96"/>
   </r>
@@ -2498,8 +2622,8 @@
     <x v="67"/>
     <n v="3422"/>
     <n v="119"/>
-    <n v="5.4000000000000003E-3"/>
-    <n v="-1"/>
+    <x v="86"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="97"/>
   </r>
@@ -2507,8 +2631,8 @@
     <x v="68"/>
     <n v="4558"/>
     <n v="963"/>
-    <n v="1.04E-2"/>
-    <n v="1"/>
+    <x v="20"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="98"/>
   </r>
@@ -2516,8 +2640,8 @@
     <x v="69"/>
     <n v="3178"/>
     <n v="199"/>
-    <n v="2.52E-2"/>
-    <n v="-1"/>
+    <x v="87"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="99"/>
   </r>
@@ -2525,8 +2649,8 @@
     <x v="70"/>
     <n v="4065"/>
     <n v="32"/>
-    <n v="-3.8999999999999998E-3"/>
-    <n v="1"/>
+    <x v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="100"/>
   </r>
@@ -2534,8 +2658,8 @@
     <x v="71"/>
     <n v="2686"/>
     <n v="32"/>
-    <n v="4.7999999999999996E-3"/>
-    <n v="-1"/>
+    <x v="88"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="101"/>
   </r>
@@ -2543,8 +2667,8 @@
     <x v="6"/>
     <n v="4007"/>
     <n v="190"/>
-    <n v="1.18E-2"/>
-    <n v="1"/>
+    <x v="89"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="102"/>
   </r>
@@ -2552,8 +2676,8 @@
     <x v="72"/>
     <n v="2566"/>
     <n v="20"/>
-    <n v="7.7999999999999996E-3"/>
-    <n v="-1"/>
+    <x v="90"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="103"/>
   </r>
@@ -2561,8 +2685,8 @@
     <x v="24"/>
     <n v="3945"/>
     <n v="29"/>
-    <n v="-1.0999999999999999E-2"/>
-    <n v="1"/>
+    <x v="91"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="104"/>
   </r>
@@ -2570,8 +2694,8 @@
     <x v="73"/>
     <n v="2499"/>
     <n v="146"/>
-    <n v="-3.0000000000000001E-3"/>
-    <n v="-1"/>
+    <x v="92"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="105"/>
   </r>
@@ -2579,8 +2703,8 @@
     <x v="74"/>
     <n v="3925"/>
     <n v="108"/>
-    <n v="1.24E-2"/>
-    <n v="1"/>
+    <x v="93"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="106"/>
   </r>
@@ -2588,8 +2712,8 @@
     <x v="75"/>
     <n v="2488"/>
     <n v="106"/>
-    <n v="-1.9400000000000001E-2"/>
-    <n v="-1"/>
+    <x v="94"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="107"/>
   </r>
@@ -2597,8 +2721,8 @@
     <x v="76"/>
     <n v="3802"/>
     <n v="68"/>
-    <n v="-7.3000000000000001E-3"/>
-    <n v="1"/>
+    <x v="49"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="108"/>
   </r>
@@ -2606,8 +2730,8 @@
     <x v="77"/>
     <n v="2439"/>
     <n v="16"/>
-    <n v="-1.9800000000000002E-2"/>
-    <n v="-1"/>
+    <x v="95"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="109"/>
   </r>
@@ -2615,8 +2739,8 @@
     <x v="78"/>
     <n v="3784"/>
     <n v="143"/>
-    <n v="3.9300000000000002E-2"/>
-    <n v="1"/>
+    <x v="96"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="110"/>
   </r>
@@ -2624,8 +2748,8 @@
     <x v="79"/>
     <n v="2403"/>
     <n v="111"/>
-    <n v="9.7999999999999997E-3"/>
-    <n v="-1"/>
+    <x v="60"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="111"/>
   </r>
@@ -2633,8 +2757,8 @@
     <x v="80"/>
     <n v="3774"/>
     <n v="79"/>
-    <n v="-3.6200000000000003E-2"/>
-    <n v="1"/>
+    <x v="97"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="112"/>
   </r>
@@ -2642,8 +2766,8 @@
     <x v="81"/>
     <n v="2338"/>
     <n v="71"/>
-    <n v="-1.37E-2"/>
-    <n v="-1"/>
+    <x v="98"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="113"/>
   </r>
@@ -2651,8 +2775,8 @@
     <x v="53"/>
     <n v="3535"/>
     <n v="35"/>
-    <n v="-9.9000000000000008E-3"/>
-    <n v="1"/>
+    <x v="99"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="114"/>
   </r>
@@ -2660,8 +2784,8 @@
     <x v="35"/>
     <n v="2319"/>
     <n v="35"/>
-    <n v="-3.0999999999999999E-3"/>
-    <n v="-1"/>
+    <x v="100"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="115"/>
   </r>
@@ -2669,8 +2793,8 @@
     <x v="82"/>
     <n v="3491"/>
     <n v="292"/>
-    <n v="-1.3899999999999999E-2"/>
-    <n v="1"/>
+    <x v="101"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="116"/>
   </r>
@@ -2678,8 +2802,8 @@
     <x v="83"/>
     <n v="2291"/>
     <n v="966"/>
-    <n v="8.6999999999999994E-3"/>
-    <n v="-1"/>
+    <x v="102"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="117"/>
   </r>
@@ -2687,8 +2811,8 @@
     <x v="84"/>
     <n v="3242"/>
     <n v="50"/>
-    <n v="-7.6E-3"/>
-    <n v="1"/>
+    <x v="103"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="118"/>
   </r>
@@ -2696,8 +2820,8 @@
     <x v="85"/>
     <n v="2170"/>
     <n v="106"/>
-    <n v="0"/>
-    <n v="-1"/>
+    <x v="11"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="119"/>
   </r>
@@ -2705,8 +2829,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7A4E3F3-44BE-4032-BA4E-209E690D9D4B}" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B210" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7A4E3F3-44BE-4032-BA4E-209E690D9D4B}" name="피벗 테이블1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D113" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="87">
@@ -2801,137 +2925,251 @@
     </pivotField>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField numFmtId="10" showAll="0">
+      <items count="105">
+        <item x="17"/>
+        <item x="74"/>
+        <item x="64"/>
+        <item x="9"/>
+        <item x="97"/>
+        <item x="53"/>
+        <item x="71"/>
+        <item x="19"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="14"/>
+        <item x="85"/>
+        <item x="78"/>
+        <item x="39"/>
+        <item x="69"/>
+        <item x="51"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="68"/>
+        <item x="95"/>
+        <item x="56"/>
+        <item x="94"/>
+        <item x="37"/>
+        <item x="10"/>
+        <item x="82"/>
+        <item x="62"/>
+        <item x="54"/>
+        <item x="6"/>
+        <item x="101"/>
+        <item x="98"/>
+        <item x="73"/>
+        <item x="67"/>
+        <item x="65"/>
+        <item x="22"/>
+        <item x="75"/>
+        <item x="58"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="91"/>
+        <item x="23"/>
+        <item x="57"/>
+        <item x="99"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="81"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="103"/>
+        <item x="49"/>
+        <item x="80"/>
+        <item x="32"/>
+        <item x="48"/>
+        <item x="55"/>
+        <item x="79"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="28"/>
+        <item x="100"/>
+        <item x="92"/>
+        <item x="31"/>
+        <item x="59"/>
+        <item x="38"/>
+        <item x="61"/>
+        <item x="63"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="83"/>
+        <item x="52"/>
+        <item x="45"/>
+        <item x="77"/>
+        <item x="27"/>
+        <item x="76"/>
+        <item x="72"/>
+        <item x="88"/>
+        <item x="86"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="90"/>
+        <item x="102"/>
+        <item x="33"/>
+        <item x="60"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="89"/>
+        <item x="66"/>
+        <item x="93"/>
+        <item x="41"/>
+        <item x="47"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="50"/>
+        <item x="36"/>
+        <item x="21"/>
+        <item x="70"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="46"/>
+        <item x="2"/>
+        <item x="87"/>
+        <item x="84"/>
+        <item x="96"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
       <items count="121">
+        <item x="0"/>
+        <item x="60"/>
+        <item x="62"/>
+        <item x="2"/>
+        <item x="64"/>
+        <item x="66"/>
+        <item x="4"/>
+        <item x="68"/>
+        <item x="6"/>
+        <item x="70"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="72"/>
+        <item x="74"/>
+        <item x="76"/>
+        <item x="78"/>
+        <item x="12"/>
+        <item x="80"/>
+        <item x="82"/>
+        <item x="14"/>
+        <item x="84"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="86"/>
+        <item x="20"/>
+        <item x="22"/>
+        <item x="88"/>
+        <item x="90"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="28"/>
+        <item x="92"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="94"/>
+        <item x="96"/>
+        <item x="36"/>
+        <item x="98"/>
+        <item x="100"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="102"/>
+        <item x="104"/>
+        <item x="106"/>
+        <item x="108"/>
+        <item x="110"/>
+        <item x="112"/>
+        <item x="42"/>
+        <item x="114"/>
+        <item x="116"/>
+        <item x="44"/>
+        <item x="46"/>
+        <item x="48"/>
+        <item x="118"/>
+        <item x="50"/>
+        <item x="52"/>
+        <item x="54"/>
+        <item x="56"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="57"/>
+        <item x="55"/>
+        <item x="53"/>
+        <item x="119"/>
+        <item x="51"/>
+        <item x="117"/>
+        <item x="115"/>
+        <item x="113"/>
+        <item x="49"/>
+        <item x="111"/>
+        <item x="109"/>
+        <item x="107"/>
+        <item x="105"/>
+        <item x="103"/>
+        <item x="47"/>
+        <item x="101"/>
+        <item x="45"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="99"/>
+        <item x="37"/>
+        <item x="35"/>
+        <item x="97"/>
+        <item x="95"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="93"/>
+        <item x="91"/>
+        <item x="29"/>
+        <item x="89"/>
+        <item x="27"/>
+        <item x="25"/>
+        <item x="87"/>
+        <item x="23"/>
+        <item x="85"/>
+        <item x="21"/>
+        <item x="83"/>
+        <item x="81"/>
+        <item x="19"/>
+        <item x="79"/>
+        <item x="77"/>
+        <item x="75"/>
+        <item x="73"/>
+        <item x="71"/>
+        <item x="69"/>
+        <item x="17"/>
+        <item x="67"/>
+        <item x="15"/>
+        <item x="65"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="63"/>
+        <item x="5"/>
+        <item x="61"/>
+        <item x="3"/>
         <item x="1"/>
-        <item x="3"/>
-        <item x="61"/>
-        <item x="5"/>
-        <item x="63"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="65"/>
-        <item x="15"/>
-        <item x="67"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="71"/>
-        <item x="73"/>
-        <item x="75"/>
-        <item x="77"/>
-        <item x="79"/>
-        <item x="19"/>
-        <item x="81"/>
-        <item x="83"/>
-        <item x="21"/>
-        <item x="85"/>
-        <item x="23"/>
-        <item x="87"/>
-        <item x="25"/>
-        <item x="27"/>
-        <item x="89"/>
-        <item x="29"/>
-        <item x="91"/>
-        <item x="93"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="95"/>
-        <item x="97"/>
-        <item x="35"/>
-        <item x="37"/>
-        <item x="99"/>
-        <item x="39"/>
-        <item x="41"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="101"/>
-        <item x="47"/>
-        <item x="103"/>
-        <item x="105"/>
-        <item x="107"/>
-        <item x="109"/>
-        <item x="111"/>
-        <item x="49"/>
-        <item x="113"/>
-        <item x="115"/>
-        <item x="117"/>
-        <item x="51"/>
-        <item x="119"/>
-        <item x="53"/>
-        <item x="55"/>
-        <item x="57"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="56"/>
-        <item x="54"/>
-        <item x="52"/>
-        <item x="50"/>
-        <item x="118"/>
-        <item x="48"/>
-        <item x="46"/>
-        <item x="44"/>
-        <item x="116"/>
-        <item x="114"/>
-        <item x="42"/>
-        <item x="112"/>
-        <item x="110"/>
-        <item x="108"/>
-        <item x="106"/>
-        <item x="104"/>
-        <item x="102"/>
-        <item x="40"/>
-        <item x="38"/>
-        <item x="100"/>
-        <item x="98"/>
-        <item x="36"/>
-        <item x="96"/>
-        <item x="94"/>
-        <item x="34"/>
-        <item x="32"/>
-        <item x="30"/>
-        <item x="92"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="90"/>
-        <item x="88"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="86"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="84"/>
-        <item x="14"/>
-        <item x="82"/>
-        <item x="80"/>
-        <item x="12"/>
-        <item x="78"/>
-        <item x="76"/>
-        <item x="74"/>
-        <item x="72"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="70"/>
-        <item x="6"/>
-        <item x="68"/>
-        <item x="4"/>
-        <item x="66"/>
-        <item x="64"/>
-        <item x="2"/>
-        <item x="62"/>
-        <item x="60"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2940,632 +3178,352 @@
     <field x="0"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="207">
+  <rowItems count="109">
     <i>
       <x/>
     </i>
     <i r="1">
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i>
       <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="83"/>
-    </i>
-    <i r="1">
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="94"/>
-    </i>
-    <i r="1">
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="57"/>
-    </i>
-    <i r="1">
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="103"/>
-    </i>
-    <i r="1">
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="104"/>
-    </i>
-    <i r="1">
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="42"/>
-    </i>
-    <i r="1">
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="77"/>
-    </i>
-    <i r="1">
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="112"/>
-    </i>
-    <i r="1">
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="76"/>
-    </i>
-    <i r="1">
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i r="1">
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="68"/>
-    </i>
-    <i r="1">
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i r="1">
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i r="1">
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i r="1">
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i r="1">
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i r="1">
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i r="1">
-      <x v="100"/>
-    </i>
-    <i r="1">
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i r="1">
-      <x v="85"/>
-    </i>
-    <i r="1">
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i r="1">
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i r="1">
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i r="1">
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i r="1">
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i r="1">
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i r="1">
-      <x v="93"/>
-    </i>
-    <i r="1">
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i r="1">
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i r="1">
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i r="1">
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i r="1">
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i r="1">
-      <x v="115"/>
-    </i>
-    <i r="1">
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i r="1">
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="합계 : 금액작업" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
@@ -3869,10 +3827,18 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6283,18 +6249,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17ACC5D-9262-4FCA-859E-A1DC0F9E8E34}">
-  <dimension ref="A3:B210"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="8.125" bestFit="1" customWidth="1"/>
     <col min="14" max="61" width="7" bestFit="1" customWidth="1"/>
     <col min="62" max="102" width="6.25" bestFit="1" customWidth="1"/>
@@ -6303,1668 +6268,1368 @@
     <col min="122" max="122" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4015</v>
       </c>
       <c r="B5" s="6">
         <v>4015</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>216</v>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4015</v>
       </c>
       <c r="B6" s="6">
-        <v>-1988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>-1988</v>
+        <v>4015</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="6">
-        <v>-1988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>378</v>
+        <v>7261</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4722</v>
+      </c>
+      <c r="D7" s="6">
+        <v>11983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7261</v>
       </c>
       <c r="B8" s="6">
-        <v>-2439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7261</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>7261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>-2439</v>
-      </c>
-      <c r="B9" s="6">
-        <v>-2439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4722</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>4722</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>371</v>
+        <v>89</v>
       </c>
       <c r="B10" s="6">
-        <v>-2488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7145</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12739</v>
+      </c>
+      <c r="D10" s="6">
+        <v>19884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>-2488</v>
-      </c>
-      <c r="B11" s="6">
-        <v>-2488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>197</v>
+        <v>12739</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>12739</v>
+      </c>
+      <c r="D11" s="6">
+        <v>12739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>7145</v>
       </c>
       <c r="B12" s="6">
-        <v>-2220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>-2220</v>
-      </c>
-      <c r="B13" s="6">
-        <v>-2220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="6">
-        <v>11983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>4722</v>
-      </c>
-      <c r="B15" s="6">
-        <v>4722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7145</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>4558</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>4558</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
+        <v>4558</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
+        <v>10123</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>7261</v>
-      </c>
-      <c r="B16" s="6">
-        <v>7261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10123</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
+        <v>10123</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17" s="6">
-        <v>-2170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6">
+        <v>13832</v>
+      </c>
+      <c r="D17" s="6">
+        <v>13832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>-2170</v>
-      </c>
-      <c r="B18" s="6">
-        <v>-2170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13832</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
+        <v>13832</v>
+      </c>
+      <c r="D18" s="6">
+        <v>13832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6">
-        <v>19884</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10587</v>
+      </c>
+      <c r="C19" s="6">
+        <v>28645</v>
+      </c>
+      <c r="D19" s="6">
+        <v>39232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>7145</v>
-      </c>
-      <c r="B20" s="6">
-        <v>7145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28645</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
+        <v>28645</v>
+      </c>
+      <c r="D20" s="6">
+        <v>28645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>12739</v>
+        <v>10587</v>
       </c>
       <c r="B21" s="6">
-        <v>12739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10587</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>10587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="6">
-        <v>-5117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
+        <v>3535</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>-5117</v>
-      </c>
-      <c r="B23" s="6">
-        <v>-5117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3535</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <v>3535</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13654</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10629</v>
+      </c>
+      <c r="D24" s="6">
+        <v>24283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>4558</v>
+        <v>13654</v>
       </c>
       <c r="B25" s="6">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" s="6">
-        <v>8072</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>-2051</v>
+        <v>13654</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
+        <v>13654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>10629</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6">
+        <v>10629</v>
+      </c>
+      <c r="D26" s="6">
+        <v>10629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B27" s="6">
-        <v>-2051</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5749</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>10123</v>
+        <v>5749</v>
       </c>
       <c r="B28" s="6">
-        <v>10123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5749</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29" s="6">
-        <v>13832</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6">
+        <v>13411</v>
+      </c>
+      <c r="D29" s="6">
+        <v>13411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>13832</v>
-      </c>
-      <c r="B30" s="6">
-        <v>13832</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13411</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
+        <v>13411</v>
+      </c>
+      <c r="D30" s="6">
+        <v>13411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="6">
-        <v>39232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6">
+        <v>60681</v>
+      </c>
+      <c r="D31" s="6">
+        <v>60681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>10587</v>
-      </c>
-      <c r="B32" s="6">
-        <v>10587</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>28645</v>
-      </c>
-      <c r="B33" s="6">
-        <v>28645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B34" s="6">
-        <v>-6872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>-6872</v>
-      </c>
-      <c r="B35" s="6">
-        <v>-6872</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>-2078</v>
+        <v>60681</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6">
+        <v>60681</v>
+      </c>
+      <c r="D32" s="6">
+        <v>60681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6">
+        <v>3491</v>
+      </c>
+      <c r="D33" s="6">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>3491</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6">
+        <v>3491</v>
+      </c>
+      <c r="D34" s="6">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6">
+        <v>6710</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>6710</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6">
+        <v>6710</v>
+      </c>
+      <c r="D36" s="6">
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B37" s="6">
-        <v>-2078</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3725</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>3535</v>
+        <v>3725</v>
       </c>
       <c r="B38" s="6">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3725</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B39" s="6">
-        <v>24283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7314</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>10629</v>
+        <v>7314</v>
       </c>
       <c r="B40" s="6">
-        <v>10629</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>13654</v>
+        <v>7314</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B41" s="6">
-        <v>13654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>109</v>
+        <v>5445</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>5445</v>
       </c>
       <c r="B42" s="6">
-        <v>5749</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>5749</v>
+        <v>5445</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B43" s="6">
-        <v>5749</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>5</v>
+        <v>2878</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>2878</v>
       </c>
       <c r="B44" s="6">
-        <v>-40446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>-34567</v>
+        <v>2878</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B45" s="6">
-        <v>-34567</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15000</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4007</v>
+      </c>
+      <c r="D45" s="6">
+        <v>19007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>-5879</v>
+        <v>15000</v>
       </c>
       <c r="B46" s="6">
-        <v>-5879</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="6">
-        <v>-10757</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>-5388</v>
+        <v>15000</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>4007</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6">
+        <v>4007</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B48" s="6">
-        <v>-5388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28431</v>
+      </c>
+      <c r="C48" s="6">
+        <v>18597</v>
+      </c>
+      <c r="D48" s="6">
+        <v>47028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>-5369</v>
+        <v>28431</v>
       </c>
       <c r="B49" s="6">
-        <v>-5369</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B50" s="6">
-        <v>-2566</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>-2566</v>
+        <v>28431</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6">
+        <v>28431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>18597</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6">
+        <v>18597</v>
+      </c>
+      <c r="D50" s="6">
+        <v>18597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B51" s="6">
-        <v>-2566</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>37</v>
+        <v>5935</v>
+      </c>
+      <c r="C51" s="6">
+        <v>3945</v>
+      </c>
+      <c r="D51" s="6">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>5935</v>
       </c>
       <c r="B52" s="6">
-        <v>-21355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5935</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>-14064</v>
-      </c>
-      <c r="B53" s="6">
-        <v>-14064</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>-7291</v>
+        <v>3945</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6">
+        <v>3945</v>
+      </c>
+      <c r="D53" s="6">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B54" s="6">
-        <v>-7291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>224</v>
+        <v>270993</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6">
+        <v>270993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>270993</v>
       </c>
       <c r="B55" s="6">
-        <v>-1978</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>-1978</v>
+        <v>270993</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6">
+        <v>270993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B56" s="6">
-        <v>-1978</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>311</v>
+        <v>3289</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>3289</v>
       </c>
       <c r="B57" s="6">
-        <v>-5347</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>-5347</v>
+        <v>3289</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B58" s="6">
-        <v>-5347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="6">
-        <v>10622</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3480</v>
+      </c>
+      <c r="C58" s="6">
+        <v>7312</v>
+      </c>
+      <c r="D58" s="6">
+        <v>10792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>7312</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6">
+        <v>7312</v>
+      </c>
+      <c r="D59" s="6">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
-        <v>-2789</v>
+        <v>3480</v>
       </c>
       <c r="B60" s="6">
-        <v>-2789</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>13411</v>
-      </c>
-      <c r="B61" s="6">
-        <v>13411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6">
-        <v>-25465</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
-        <v>-12942</v>
-      </c>
-      <c r="B63" s="6">
-        <v>-12942</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3480</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6">
+        <v>4065</v>
+      </c>
+      <c r="D61" s="6">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>4065</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6">
+        <v>4065</v>
+      </c>
+      <c r="D62" s="6">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6">
+        <v>3925</v>
+      </c>
+      <c r="D63" s="6">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
-        <v>-12523</v>
-      </c>
-      <c r="B64" s="6">
-        <v>-12523</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3925</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6">
+        <v>3925</v>
+      </c>
+      <c r="D64" s="6">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="B65" s="6">
-        <v>39799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4063</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
-        <v>-20882</v>
+        <v>4063</v>
       </c>
       <c r="B66" s="6">
-        <v>-20882</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
-        <v>60681</v>
-      </c>
-      <c r="B67" s="6">
-        <v>60681</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="6">
-        <v>-3084</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>-3084</v>
+        <v>4063</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6">
+        <v>3774</v>
+      </c>
+      <c r="D67" s="6">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>3774</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6">
+        <v>3774</v>
+      </c>
+      <c r="D68" s="6">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="B69" s="6">
-        <v>-3084</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>400</v>
+        <v>4696</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>4696</v>
       </c>
       <c r="B70" s="6">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
-        <v>3491</v>
-      </c>
-      <c r="B71" s="6">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="6">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <v>-5536</v>
+        <v>4696</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6">
+        <v>5460</v>
+      </c>
+      <c r="D71" s="6">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>5460</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6">
+        <v>5460</v>
+      </c>
+      <c r="D72" s="6">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B73" s="6">
-        <v>-5536</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5381</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>6710</v>
+        <v>5381</v>
       </c>
       <c r="B74" s="6">
-        <v>6710</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5381</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" s="6">
-        <v>-2372</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6">
+        <v>216883</v>
+      </c>
+      <c r="D75" s="6">
+        <v>216883</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
-        <v>-2372</v>
-      </c>
-      <c r="B76" s="6">
-        <v>-2372</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>216883</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6">
+        <v>216883</v>
+      </c>
+      <c r="D76" s="6">
+        <v>216883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" s="6">
-        <v>-539</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6">
+        <v>10481</v>
+      </c>
+      <c r="D77" s="6">
+        <v>10481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>-4264</v>
-      </c>
-      <c r="B78" s="6">
-        <v>-4264</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="5">
-        <v>3725</v>
-      </c>
-      <c r="B79" s="6">
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="6">
-        <v>7314</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
-        <v>7314</v>
-      </c>
-      <c r="B81" s="6">
-        <v>7314</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="6">
-        <v>5445</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
-        <v>5445</v>
+        <v>10481</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6">
+        <v>10481</v>
+      </c>
+      <c r="D78" s="6">
+        <v>10481</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6">
+        <v>3242</v>
+      </c>
+      <c r="D79" s="6">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>3242</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6">
+        <v>3242</v>
+      </c>
+      <c r="D80" s="6">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6">
+        <v>3784</v>
+      </c>
+      <c r="D81" s="6">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>3784</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6">
+        <v>3784</v>
+      </c>
+      <c r="D82" s="6">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B83" s="6">
-        <v>5445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="6">
-        <v>-38930</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9459</v>
+      </c>
+      <c r="C83" s="6">
+        <v>12718</v>
+      </c>
+      <c r="D83" s="6">
+        <v>22177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>12718</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6">
+        <v>12718</v>
+      </c>
+      <c r="D84" s="6">
+        <v>12718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
-        <v>-27298</v>
+        <v>9459</v>
       </c>
       <c r="B85" s="6">
-        <v>-27298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
-        <v>-11632</v>
+        <v>9459</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6">
+        <v>9459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B86" s="6">
-        <v>-11632</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B87" s="6">
-        <v>-3422</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5194</v>
+      </c>
+      <c r="C86" s="6">
+        <v>9182</v>
+      </c>
+      <c r="D86" s="6">
+        <v>14376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>9182</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6">
+        <v>9182</v>
+      </c>
+      <c r="D87" s="6">
+        <v>9182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
-        <v>-3422</v>
+        <v>5194</v>
       </c>
       <c r="B88" s="6">
-        <v>-3422</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5194</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B89" s="6">
-        <v>-1444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6">
+        <v>4951</v>
+      </c>
+      <c r="D89" s="6">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
-        <v>-4322</v>
-      </c>
-      <c r="B90" s="6">
-        <v>-4322</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="5">
-        <v>2878</v>
+        <v>4951</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6">
+        <v>4951</v>
+      </c>
+      <c r="D90" s="6">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="B91" s="6">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>255</v>
+        <v>3458</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>3458</v>
       </c>
       <c r="B92" s="6">
-        <v>-8291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="5">
-        <v>-8291</v>
+        <v>3458</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="B93" s="6">
-        <v>-8291</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>352</v>
+        <v>3039</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>3039</v>
       </c>
       <c r="B94" s="6">
-        <v>-2686</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="5">
-        <v>-2686</v>
+        <v>3039</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B95" s="6">
-        <v>-2686</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>25</v>
+        <v>5758</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>5758</v>
       </c>
       <c r="B96" s="6">
-        <v>19007</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="5">
-        <v>4007</v>
+        <v>5758</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="B97" s="6">
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2968</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
-        <v>15000</v>
+        <v>2968</v>
       </c>
       <c r="B98" s="6">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2968</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B99" s="6">
-        <v>47028</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13827</v>
+      </c>
+      <c r="C99" s="6">
+        <v>7123</v>
+      </c>
+      <c r="D99" s="6">
+        <v>20950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
-        <v>18597</v>
+        <v>13827</v>
       </c>
       <c r="B100" s="6">
-        <v>18597</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13827</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6">
+        <v>13827</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
-        <v>28431</v>
-      </c>
-      <c r="B101" s="6">
-        <v>28431</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7123</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6">
+        <v>7123</v>
+      </c>
+      <c r="D101" s="6">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B102" s="6">
-        <v>-4353</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8604</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
-        <v>-4353</v>
+        <v>8604</v>
       </c>
       <c r="B103" s="6">
-        <v>-4353</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8604</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B104" s="6">
-        <v>9880</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6">
+        <v>3802</v>
+      </c>
+      <c r="D104" s="6">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
-        <v>3945</v>
-      </c>
-      <c r="B105" s="6">
-        <v>3945</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="5">
-        <v>5935</v>
+        <v>3802</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6">
+        <v>3802</v>
+      </c>
+      <c r="D105" s="6">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="B106" s="6">
-        <v>5935</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>0</v>
+        <v>3028</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>3028</v>
       </c>
       <c r="B107" s="6">
-        <v>252011</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
-        <v>-18982</v>
+        <v>3028</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B108" s="6">
-        <v>-18982</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44367</v>
+      </c>
+      <c r="C108" s="6">
+        <v>42558</v>
+      </c>
+      <c r="D108" s="6">
+        <v>86925</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
-        <v>270993</v>
+        <v>44367</v>
       </c>
       <c r="B109" s="6">
-        <v>270993</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110" s="6">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
-        <v>3289</v>
+        <v>44367</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>42558</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6">
+        <v>42558</v>
+      </c>
+      <c r="D110" s="6">
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B111" s="6">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>129</v>
+        <v>3182</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>3182</v>
       </c>
       <c r="B112" s="6">
-        <v>-3661</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
-        <v>-3661</v>
+        <v>3182</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="B113" s="6">
-        <v>-3661</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B114" s="6">
-        <v>10792</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="5">
-        <v>3480</v>
-      </c>
-      <c r="B115" s="6">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="5">
-        <v>7312</v>
-      </c>
-      <c r="B116" s="6">
-        <v>7312</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B117" s="6">
-        <v>-16767</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
-        <v>-16767</v>
-      </c>
-      <c r="B118" s="6">
-        <v>-16767</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B119" s="6">
-        <v>-2291</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="5">
-        <v>-2291</v>
-      </c>
-      <c r="B120" s="6">
-        <v>-2291</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" s="6">
-        <v>-5604</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="5">
-        <v>-3285</v>
-      </c>
-      <c r="B122" s="6">
-        <v>-3285</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="5">
-        <v>-2319</v>
-      </c>
-      <c r="B123" s="6">
-        <v>-2319</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B124" s="6">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="5">
-        <v>4065</v>
-      </c>
-      <c r="B125" s="6">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B126" s="6">
-        <v>3925</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="5">
-        <v>3925</v>
-      </c>
-      <c r="B127" s="6">
-        <v>3925</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B128" s="6">
-        <v>4063</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="5">
-        <v>4063</v>
-      </c>
-      <c r="B129" s="6">
-        <v>4063</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B130" s="6">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="5">
-        <v>3774</v>
-      </c>
-      <c r="B131" s="6">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B132" s="6">
-        <v>4696</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="5">
-        <v>4696</v>
-      </c>
-      <c r="B133" s="6">
-        <v>4696</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B134" s="6">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="5">
-        <v>-2938</v>
-      </c>
-      <c r="B135" s="6">
-        <v>-2938</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="5">
-        <v>5460</v>
-      </c>
-      <c r="B136" s="6">
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B137" s="6">
-        <v>5381</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="5">
-        <v>5381</v>
-      </c>
-      <c r="B138" s="6">
-        <v>5381</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B139" s="6">
-        <v>-9636</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="5">
-        <v>-6992</v>
-      </c>
-      <c r="B140" s="6">
-        <v>-6992</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="5">
-        <v>-2644</v>
-      </c>
-      <c r="B141" s="6">
-        <v>-2644</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B142" s="6">
-        <v>-30853</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="5">
-        <v>-24349</v>
-      </c>
-      <c r="B143" s="6">
-        <v>-24349</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="5">
-        <v>-6504</v>
-      </c>
-      <c r="B144" s="6">
-        <v>-6504</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B145" s="6">
-        <v>208074</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="5">
-        <v>-8809</v>
-      </c>
-      <c r="B146" s="6">
-        <v>-8809</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="5">
-        <v>216883</v>
-      </c>
-      <c r="B147" s="6">
-        <v>216883</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B148" s="6">
-        <v>-3284</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="5">
-        <v>-13765</v>
-      </c>
-      <c r="B149" s="6">
-        <v>-13765</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="5">
-        <v>10481</v>
-      </c>
-      <c r="B150" s="6">
-        <v>10481</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B151" s="6">
-        <v>-5649</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="5">
-        <v>-5649</v>
-      </c>
-      <c r="B152" s="6">
-        <v>-5649</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B153" s="6">
-        <v>-2403</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="5">
-        <v>-2403</v>
-      </c>
-      <c r="B154" s="6">
-        <v>-2403</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B155" s="6">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="5">
-        <v>3242</v>
-      </c>
-      <c r="B156" s="6">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B157" s="6">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="5">
-        <v>3784</v>
-      </c>
-      <c r="B158" s="6">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B159" s="6">
-        <v>22177</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="5">
-        <v>9459</v>
-      </c>
-      <c r="B160" s="6">
-        <v>9459</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="5">
-        <v>12718</v>
-      </c>
-      <c r="B161" s="6">
-        <v>12718</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B162" s="6">
-        <v>-21061</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="5">
-        <v>-13911</v>
-      </c>
-      <c r="B163" s="6">
-        <v>-13911</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="5">
-        <v>-7150</v>
-      </c>
-      <c r="B164" s="6">
-        <v>-7150</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B165" s="6">
-        <v>14376</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="5">
-        <v>5194</v>
-      </c>
-      <c r="B166" s="6">
-        <v>5194</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="5">
-        <v>9182</v>
-      </c>
-      <c r="B167" s="6">
-        <v>9182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B168" s="6">
-        <v>-7765</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="5">
-        <v>-4743</v>
-      </c>
-      <c r="B169" s="6">
-        <v>-4743</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="5">
-        <v>-3022</v>
-      </c>
-      <c r="B170" s="6">
-        <v>-3022</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B171" s="6">
-        <v>4951</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="5">
-        <v>4951</v>
-      </c>
-      <c r="B172" s="6">
-        <v>4951</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B173" s="6">
-        <v>-8120</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="5">
-        <v>-8120</v>
-      </c>
-      <c r="B174" s="6">
-        <v>-8120</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B175" s="6">
-        <v>-2499</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="5">
-        <v>-2499</v>
-      </c>
-      <c r="B176" s="6">
-        <v>-2499</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B177" s="6">
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="5">
-        <v>3458</v>
-      </c>
-      <c r="B178" s="6">
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B179" s="6">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="5">
-        <v>3039</v>
-      </c>
-      <c r="B180" s="6">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B181" s="6">
-        <v>-8812</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="5">
-        <v>-5257</v>
-      </c>
-      <c r="B182" s="6">
-        <v>-5257</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="5">
-        <v>-3555</v>
-      </c>
-      <c r="B183" s="6">
-        <v>-3555</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B184" s="6">
-        <v>5758</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="5">
-        <v>5758</v>
-      </c>
-      <c r="B185" s="6">
-        <v>5758</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B186" s="6">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="5">
-        <v>2968</v>
-      </c>
-      <c r="B187" s="6">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B188" s="6">
-        <v>20950</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="5">
-        <v>7123</v>
-      </c>
-      <c r="B189" s="6">
-        <v>7123</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="5">
-        <v>13827</v>
-      </c>
-      <c r="B190" s="6">
-        <v>13827</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B191" s="6">
-        <v>8604</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="5">
-        <v>8604</v>
-      </c>
-      <c r="B192" s="6">
-        <v>8604</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B193" s="6">
-        <v>3802</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="5">
-        <v>3802</v>
-      </c>
-      <c r="B194" s="6">
-        <v>3802</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B195" s="6">
-        <v>-3251</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="5">
-        <v>-3251</v>
-      </c>
-      <c r="B196" s="6">
-        <v>-3251</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B197" s="6">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="5">
-        <v>3028</v>
-      </c>
-      <c r="B198" s="6">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B199" s="6">
-        <v>-2338</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="5">
-        <v>-2338</v>
-      </c>
-      <c r="B200" s="6">
-        <v>-2338</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B201" s="6">
-        <v>86925</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="5">
-        <v>42558</v>
-      </c>
-      <c r="B202" s="6">
-        <v>42558</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="5">
-        <v>44367</v>
-      </c>
-      <c r="B203" s="6">
-        <v>44367</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B204" s="6">
-        <v>-3925</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="5">
-        <v>-3925</v>
-      </c>
-      <c r="B205" s="6">
-        <v>-3925</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B206" s="6">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="5">
-        <v>3182</v>
-      </c>
-      <c r="B207" s="6">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B208" s="6">
-        <v>-3178</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="5">
-        <v>-3178</v>
-      </c>
-      <c r="B209" s="6">
-        <v>-3178</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B210" s="6">
-        <v>632235</v>
+        <v>511925</v>
+      </c>
+      <c r="C113" s="6">
+        <v>538885</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1050810</v>
       </c>
     </row>
   </sheetData>
@@ -7975,11 +7640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64F9EF4-6288-4496-BAB2-036C63700A83}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P126" sqref="P126"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8012,7 +7676,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8032,11 +7696,11 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <f ca="1">E2*B2</f>
+        <f t="shared" ref="G2:G33" si="0">E2*B2</f>
         <v>270993</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -8056,11 +7720,11 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <f ca="1">E3*B3</f>
+        <f t="shared" si="0"/>
         <v>-34567</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -8080,11 +7744,11 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f ca="1">E4*B4</f>
+        <f t="shared" si="0"/>
         <v>44367</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -8104,11 +7768,11 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <f ca="1">E5*B5</f>
+        <f t="shared" si="0"/>
         <v>-27298</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -8128,11 +7792,11 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <f ca="1">E6*B6</f>
+        <f t="shared" si="0"/>
         <v>28431</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -8152,11 +7816,11 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <f ca="1">E7*B7</f>
+        <f t="shared" si="0"/>
         <v>-20882</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -8176,11 +7840,11 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <f ca="1">E8*B8</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -8200,11 +7864,11 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <f ca="1">E9*B9</f>
+        <f t="shared" si="0"/>
         <v>-16767</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -8224,11 +7888,11 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <f ca="1">E10*B10</f>
+        <f t="shared" si="0"/>
         <v>13827</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -8248,11 +7912,11 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <f ca="1">E11*B11</f>
+        <f t="shared" si="0"/>
         <v>-14064</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -8272,11 +7936,11 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <f ca="1">E12*B12</f>
+        <f t="shared" si="0"/>
         <v>13654</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -8296,11 +7960,11 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <f ca="1">E13*B13</f>
+        <f t="shared" si="0"/>
         <v>-13911</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -8320,11 +7984,11 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <f ca="1">E14*B14</f>
+        <f t="shared" si="0"/>
         <v>10587</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -8344,11 +8008,11 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <f ca="1">E15*B15</f>
+        <f t="shared" si="0"/>
         <v>-13765</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -8368,11 +8032,11 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <f ca="1">E16*B16</f>
+        <f t="shared" si="0"/>
         <v>9459</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -8392,11 +8056,11 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <f ca="1">E17*B17</f>
+        <f t="shared" si="0"/>
         <v>-12523</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -8416,11 +8080,11 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <f ca="1">E18*B18</f>
+        <f t="shared" si="0"/>
         <v>8604</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -8440,11 +8104,11 @@
         <v>4</v>
       </c>
       <c r="G19">
-        <f ca="1">E19*B19</f>
+        <f t="shared" si="0"/>
         <v>-8809</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -8464,11 +8128,11 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <f ca="1">E20*B20</f>
+        <f t="shared" si="0"/>
         <v>7314</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -8488,11 +8152,11 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <f ca="1">E21*B21</f>
+        <f t="shared" si="0"/>
         <v>-6504</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -8512,11 +8176,11 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <f ca="1">E22*B22</f>
+        <f t="shared" si="0"/>
         <v>7261</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -8536,11 +8200,11 @@
         <v>4</v>
       </c>
       <c r="G23">
-        <f ca="1">E23*B23</f>
+        <f t="shared" si="0"/>
         <v>-5536</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -8560,11 +8224,11 @@
         <v>4</v>
       </c>
       <c r="G24">
-        <f ca="1">E24*B24</f>
+        <f t="shared" si="0"/>
         <v>7145</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -8584,11 +8248,11 @@
         <v>4</v>
       </c>
       <c r="G25">
-        <f ca="1">E25*B25</f>
+        <f t="shared" si="0"/>
         <v>-5369</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -8608,11 +8272,11 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <f ca="1">E26*B26</f>
+        <f t="shared" si="0"/>
         <v>5935</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -8632,11 +8296,11 @@
         <v>4</v>
       </c>
       <c r="G27">
-        <f ca="1">E27*B27</f>
+        <f t="shared" si="0"/>
         <v>-5257</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -8656,11 +8320,11 @@
         <v>4</v>
       </c>
       <c r="G28">
-        <f ca="1">E28*B28</f>
+        <f t="shared" si="0"/>
         <v>5758</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -8680,11 +8344,11 @@
         <v>4</v>
       </c>
       <c r="G29">
-        <f ca="1">E29*B29</f>
+        <f t="shared" si="0"/>
         <v>-5117</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -8704,11 +8368,11 @@
         <v>4</v>
       </c>
       <c r="G30">
-        <f ca="1">E30*B30</f>
+        <f t="shared" si="0"/>
         <v>5749</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -8728,11 +8392,11 @@
         <v>4</v>
       </c>
       <c r="G31">
-        <f ca="1">E31*B31</f>
+        <f t="shared" si="0"/>
         <v>-4353</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -8752,11 +8416,11 @@
         <v>4</v>
       </c>
       <c r="G32">
-        <f ca="1">E32*B32</f>
+        <f t="shared" si="0"/>
         <v>5445</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -8776,11 +8440,11 @@
         <v>4</v>
       </c>
       <c r="G33">
-        <f ca="1">E33*B33</f>
+        <f t="shared" si="0"/>
         <v>-3925</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -8800,11 +8464,11 @@
         <v>4</v>
       </c>
       <c r="G34">
-        <f ca="1">E34*B34</f>
+        <f t="shared" ref="G34:G65" si="1">E34*B34</f>
         <v>5381</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -8824,11 +8488,11 @@
         <v>4</v>
       </c>
       <c r="G35">
-        <f ca="1">E35*B35</f>
+        <f t="shared" si="1"/>
         <v>-3661</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -8848,11 +8512,11 @@
         <v>4</v>
       </c>
       <c r="G36">
-        <f ca="1">E36*B36</f>
+        <f t="shared" si="1"/>
         <v>5194</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -8872,11 +8536,11 @@
         <v>4</v>
       </c>
       <c r="G37">
-        <f ca="1">E37*B37</f>
+        <f t="shared" si="1"/>
         <v>-3285</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>140</v>
       </c>
@@ -8896,11 +8560,11 @@
         <v>4</v>
       </c>
       <c r="G38">
-        <f ca="1">E38*B38</f>
+        <f t="shared" si="1"/>
         <v>4696</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -8920,11 +8584,11 @@
         <v>4</v>
       </c>
       <c r="G39">
-        <f ca="1">E39*B39</f>
+        <f t="shared" si="1"/>
         <v>-3251</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -8944,11 +8608,11 @@
         <v>4</v>
       </c>
       <c r="G40">
-        <f ca="1">E40*B40</f>
+        <f t="shared" si="1"/>
         <v>4063</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -8968,11 +8632,11 @@
         <v>4</v>
       </c>
       <c r="G41">
-        <f ca="1">E41*B41</f>
+        <f t="shared" si="1"/>
         <v>-3084</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -8992,11 +8656,11 @@
         <v>4</v>
       </c>
       <c r="G42">
-        <f ca="1">E42*B42</f>
+        <f t="shared" si="1"/>
         <v>4015</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -9016,11 +8680,11 @@
         <v>4</v>
       </c>
       <c r="G43">
-        <f ca="1">E43*B43</f>
+        <f t="shared" si="1"/>
         <v>-3022</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -9040,11 +8704,11 @@
         <v>4</v>
       </c>
       <c r="G44">
-        <f ca="1">E44*B44</f>
+        <f t="shared" si="1"/>
         <v>3725</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>165</v>
       </c>
@@ -9064,11 +8728,11 @@
         <v>4</v>
       </c>
       <c r="G45">
-        <f ca="1">E45*B45</f>
+        <f t="shared" si="1"/>
         <v>-2938</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -9088,11 +8752,11 @@
         <v>4</v>
       </c>
       <c r="G46">
-        <f ca="1">E46*B46</f>
+        <f t="shared" si="1"/>
         <v>3480</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -9112,11 +8776,11 @@
         <v>4</v>
       </c>
       <c r="G47">
-        <f ca="1">E47*B47</f>
+        <f t="shared" si="1"/>
         <v>-2789</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -9136,11 +8800,11 @@
         <v>4</v>
       </c>
       <c r="G48">
-        <f ca="1">E48*B48</f>
+        <f t="shared" si="1"/>
         <v>3458</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>181</v>
       </c>
@@ -9160,11 +8824,11 @@
         <v>4</v>
       </c>
       <c r="G49">
-        <f ca="1">E49*B49</f>
+        <f t="shared" si="1"/>
         <v>-2644</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -9184,11 +8848,11 @@
         <v>4</v>
       </c>
       <c r="G50">
-        <f ca="1">E50*B50</f>
+        <f t="shared" si="1"/>
         <v>3289</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>189</v>
       </c>
@@ -9208,11 +8872,11 @@
         <v>4</v>
       </c>
       <c r="G51">
-        <f ca="1">E51*B51</f>
+        <f t="shared" si="1"/>
         <v>-2372</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>193</v>
       </c>
@@ -9232,11 +8896,11 @@
         <v>4</v>
       </c>
       <c r="G52">
-        <f ca="1">E52*B52</f>
+        <f t="shared" si="1"/>
         <v>3182</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -9256,11 +8920,11 @@
         <v>4</v>
       </c>
       <c r="G53">
-        <f ca="1">E53*B53</f>
+        <f t="shared" si="1"/>
         <v>-2220</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>201</v>
       </c>
@@ -9280,11 +8944,11 @@
         <v>4</v>
       </c>
       <c r="G54">
-        <f ca="1">E54*B54</f>
+        <f t="shared" si="1"/>
         <v>3039</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -9304,11 +8968,11 @@
         <v>4</v>
       </c>
       <c r="G55">
-        <f ca="1">E55*B55</f>
+        <f t="shared" si="1"/>
         <v>-2078</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -9328,11 +8992,11 @@
         <v>4</v>
       </c>
       <c r="G56">
-        <f ca="1">E56*B56</f>
+        <f t="shared" si="1"/>
         <v>3028</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>209</v>
       </c>
@@ -9352,11 +9016,11 @@
         <v>4</v>
       </c>
       <c r="G57">
-        <f ca="1">E57*B57</f>
+        <f t="shared" si="1"/>
         <v>-2051</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>213</v>
       </c>
@@ -9376,11 +9040,11 @@
         <v>4</v>
       </c>
       <c r="G58">
-        <f ca="1">E58*B58</f>
+        <f t="shared" si="1"/>
         <v>2968</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>216</v>
       </c>
@@ -9400,11 +9064,11 @@
         <v>4</v>
       </c>
       <c r="G59">
-        <f ca="1">E59*B59</f>
+        <f t="shared" si="1"/>
         <v>-1988</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>220</v>
       </c>
@@ -9424,11 +9088,11 @@
         <v>4</v>
       </c>
       <c r="G60">
-        <f ca="1">E60*B60</f>
+        <f t="shared" si="1"/>
         <v>2878</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -9448,11 +9112,11 @@
         <v>4</v>
       </c>
       <c r="G61">
-        <f ca="1">E61*B61</f>
+        <f t="shared" si="1"/>
         <v>-1978</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -9472,11 +9136,11 @@
         <v>231</v>
       </c>
       <c r="G62">
-        <f ca="1">E62*B62</f>
+        <f t="shared" si="1"/>
         <v>216883</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -9496,11 +9160,11 @@
         <v>231</v>
       </c>
       <c r="G63">
-        <f ca="1">E63*B63</f>
+        <f t="shared" si="1"/>
         <v>-24349</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -9520,11 +9184,11 @@
         <v>231</v>
       </c>
       <c r="G64">
-        <f ca="1">E64*B64</f>
+        <f t="shared" si="1"/>
         <v>60681</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -9544,11 +9208,11 @@
         <v>231</v>
       </c>
       <c r="G65">
-        <f ca="1">E65*B65</f>
+        <f t="shared" si="1"/>
         <v>-18982</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -9568,11 +9232,11 @@
         <v>231</v>
       </c>
       <c r="G66">
-        <f ca="1">E66*B66</f>
+        <f t="shared" ref="G66:G97" si="2">E66*B66</f>
         <v>42558</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -9592,11 +9256,11 @@
         <v>231</v>
       </c>
       <c r="G67">
-        <f ca="1">E67*B67</f>
+        <f t="shared" si="2"/>
         <v>-12942</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -9616,11 +9280,11 @@
         <v>231</v>
       </c>
       <c r="G68">
-        <f ca="1">E68*B68</f>
+        <f t="shared" si="2"/>
         <v>28645</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -9640,11 +9304,11 @@
         <v>231</v>
       </c>
       <c r="G69">
-        <f ca="1">E69*B69</f>
+        <f t="shared" si="2"/>
         <v>-11632</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -9664,11 +9328,11 @@
         <v>231</v>
       </c>
       <c r="G70">
-        <f ca="1">E70*B70</f>
+        <f t="shared" si="2"/>
         <v>18597</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>255</v>
       </c>
@@ -9688,11 +9352,11 @@
         <v>231</v>
       </c>
       <c r="G71">
-        <f ca="1">E71*B71</f>
+        <f t="shared" si="2"/>
         <v>-8291</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>259</v>
       </c>
@@ -9712,11 +9376,11 @@
         <v>231</v>
       </c>
       <c r="G72">
-        <f ca="1">E72*B72</f>
+        <f t="shared" si="2"/>
         <v>13832</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -9736,11 +9400,11 @@
         <v>231</v>
       </c>
       <c r="G73">
-        <f ca="1">E73*B73</f>
+        <f t="shared" si="2"/>
         <v>-8120</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -9760,11 +9424,11 @@
         <v>231</v>
       </c>
       <c r="G74">
-        <f ca="1">E74*B74</f>
+        <f t="shared" si="2"/>
         <v>13411</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -9784,11 +9448,11 @@
         <v>231</v>
       </c>
       <c r="G75">
-        <f ca="1">E75*B75</f>
+        <f t="shared" si="2"/>
         <v>-7291</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -9808,11 +9472,11 @@
         <v>231</v>
       </c>
       <c r="G76">
-        <f ca="1">E76*B76</f>
+        <f t="shared" si="2"/>
         <v>12739</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -9832,11 +9496,11 @@
         <v>231</v>
       </c>
       <c r="G77">
-        <f ca="1">E77*B77</f>
+        <f t="shared" si="2"/>
         <v>-7150</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>57</v>
       </c>
@@ -9856,11 +9520,11 @@
         <v>231</v>
       </c>
       <c r="G78">
-        <f ca="1">E78*B78</f>
+        <f t="shared" si="2"/>
         <v>12718</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -9880,11 +9544,11 @@
         <v>231</v>
       </c>
       <c r="G79">
-        <f ca="1">E79*B79</f>
+        <f t="shared" si="2"/>
         <v>-6992</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -9904,11 +9568,11 @@
         <v>231</v>
       </c>
       <c r="G80">
-        <f ca="1">E80*B80</f>
+        <f t="shared" si="2"/>
         <v>10629</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -9928,11 +9592,11 @@
         <v>231</v>
       </c>
       <c r="G81">
-        <f ca="1">E81*B81</f>
+        <f t="shared" si="2"/>
         <v>-6872</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -9952,11 +9616,11 @@
         <v>231</v>
       </c>
       <c r="G82">
-        <f ca="1">E82*B82</f>
+        <f t="shared" si="2"/>
         <v>10481</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -9976,7 +9640,7 @@
         <v>231</v>
       </c>
       <c r="G83">
-        <f ca="1">E83*B83</f>
+        <f t="shared" si="2"/>
         <v>-5879</v>
       </c>
     </row>
@@ -10000,11 +9664,11 @@
         <v>231</v>
       </c>
       <c r="G84">
-        <f ca="1">E84*B84</f>
+        <f t="shared" si="2"/>
         <v>10123</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>300</v>
       </c>
@@ -10024,11 +9688,11 @@
         <v>231</v>
       </c>
       <c r="G85">
-        <f ca="1">E85*B85</f>
+        <f t="shared" si="2"/>
         <v>-5649</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -10048,11 +9712,11 @@
         <v>231</v>
       </c>
       <c r="G86">
-        <f ca="1">E86*B86</f>
+        <f t="shared" si="2"/>
         <v>9182</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -10072,11 +9736,11 @@
         <v>231</v>
       </c>
       <c r="G87">
-        <f ca="1">E87*B87</f>
+        <f t="shared" si="2"/>
         <v>-5388</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -10096,11 +9760,11 @@
         <v>231</v>
       </c>
       <c r="G88">
-        <f ca="1">E88*B88</f>
+        <f t="shared" si="2"/>
         <v>7312</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>311</v>
       </c>
@@ -10120,11 +9784,11 @@
         <v>231</v>
       </c>
       <c r="G89">
-        <f ca="1">E89*B89</f>
+        <f t="shared" si="2"/>
         <v>-5347</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -10144,11 +9808,11 @@
         <v>231</v>
       </c>
       <c r="G90">
-        <f ca="1">E90*B90</f>
+        <f t="shared" si="2"/>
         <v>7123</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>157</v>
       </c>
@@ -10168,11 +9832,11 @@
         <v>231</v>
       </c>
       <c r="G91">
-        <f ca="1">E91*B91</f>
+        <f t="shared" si="2"/>
         <v>-4743</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -10192,11 +9856,11 @@
         <v>231</v>
       </c>
       <c r="G92">
-        <f ca="1">E92*B92</f>
+        <f t="shared" si="2"/>
         <v>6710</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -10216,11 +9880,11 @@
         <v>231</v>
       </c>
       <c r="G93">
-        <f ca="1">E93*B93</f>
+        <f t="shared" si="2"/>
         <v>-4322</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>165</v>
       </c>
@@ -10240,11 +9904,11 @@
         <v>231</v>
       </c>
       <c r="G94">
-        <f ca="1">E94*B94</f>
+        <f t="shared" si="2"/>
         <v>5460</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -10264,11 +9928,11 @@
         <v>231</v>
       </c>
       <c r="G95">
-        <f ca="1">E95*B95</f>
+        <f t="shared" si="2"/>
         <v>-4264</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>329</v>
       </c>
@@ -10288,11 +9952,11 @@
         <v>231</v>
       </c>
       <c r="G96">
-        <f ca="1">E96*B96</f>
+        <f t="shared" si="2"/>
         <v>4951</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -10312,11 +9976,11 @@
         <v>231</v>
       </c>
       <c r="G97">
-        <f ca="1">E97*B97</f>
+        <f t="shared" si="2"/>
         <v>-3555</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -10336,11 +10000,11 @@
         <v>231</v>
       </c>
       <c r="G98">
-        <f ca="1">E98*B98</f>
+        <f t="shared" ref="G98:G121" si="3">E98*B98</f>
         <v>4722</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>338</v>
       </c>
@@ -10360,11 +10024,11 @@
         <v>231</v>
       </c>
       <c r="G99">
-        <f ca="1">E99*B99</f>
+        <f t="shared" si="3"/>
         <v>-3422</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>342</v>
       </c>
@@ -10384,11 +10048,11 @@
         <v>231</v>
       </c>
       <c r="G100">
-        <f ca="1">E100*B100</f>
+        <f t="shared" si="3"/>
         <v>4558</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>345</v>
       </c>
@@ -10408,11 +10072,11 @@
         <v>231</v>
       </c>
       <c r="G101">
-        <f ca="1">E101*B101</f>
+        <f t="shared" si="3"/>
         <v>-3178</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>349</v>
       </c>
@@ -10432,11 +10096,11 @@
         <v>231</v>
       </c>
       <c r="G102">
-        <f ca="1">E102*B102</f>
+        <f t="shared" si="3"/>
         <v>4065</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>352</v>
       </c>
@@ -10456,11 +10120,11 @@
         <v>231</v>
       </c>
       <c r="G103">
-        <f ca="1">E103*B103</f>
+        <f t="shared" si="3"/>
         <v>-2686</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -10480,11 +10144,11 @@
         <v>231</v>
       </c>
       <c r="G104">
-        <f ca="1">E104*B104</f>
+        <f t="shared" si="3"/>
         <v>4007</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>358</v>
       </c>
@@ -10504,11 +10168,11 @@
         <v>231</v>
       </c>
       <c r="G105">
-        <f ca="1">E105*B105</f>
+        <f t="shared" si="3"/>
         <v>-2566</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>95</v>
       </c>
@@ -10528,11 +10192,11 @@
         <v>231</v>
       </c>
       <c r="G106">
-        <f ca="1">E106*B106</f>
+        <f t="shared" si="3"/>
         <v>3945</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>364</v>
       </c>
@@ -10552,11 +10216,11 @@
         <v>231</v>
       </c>
       <c r="G107">
-        <f ca="1">E107*B107</f>
+        <f t="shared" si="3"/>
         <v>-2499</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>368</v>
       </c>
@@ -10576,11 +10240,11 @@
         <v>231</v>
       </c>
       <c r="G108">
-        <f ca="1">E108*B108</f>
+        <f t="shared" si="3"/>
         <v>3925</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>371</v>
       </c>
@@ -10600,11 +10264,11 @@
         <v>231</v>
       </c>
       <c r="G109">
-        <f ca="1">E109*B109</f>
+        <f t="shared" si="3"/>
         <v>-2488</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>375</v>
       </c>
@@ -10624,11 +10288,11 @@
         <v>231</v>
       </c>
       <c r="G110">
-        <f ca="1">E110*B110</f>
+        <f t="shared" si="3"/>
         <v>3802</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>378</v>
       </c>
@@ -10648,11 +10312,11 @@
         <v>231</v>
       </c>
       <c r="G111">
-        <f ca="1">E111*B111</f>
+        <f t="shared" si="3"/>
         <v>-2439</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>381</v>
       </c>
@@ -10672,11 +10336,11 @@
         <v>231</v>
       </c>
       <c r="G112">
-        <f ca="1">E112*B112</f>
+        <f t="shared" si="3"/>
         <v>3784</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>385</v>
       </c>
@@ -10696,11 +10360,11 @@
         <v>231</v>
       </c>
       <c r="G113">
-        <f ca="1">E113*B113</f>
+        <f t="shared" si="3"/>
         <v>-2403</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>388</v>
       </c>
@@ -10720,11 +10384,11 @@
         <v>231</v>
       </c>
       <c r="G114">
-        <f ca="1">E114*B114</f>
+        <f t="shared" si="3"/>
         <v>3774</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>391</v>
       </c>
@@ -10744,11 +10408,11 @@
         <v>231</v>
       </c>
       <c r="G115">
-        <f ca="1">E115*B115</f>
+        <f t="shared" si="3"/>
         <v>-2338</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -10768,11 +10432,11 @@
         <v>231</v>
       </c>
       <c r="G116">
-        <f ca="1">E116*B116</f>
+        <f t="shared" si="3"/>
         <v>3535</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -10792,11 +10456,11 @@
         <v>231</v>
       </c>
       <c r="G117">
-        <f ca="1">E117*B117</f>
+        <f t="shared" si="3"/>
         <v>-2319</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>400</v>
       </c>
@@ -10816,11 +10480,11 @@
         <v>231</v>
       </c>
       <c r="G118">
-        <f ca="1">E118*B118</f>
+        <f t="shared" si="3"/>
         <v>3491</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>404</v>
       </c>
@@ -10840,11 +10504,11 @@
         <v>231</v>
       </c>
       <c r="G119">
-        <f ca="1">E119*B119</f>
+        <f t="shared" si="3"/>
         <v>-2291</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>408</v>
       </c>
@@ -10864,11 +10528,11 @@
         <v>231</v>
       </c>
       <c r="G120">
-        <f ca="1">E120*B120</f>
+        <f t="shared" si="3"/>
         <v>3242</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>411</v>
       </c>
@@ -10888,23 +10552,12 @@
         <v>231</v>
       </c>
       <c r="G121">
-        <f ca="1">E121*B121</f>
+        <f t="shared" si="3"/>
         <v>-2170</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G121" xr:uid="{C64F9EF4-6288-4496-BAB2-036C63700A83}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="KT"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G121" xr:uid="{C64F9EF4-6288-4496-BAB2-036C63700A83}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20200228start\python_ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB752465-42C4-4CEB-865E-CF30625666D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC3533-A175-49BE-85BC-200D87DBB8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Do_Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Do_Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Do_Data!$A$1:$G$121</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2608,6 +2608,21 @@
     <t>+1.70%</t>
   </si>
   <si>
+    <t>매수매도</t>
+  </si>
+  <si>
+    <t>합계 : 금액작업</t>
+  </si>
+  <si>
+    <t>열 레이블</t>
+  </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -2620,25 +2635,10 @@
     <t>등락</t>
   </si>
   <si>
-    <t>매수매도</t>
-  </si>
-  <si>
     <t>날짜</t>
   </si>
   <si>
     <t>금액작업</t>
-  </si>
-  <si>
-    <t>행 레이블</t>
-  </si>
-  <si>
-    <t>총합계</t>
-  </si>
-  <si>
-    <t>열 레이블</t>
-  </si>
-  <si>
-    <t>합계 : 금액작업</t>
   </si>
 </sst>
 </file>
@@ -2681,16 +2681,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2736,49 +2735,15 @@
           </a:solidFill>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -2788,53 +2753,19 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -2844,53 +2775,19 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent3"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -2900,53 +2797,19 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent4"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -2956,53 +2819,19 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent5"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -3035,8 +2864,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3400,7 +3229,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B226-4F20-9979-07163E33B071}"/>
+              <c16:uniqueId val="{00000000-1932-4EA4-9DB5-0AB51B1362F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3424,8 +3253,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3789,7 +3618,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B226-4F20-9979-07163E33B071}"/>
+              <c16:uniqueId val="{00000001-1932-4EA4-9DB5-0AB51B1362F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3813,8 +3642,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4178,7 +4007,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B226-4F20-9979-07163E33B071}"/>
+              <c16:uniqueId val="{00000002-1932-4EA4-9DB5-0AB51B1362F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4202,8 +4031,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4567,7 +4396,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B226-4F20-9979-07163E33B071}"/>
+              <c16:uniqueId val="{00000003-1932-4EA4-9DB5-0AB51B1362F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4591,8 +4420,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4956,7 +4785,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B226-4F20-9979-07163E33B071}"/>
+              <c16:uniqueId val="{00000004-1932-4EA4-9DB5-0AB51B1362F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4993,16 +4822,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5040,9 +4869,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5053,15 +4882,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5080,13 +4909,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -5095,15 +4917,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5121,605 +4943,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5739,10 +4970,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043932F2-5683-D280-D98D-8418FDF1C7F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5764,7 +4995,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="44798.413778819442" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="300" xr:uid="{34DA8CA4-751A-4626-B7AB-EA2776E7CCA6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="44798.413778819442" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="300" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G301" sheet="Do_Data"/>
   </cacheSource>
@@ -6241,12 +5472,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="300">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300">
   <r>
     <x v="0"/>
     <n v="270993"/>
     <n v="4448"/>
-    <n v="-9.7999999999999997E-3"/>
+    <n v="-0.0098"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -6255,7 +5486,7 @@
     <x v="1"/>
     <n v="34567"/>
     <n v="138"/>
-    <n v="-8.0000000000000002E-3"/>
+    <n v="-0.008"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
@@ -6264,7 +5495,7 @@
     <x v="2"/>
     <n v="44367"/>
     <n v="239"/>
-    <n v="2.1499999999999998E-2"/>
+    <n v="0.0215"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
@@ -6273,7 +5504,7 @@
     <x v="3"/>
     <n v="27298"/>
     <n v="355"/>
-    <n v="6.4999999999999997E-3"/>
+    <n v="0.0065"/>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
@@ -6282,7 +5513,7 @@
     <x v="4"/>
     <n v="28431"/>
     <n v="46"/>
-    <n v="-9.5999999999999992E-3"/>
+    <n v="-0.009599999999999999"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
@@ -6291,7 +5522,7 @@
     <x v="5"/>
     <n v="20882"/>
     <n v="218"/>
-    <n v="7.3000000000000001E-3"/>
+    <n v="0.0073"/>
     <x v="1"/>
     <x v="0"/>
     <x v="5"/>
@@ -6300,7 +5531,7 @@
     <x v="6"/>
     <n v="15000"/>
     <n v="703"/>
-    <n v="-1.4E-2"/>
+    <n v="-0.014"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -6309,7 +5540,7 @@
     <x v="7"/>
     <n v="16767"/>
     <n v="81"/>
-    <n v="-4.8999999999999998E-3"/>
+    <n v="-0.0049"/>
     <x v="1"/>
     <x v="0"/>
     <x v="7"/>
@@ -6318,7 +5549,7 @@
     <x v="8"/>
     <n v="13827"/>
     <n v="66"/>
-    <n v="1.66E-2"/>
+    <n v="0.0166"/>
     <x v="0"/>
     <x v="0"/>
     <x v="8"/>
@@ -6327,7 +5558,7 @@
     <x v="9"/>
     <n v="14064"/>
     <n v="114"/>
-    <n v="-4.5100000000000001E-2"/>
+    <n v="-0.0451"/>
     <x v="1"/>
     <x v="0"/>
     <x v="9"/>
@@ -6336,7 +5567,7 @@
     <x v="10"/>
     <n v="13654"/>
     <n v="21"/>
-    <n v="-1.6899999999999998E-2"/>
+    <n v="-0.0169"/>
     <x v="0"/>
     <x v="0"/>
     <x v="10"/>
@@ -6354,7 +5585,7 @@
     <x v="12"/>
     <n v="10587"/>
     <n v="24"/>
-    <n v="-1.11E-2"/>
+    <n v="-0.0111"/>
     <x v="0"/>
     <x v="0"/>
     <x v="12"/>
@@ -6363,7 +5594,7 @@
     <x v="13"/>
     <n v="13765"/>
     <n v="198"/>
-    <n v="5.7999999999999996E-3"/>
+    <n v="0.0058"/>
     <x v="1"/>
     <x v="0"/>
     <x v="13"/>
@@ -6372,7 +5603,7 @@
     <x v="14"/>
     <n v="9459"/>
     <n v="59"/>
-    <n v="-2.7900000000000001E-2"/>
+    <n v="-0.0279"/>
     <x v="0"/>
     <x v="0"/>
     <x v="14"/>
@@ -6381,7 +5612,7 @@
     <x v="15"/>
     <n v="12523"/>
     <n v="245"/>
-    <n v="-3.8999999999999998E-3"/>
+    <n v="-0.0039"/>
     <x v="1"/>
     <x v="0"/>
     <x v="15"/>
@@ -6390,7 +5621,7 @@
     <x v="16"/>
     <n v="8604"/>
     <n v="80"/>
-    <n v="1.3899999999999999E-2"/>
+    <n v="0.0139"/>
     <x v="0"/>
     <x v="0"/>
     <x v="16"/>
@@ -6399,7 +5630,7 @@
     <x v="17"/>
     <n v="8809"/>
     <n v="280"/>
-    <n v="-8.1699999999999995E-2"/>
+    <n v="-0.08169999999999999"/>
     <x v="1"/>
     <x v="0"/>
     <x v="17"/>
@@ -6408,7 +5639,7 @@
     <x v="18"/>
     <n v="7314"/>
     <n v="279"/>
-    <n v="5.7000000000000002E-3"/>
+    <n v="0.0057"/>
     <x v="0"/>
     <x v="0"/>
     <x v="18"/>
@@ -6417,7 +5648,7 @@
     <x v="19"/>
     <n v="6504"/>
     <n v="84"/>
-    <n v="-3.1600000000000003E-2"/>
+    <n v="-0.0316"/>
     <x v="1"/>
     <x v="0"/>
     <x v="19"/>
@@ -6426,7 +5657,7 @@
     <x v="20"/>
     <n v="7261"/>
     <n v="2474"/>
-    <n v="1.04E-2"/>
+    <n v="0.0104"/>
     <x v="0"/>
     <x v="0"/>
     <x v="20"/>
@@ -6435,7 +5666,7 @@
     <x v="21"/>
     <n v="5536"/>
     <n v="527"/>
-    <n v="1.8499999999999999E-2"/>
+    <n v="0.0185"/>
     <x v="1"/>
     <x v="0"/>
     <x v="21"/>
@@ -6444,7 +5675,7 @@
     <x v="22"/>
     <n v="7145"/>
     <n v="444"/>
-    <n v="-1.23E-2"/>
+    <n v="-0.0123"/>
     <x v="0"/>
     <x v="0"/>
     <x v="22"/>
@@ -6453,7 +5684,7 @@
     <x v="23"/>
     <n v="5369"/>
     <n v="21"/>
-    <n v="-3.8999999999999998E-3"/>
+    <n v="-0.0039"/>
     <x v="1"/>
     <x v="0"/>
     <x v="23"/>
@@ -6462,7 +5693,7 @@
     <x v="24"/>
     <n v="5935"/>
     <n v="43"/>
-    <n v="-1.09E-2"/>
+    <n v="-0.0109"/>
     <x v="0"/>
     <x v="0"/>
     <x v="24"/>
@@ -6480,7 +5711,7 @@
     <x v="26"/>
     <n v="5758"/>
     <n v="81"/>
-    <n v="-1.12E-2"/>
+    <n v="-0.0112"/>
     <x v="0"/>
     <x v="0"/>
     <x v="26"/>
@@ -6489,7 +5720,7 @@
     <x v="27"/>
     <n v="5117"/>
     <n v="1085"/>
-    <n v="6.4000000000000003E-3"/>
+    <n v="0.0064"/>
     <x v="1"/>
     <x v="0"/>
     <x v="27"/>
@@ -6498,7 +5729,7 @@
     <x v="28"/>
     <n v="5749"/>
     <n v="63"/>
-    <n v="2.2000000000000001E-3"/>
+    <n v="0.0022"/>
     <x v="0"/>
     <x v="0"/>
     <x v="28"/>
@@ -6507,7 +5738,7 @@
     <x v="29"/>
     <n v="4353"/>
     <n v="33"/>
-    <n v="3.8E-3"/>
+    <n v="0.0038"/>
     <x v="1"/>
     <x v="0"/>
     <x v="29"/>
@@ -6516,7 +5747,7 @@
     <x v="30"/>
     <n v="5445"/>
     <n v="9"/>
-    <n v="-3.3999999999999998E-3"/>
+    <n v="-0.0034"/>
     <x v="0"/>
     <x v="0"/>
     <x v="30"/>
@@ -6525,7 +5756,7 @@
     <x v="31"/>
     <n v="3925"/>
     <n v="44"/>
-    <n v="1.1299999999999999E-2"/>
+    <n v="0.0113"/>
     <x v="1"/>
     <x v="0"/>
     <x v="31"/>
@@ -6534,7 +5765,7 @@
     <x v="32"/>
     <n v="5381"/>
     <n v="310"/>
-    <n v="-8.8000000000000005E-3"/>
+    <n v="-0.008800000000000001"/>
     <x v="0"/>
     <x v="0"/>
     <x v="32"/>
@@ -6543,7 +5774,7 @@
     <x v="33"/>
     <n v="3661"/>
     <n v="104"/>
-    <n v="-2.8E-3"/>
+    <n v="-0.0028"/>
     <x v="1"/>
     <x v="0"/>
     <x v="33"/>
@@ -6552,7 +5783,7 @@
     <x v="34"/>
     <n v="5194"/>
     <n v="28"/>
-    <n v="-8.0000000000000002E-3"/>
+    <n v="-0.008"/>
     <x v="0"/>
     <x v="0"/>
     <x v="34"/>
@@ -6561,7 +5792,7 @@
     <x v="35"/>
     <n v="3285"/>
     <n v="50"/>
-    <n v="-6.1999999999999998E-3"/>
+    <n v="-0.0062"/>
     <x v="1"/>
     <x v="0"/>
     <x v="35"/>
@@ -6570,7 +5801,7 @@
     <x v="36"/>
     <n v="4696"/>
     <n v="43"/>
-    <n v="9.1999999999999998E-3"/>
+    <n v="0.0092"/>
     <x v="0"/>
     <x v="0"/>
     <x v="36"/>
@@ -6579,7 +5810,7 @@
     <x v="37"/>
     <n v="3251"/>
     <n v="27"/>
-    <n v="-2.07E-2"/>
+    <n v="-0.0207"/>
     <x v="1"/>
     <x v="0"/>
     <x v="37"/>
@@ -6588,7 +5819,7 @@
     <x v="38"/>
     <n v="4063"/>
     <n v="11"/>
-    <n v="-2.0899999999999998E-2"/>
+    <n v="-0.0209"/>
     <x v="0"/>
     <x v="0"/>
     <x v="38"/>
@@ -6597,7 +5828,7 @@
     <x v="39"/>
     <n v="3084"/>
     <n v="33"/>
-    <n v="1.84E-2"/>
+    <n v="0.0184"/>
     <x v="1"/>
     <x v="0"/>
     <x v="39"/>
@@ -6606,7 +5837,7 @@
     <x v="40"/>
     <n v="4015"/>
     <n v="24"/>
-    <n v="-1.72E-2"/>
+    <n v="-0.0172"/>
     <x v="0"/>
     <x v="0"/>
     <x v="40"/>
@@ -6615,7 +5846,7 @@
     <x v="41"/>
     <n v="3022"/>
     <n v="140"/>
-    <n v="-2.3E-3"/>
+    <n v="-0.0023"/>
     <x v="1"/>
     <x v="0"/>
     <x v="41"/>
@@ -6624,7 +5855,7 @@
     <x v="42"/>
     <n v="3725"/>
     <n v="226"/>
-    <n v="-2.3199999999999998E-2"/>
+    <n v="-0.0232"/>
     <x v="0"/>
     <x v="0"/>
     <x v="42"/>
@@ -6633,7 +5864,7 @@
     <x v="43"/>
     <n v="2938"/>
     <n v="240"/>
-    <n v="2.0500000000000001E-2"/>
+    <n v="0.0205"/>
     <x v="1"/>
     <x v="0"/>
     <x v="43"/>
@@ -6642,7 +5873,7 @@
     <x v="44"/>
     <n v="3480"/>
     <n v="18"/>
-    <n v="1.26E-2"/>
+    <n v="0.0126"/>
     <x v="0"/>
     <x v="0"/>
     <x v="44"/>
@@ -6651,7 +5882,7 @@
     <x v="45"/>
     <n v="2789"/>
     <n v="14"/>
-    <n v="-2.8500000000000001E-2"/>
+    <n v="-0.0285"/>
     <x v="1"/>
     <x v="0"/>
     <x v="45"/>
@@ -6660,7 +5891,7 @@
     <x v="46"/>
     <n v="3458"/>
     <n v="47"/>
-    <n v="-2.8000000000000001E-2"/>
+    <n v="-0.028"/>
     <x v="0"/>
     <x v="0"/>
     <x v="46"/>
@@ -6669,7 +5900,7 @@
     <x v="47"/>
     <n v="2644"/>
     <n v="36"/>
-    <n v="2.07E-2"/>
+    <n v="0.0207"/>
     <x v="1"/>
     <x v="0"/>
     <x v="47"/>
@@ -6678,7 +5909,7 @@
     <x v="48"/>
     <n v="3289"/>
     <n v="551"/>
-    <n v="3.3E-3"/>
+    <n v="0.0033"/>
     <x v="0"/>
     <x v="0"/>
     <x v="48"/>
@@ -6687,7 +5918,7 @@
     <x v="49"/>
     <n v="2372"/>
     <n v="500"/>
-    <n v="2.1100000000000001E-2"/>
+    <n v="0.0211"/>
     <x v="1"/>
     <x v="0"/>
     <x v="49"/>
@@ -6696,7 +5927,7 @@
     <x v="50"/>
     <n v="3182"/>
     <n v="93"/>
-    <n v="1.32E-2"/>
+    <n v="0.0132"/>
     <x v="0"/>
     <x v="0"/>
     <x v="50"/>
@@ -6705,7 +5936,7 @@
     <x v="51"/>
     <n v="2220"/>
     <n v="67"/>
-    <n v="-5.7999999999999996E-3"/>
+    <n v="-0.0058"/>
     <x v="1"/>
     <x v="0"/>
     <x v="51"/>
@@ -6723,7 +5954,7 @@
     <x v="53"/>
     <n v="2078"/>
     <n v="21"/>
-    <n v="-9.7999999999999997E-3"/>
+    <n v="-0.0098"/>
     <x v="1"/>
     <x v="0"/>
     <x v="53"/>
@@ -6732,7 +5963,7 @@
     <x v="54"/>
     <n v="3028"/>
     <n v="44"/>
-    <n v="-7.3000000000000001E-3"/>
+    <n v="-0.0073"/>
     <x v="0"/>
     <x v="0"/>
     <x v="54"/>
@@ -6741,7 +5972,7 @@
     <x v="55"/>
     <n v="2051"/>
     <n v="54"/>
-    <n v="1.7100000000000001E-2"/>
+    <n v="0.0171"/>
     <x v="1"/>
     <x v="0"/>
     <x v="55"/>
@@ -6750,7 +5981,7 @@
     <x v="56"/>
     <n v="2968"/>
     <n v="50"/>
-    <n v="-2.1000000000000001E-2"/>
+    <n v="-0.021"/>
     <x v="0"/>
     <x v="0"/>
     <x v="56"/>
@@ -6759,7 +5990,7 @@
     <x v="57"/>
     <n v="1988"/>
     <n v="291"/>
-    <n v="2.8999999999999998E-3"/>
+    <n v="0.0029"/>
     <x v="1"/>
     <x v="0"/>
     <x v="57"/>
@@ -6768,7 +5999,7 @@
     <x v="58"/>
     <n v="2878"/>
     <n v="1564"/>
-    <n v="-3.5099999999999999E-2"/>
+    <n v="-0.0351"/>
     <x v="0"/>
     <x v="0"/>
     <x v="58"/>
@@ -6777,7 +6008,7 @@
     <x v="59"/>
     <n v="1978"/>
     <n v="26"/>
-    <n v="-1.41E-2"/>
+    <n v="-0.0141"/>
     <x v="1"/>
     <x v="0"/>
     <x v="59"/>
@@ -6786,7 +6017,7 @@
     <x v="17"/>
     <n v="216883"/>
     <n v="7499"/>
-    <n v="-5.1999999999999998E-3"/>
+    <n v="-0.0052"/>
     <x v="0"/>
     <x v="1"/>
     <x v="60"/>
@@ -6795,7 +6026,7 @@
     <x v="19"/>
     <n v="24349"/>
     <n v="316"/>
-    <n v="-1.9599999999999999E-2"/>
+    <n v="-0.0196"/>
     <x v="1"/>
     <x v="1"/>
     <x v="61"/>
@@ -6804,7 +6035,7 @@
     <x v="5"/>
     <n v="60681"/>
     <n v="627"/>
-    <n v="-1.04E-2"/>
+    <n v="-0.0104"/>
     <x v="0"/>
     <x v="1"/>
     <x v="62"/>
@@ -6813,7 +6044,7 @@
     <x v="0"/>
     <n v="18982"/>
     <n v="312"/>
-    <n v="-1.15E-2"/>
+    <n v="-0.0115"/>
     <x v="1"/>
     <x v="1"/>
     <x v="63"/>
@@ -6822,7 +6053,7 @@
     <x v="2"/>
     <n v="42558"/>
     <n v="224"/>
-    <n v="-2.5999999999999999E-3"/>
+    <n v="-0.0026"/>
     <x v="0"/>
     <x v="1"/>
     <x v="64"/>
@@ -6831,7 +6062,7 @@
     <x v="15"/>
     <n v="12942"/>
     <n v="255"/>
-    <n v="9.7999999999999997E-3"/>
+    <n v="0.0098"/>
     <x v="1"/>
     <x v="1"/>
     <x v="65"/>
@@ -6840,7 +6071,7 @@
     <x v="12"/>
     <n v="28645"/>
     <n v="64"/>
-    <n v="-2.2000000000000001E-3"/>
+    <n v="-0.0022"/>
     <x v="0"/>
     <x v="1"/>
     <x v="66"/>
@@ -6849,7 +6080,7 @@
     <x v="3"/>
     <n v="11632"/>
     <n v="151"/>
-    <n v="6.4999999999999997E-3"/>
+    <n v="0.0065"/>
     <x v="1"/>
     <x v="1"/>
     <x v="67"/>
@@ -6858,7 +6089,7 @@
     <x v="4"/>
     <n v="18597"/>
     <n v="30"/>
-    <n v="-1.6199999999999999E-2"/>
+    <n v="-0.0162"/>
     <x v="0"/>
     <x v="1"/>
     <x v="68"/>
@@ -6867,7 +6098,7 @@
     <x v="60"/>
     <n v="8291"/>
     <n v="92"/>
-    <n v="-1.1000000000000001E-3"/>
+    <n v="-0.0011"/>
     <x v="1"/>
     <x v="1"/>
     <x v="69"/>
@@ -6876,7 +6107,7 @@
     <x v="61"/>
     <n v="13832"/>
     <n v="819"/>
-    <n v="-4.7300000000000002E-2"/>
+    <n v="-0.0473"/>
     <x v="0"/>
     <x v="1"/>
     <x v="70"/>
@@ -6885,7 +6116,7 @@
     <x v="62"/>
     <n v="8120"/>
     <n v="144"/>
-    <n v="-1.24E-2"/>
+    <n v="-0.0124"/>
     <x v="1"/>
     <x v="1"/>
     <x v="71"/>
@@ -6894,7 +6125,7 @@
     <x v="45"/>
     <n v="13411"/>
     <n v="65"/>
-    <n v="1.2200000000000001E-2"/>
+    <n v="0.0122"/>
     <x v="0"/>
     <x v="1"/>
     <x v="72"/>
@@ -6903,7 +6134,7 @@
     <x v="9"/>
     <n v="7291"/>
     <n v="62"/>
-    <n v="-1.29E-2"/>
+    <n v="-0.0129"/>
     <x v="1"/>
     <x v="1"/>
     <x v="73"/>
@@ -6921,7 +6152,7 @@
     <x v="11"/>
     <n v="7150"/>
     <n v="186"/>
-    <n v="-2.2100000000000002E-2"/>
+    <n v="-0.0221"/>
     <x v="1"/>
     <x v="1"/>
     <x v="75"/>
@@ -6930,7 +6161,7 @@
     <x v="14"/>
     <n v="12718"/>
     <n v="82"/>
-    <n v="1.9099999999999999E-2"/>
+    <n v="0.0191"/>
     <x v="0"/>
     <x v="1"/>
     <x v="76"/>
@@ -6939,7 +6170,7 @@
     <x v="47"/>
     <n v="6992"/>
     <n v="97"/>
-    <n v="-3.2399999999999998E-2"/>
+    <n v="-0.0324"/>
     <x v="1"/>
     <x v="1"/>
     <x v="77"/>
@@ -6948,7 +6179,7 @@
     <x v="10"/>
     <n v="10629"/>
     <n v="16"/>
-    <n v="4.7000000000000002E-3"/>
+    <n v="0.0047"/>
     <x v="0"/>
     <x v="1"/>
     <x v="78"/>
@@ -6957,7 +6188,7 @@
     <x v="63"/>
     <n v="6872"/>
     <n v="20"/>
-    <n v="-1.3299999999999999E-2"/>
+    <n v="-0.0133"/>
     <x v="1"/>
     <x v="1"/>
     <x v="79"/>
@@ -6966,7 +6197,7 @@
     <x v="13"/>
     <n v="10481"/>
     <n v="152"/>
-    <n v="-5.2299999999999999E-2"/>
+    <n v="-0.0523"/>
     <x v="0"/>
     <x v="1"/>
     <x v="80"/>
@@ -6975,7 +6206,7 @@
     <x v="1"/>
     <n v="5879"/>
     <n v="24"/>
-    <n v="-1.21E-2"/>
+    <n v="-0.0121"/>
     <x v="1"/>
     <x v="1"/>
     <x v="81"/>
@@ -6984,7 +6215,7 @@
     <x v="55"/>
     <n v="10123"/>
     <n v="263"/>
-    <n v="3.8999999999999998E-3"/>
+    <n v="0.0039"/>
     <x v="0"/>
     <x v="1"/>
     <x v="82"/>
@@ -6993,7 +6224,7 @@
     <x v="64"/>
     <n v="5649"/>
     <n v="94"/>
-    <n v="3.3999999999999998E-3"/>
+    <n v="0.0034"/>
     <x v="1"/>
     <x v="1"/>
     <x v="83"/>
@@ -7002,7 +6233,7 @@
     <x v="34"/>
     <n v="9182"/>
     <n v="48"/>
-    <n v="-2.41E-2"/>
+    <n v="-0.0241"/>
     <x v="0"/>
     <x v="1"/>
     <x v="84"/>
@@ -7011,7 +6242,7 @@
     <x v="23"/>
     <n v="5388"/>
     <n v="21"/>
-    <n v="-1.9599999999999999E-2"/>
+    <n v="-0.0196"/>
     <x v="1"/>
     <x v="1"/>
     <x v="85"/>
@@ -7020,7 +6251,7 @@
     <x v="44"/>
     <n v="7312"/>
     <n v="37"/>
-    <n v="-5.0000000000000001E-3"/>
+    <n v="-0.005"/>
     <x v="0"/>
     <x v="1"/>
     <x v="86"/>
@@ -7029,7 +6260,7 @@
     <x v="65"/>
     <n v="5347"/>
     <n v="58"/>
-    <n v="-1.11E-2"/>
+    <n v="-0.0111"/>
     <x v="1"/>
     <x v="1"/>
     <x v="87"/>
@@ -7038,7 +6269,7 @@
     <x v="8"/>
     <n v="7123"/>
     <n v="33"/>
-    <n v="-7.0000000000000001E-3"/>
+    <n v="-0.007"/>
     <x v="0"/>
     <x v="1"/>
     <x v="88"/>
@@ -7047,7 +6278,7 @@
     <x v="41"/>
     <n v="4743"/>
     <n v="221"/>
-    <n v="-9.2999999999999992E-3"/>
+    <n v="-0.009299999999999999"/>
     <x v="1"/>
     <x v="1"/>
     <x v="89"/>
@@ -7056,7 +6287,7 @@
     <x v="21"/>
     <n v="6710"/>
     <n v="623"/>
-    <n v="-1.6299999999999999E-2"/>
+    <n v="-0.0163"/>
     <x v="0"/>
     <x v="1"/>
     <x v="90"/>
@@ -7065,7 +6296,7 @@
     <x v="58"/>
     <n v="4322"/>
     <n v="2383"/>
-    <n v="-2.8E-3"/>
+    <n v="-0.0028"/>
     <x v="1"/>
     <x v="1"/>
     <x v="91"/>
@@ -7074,7 +6305,7 @@
     <x v="43"/>
     <n v="5460"/>
     <n v="440"/>
-    <n v="-2.41E-2"/>
+    <n v="-0.0241"/>
     <x v="0"/>
     <x v="1"/>
     <x v="92"/>
@@ -7083,7 +6314,7 @@
     <x v="42"/>
     <n v="4264"/>
     <n v="256"/>
-    <n v="2.5000000000000001E-3"/>
+    <n v="0.0025"/>
     <x v="1"/>
     <x v="1"/>
     <x v="93"/>
@@ -7092,7 +6323,7 @@
     <x v="66"/>
     <n v="4951"/>
     <n v="311"/>
-    <n v="3.3099999999999997E-2"/>
+    <n v="0.0331"/>
     <x v="0"/>
     <x v="1"/>
     <x v="94"/>
@@ -7101,7 +6332,7 @@
     <x v="25"/>
     <n v="3555"/>
     <n v="79"/>
-    <n v="-2.47E-2"/>
+    <n v="-0.0247"/>
     <x v="1"/>
     <x v="1"/>
     <x v="95"/>
@@ -7110,7 +6341,7 @@
     <x v="20"/>
     <n v="4722"/>
     <n v="1623"/>
-    <n v="2.0500000000000001E-2"/>
+    <n v="0.0205"/>
     <x v="0"/>
     <x v="1"/>
     <x v="96"/>
@@ -7119,7 +6350,7 @@
     <x v="67"/>
     <n v="3422"/>
     <n v="119"/>
-    <n v="5.4000000000000003E-3"/>
+    <n v="0.0054"/>
     <x v="1"/>
     <x v="1"/>
     <x v="97"/>
@@ -7128,7 +6359,7 @@
     <x v="68"/>
     <n v="4558"/>
     <n v="963"/>
-    <n v="1.04E-2"/>
+    <n v="0.0104"/>
     <x v="0"/>
     <x v="1"/>
     <x v="98"/>
@@ -7137,7 +6368,7 @@
     <x v="69"/>
     <n v="3178"/>
     <n v="199"/>
-    <n v="2.52E-2"/>
+    <n v="0.0252"/>
     <x v="1"/>
     <x v="1"/>
     <x v="99"/>
@@ -7146,7 +6377,7 @@
     <x v="70"/>
     <n v="4065"/>
     <n v="32"/>
-    <n v="-3.8999999999999998E-3"/>
+    <n v="-0.0039"/>
     <x v="0"/>
     <x v="1"/>
     <x v="100"/>
@@ -7155,7 +6386,7 @@
     <x v="71"/>
     <n v="2686"/>
     <n v="32"/>
-    <n v="4.7999999999999996E-3"/>
+    <n v="0.0048"/>
     <x v="1"/>
     <x v="1"/>
     <x v="101"/>
@@ -7164,7 +6395,7 @@
     <x v="6"/>
     <n v="4007"/>
     <n v="190"/>
-    <n v="1.18E-2"/>
+    <n v="0.0118"/>
     <x v="0"/>
     <x v="1"/>
     <x v="102"/>
@@ -7173,7 +6404,7 @@
     <x v="72"/>
     <n v="2566"/>
     <n v="20"/>
-    <n v="7.7999999999999996E-3"/>
+    <n v="0.0078"/>
     <x v="1"/>
     <x v="1"/>
     <x v="103"/>
@@ -7182,7 +6413,7 @@
     <x v="24"/>
     <n v="3945"/>
     <n v="29"/>
-    <n v="-1.0999999999999999E-2"/>
+    <n v="-0.011"/>
     <x v="0"/>
     <x v="1"/>
     <x v="104"/>
@@ -7191,7 +6422,7 @@
     <x v="73"/>
     <n v="2499"/>
     <n v="146"/>
-    <n v="-3.0000000000000001E-3"/>
+    <n v="-0.003"/>
     <x v="1"/>
     <x v="1"/>
     <x v="105"/>
@@ -7200,7 +6431,7 @@
     <x v="74"/>
     <n v="3925"/>
     <n v="108"/>
-    <n v="1.24E-2"/>
+    <n v="0.0124"/>
     <x v="0"/>
     <x v="1"/>
     <x v="106"/>
@@ -7209,7 +6440,7 @@
     <x v="75"/>
     <n v="2488"/>
     <n v="106"/>
-    <n v="-1.9400000000000001E-2"/>
+    <n v="-0.0194"/>
     <x v="1"/>
     <x v="1"/>
     <x v="107"/>
@@ -7218,7 +6449,7 @@
     <x v="76"/>
     <n v="3802"/>
     <n v="68"/>
-    <n v="-7.3000000000000001E-3"/>
+    <n v="-0.0073"/>
     <x v="0"/>
     <x v="1"/>
     <x v="108"/>
@@ -7227,7 +6458,7 @@
     <x v="77"/>
     <n v="2439"/>
     <n v="16"/>
-    <n v="-1.9800000000000002E-2"/>
+    <n v="-0.0198"/>
     <x v="1"/>
     <x v="1"/>
     <x v="109"/>
@@ -7236,7 +6467,7 @@
     <x v="78"/>
     <n v="3784"/>
     <n v="143"/>
-    <n v="3.9300000000000002E-2"/>
+    <n v="0.0393"/>
     <x v="0"/>
     <x v="1"/>
     <x v="110"/>
@@ -7245,7 +6476,7 @@
     <x v="79"/>
     <n v="2403"/>
     <n v="111"/>
-    <n v="9.7999999999999997E-3"/>
+    <n v="0.0098"/>
     <x v="1"/>
     <x v="1"/>
     <x v="111"/>
@@ -7254,7 +6485,7 @@
     <x v="80"/>
     <n v="3774"/>
     <n v="79"/>
-    <n v="-3.6200000000000003E-2"/>
+    <n v="-0.0362"/>
     <x v="0"/>
     <x v="1"/>
     <x v="112"/>
@@ -7263,7 +6494,7 @@
     <x v="81"/>
     <n v="2338"/>
     <n v="71"/>
-    <n v="-1.37E-2"/>
+    <n v="-0.0137"/>
     <x v="1"/>
     <x v="1"/>
     <x v="113"/>
@@ -7272,7 +6503,7 @@
     <x v="53"/>
     <n v="3535"/>
     <n v="35"/>
-    <n v="-9.9000000000000008E-3"/>
+    <n v="-0.009900000000000001"/>
     <x v="0"/>
     <x v="1"/>
     <x v="114"/>
@@ -7281,7 +6512,7 @@
     <x v="35"/>
     <n v="2319"/>
     <n v="35"/>
-    <n v="-3.0999999999999999E-3"/>
+    <n v="-0.0031"/>
     <x v="1"/>
     <x v="1"/>
     <x v="115"/>
@@ -7290,7 +6521,7 @@
     <x v="82"/>
     <n v="3491"/>
     <n v="292"/>
-    <n v="-1.3899999999999999E-2"/>
+    <n v="-0.0139"/>
     <x v="0"/>
     <x v="1"/>
     <x v="116"/>
@@ -7299,7 +6530,7 @@
     <x v="83"/>
     <n v="2291"/>
     <n v="966"/>
-    <n v="8.6999999999999994E-3"/>
+    <n v="0.008699999999999999"/>
     <x v="1"/>
     <x v="1"/>
     <x v="117"/>
@@ -7308,7 +6539,7 @@
     <x v="84"/>
     <n v="3242"/>
     <n v="50"/>
-    <n v="-7.6E-3"/>
+    <n v="-0.0076"/>
     <x v="0"/>
     <x v="1"/>
     <x v="118"/>
@@ -7326,7 +6557,7 @@
     <x v="5"/>
     <n v="20563"/>
     <n v="216"/>
-    <n v="-5.3E-3"/>
+    <n v="-0.0053"/>
     <x v="0"/>
     <x v="2"/>
     <x v="120"/>
@@ -7335,7 +6566,7 @@
     <x v="17"/>
     <n v="21568"/>
     <n v="762"/>
-    <n v="-3.5999999999999999E-3"/>
+    <n v="-0.0036"/>
     <x v="1"/>
     <x v="2"/>
     <x v="121"/>
@@ -7344,7 +6575,7 @@
     <x v="10"/>
     <n v="16394"/>
     <n v="26"/>
-    <n v="-4.7000000000000002E-3"/>
+    <n v="-0.0047"/>
     <x v="0"/>
     <x v="2"/>
     <x v="122"/>
@@ -7353,7 +6584,7 @@
     <x v="63"/>
     <n v="15219"/>
     <n v="46"/>
-    <n v="-1.5E-3"/>
+    <n v="-0.0015"/>
     <x v="1"/>
     <x v="2"/>
     <x v="123"/>
@@ -7362,7 +6593,7 @@
     <x v="45"/>
     <n v="15939"/>
     <n v="78"/>
-    <n v="-2.3999999999999998E-3"/>
+    <n v="-0.0024"/>
     <x v="0"/>
     <x v="2"/>
     <x v="124"/>
@@ -7371,7 +6602,7 @@
     <x v="61"/>
     <n v="14185"/>
     <n v="880"/>
-    <n v="-1.5800000000000002E-2"/>
+    <n v="-0.0158"/>
     <x v="1"/>
     <x v="2"/>
     <x v="125"/>
@@ -7380,7 +6611,7 @@
     <x v="3"/>
     <n v="14508"/>
     <n v="187"/>
-    <n v="7.7999999999999996E-3"/>
+    <n v="0.0078"/>
     <x v="0"/>
     <x v="2"/>
     <x v="126"/>
@@ -7389,7 +6620,7 @@
     <x v="0"/>
     <n v="11673"/>
     <n v="196"/>
-    <n v="-8.3000000000000001E-3"/>
+    <n v="-0.0083"/>
     <x v="1"/>
     <x v="2"/>
     <x v="127"/>
@@ -7398,7 +6629,7 @@
     <x v="8"/>
     <n v="13771"/>
     <n v="65"/>
-    <n v="-2.3999999999999998E-3"/>
+    <n v="-0.0024"/>
     <x v="0"/>
     <x v="2"/>
     <x v="128"/>
@@ -7407,7 +6638,7 @@
     <x v="47"/>
     <n v="9231"/>
     <n v="130"/>
-    <n v="-1.29E-2"/>
+    <n v="-0.0129"/>
     <x v="1"/>
     <x v="2"/>
     <x v="129"/>
@@ -7416,7 +6647,7 @@
     <x v="4"/>
     <n v="13103"/>
     <n v="22"/>
-    <n v="-5.0000000000000001E-3"/>
+    <n v="-0.005"/>
     <x v="0"/>
     <x v="2"/>
     <x v="130"/>
@@ -7425,7 +6656,7 @@
     <x v="11"/>
     <n v="8929"/>
     <n v="237"/>
-    <n v="-4.0000000000000001E-3"/>
+    <n v="-0.004"/>
     <x v="1"/>
     <x v="2"/>
     <x v="131"/>
@@ -7434,7 +6665,7 @@
     <x v="14"/>
     <n v="11637"/>
     <n v="74"/>
-    <n v="-6.3E-3"/>
+    <n v="-0.0063"/>
     <x v="0"/>
     <x v="2"/>
     <x v="132"/>
@@ -7443,7 +6674,7 @@
     <x v="75"/>
     <n v="7800"/>
     <n v="344"/>
-    <n v="-6.6E-3"/>
+    <n v="-0.0066"/>
     <x v="1"/>
     <x v="2"/>
     <x v="133"/>
@@ -7452,7 +6683,7 @@
     <x v="2"/>
     <n v="10282"/>
     <n v="54"/>
-    <n v="1.32E-2"/>
+    <n v="0.0132"/>
     <x v="0"/>
     <x v="2"/>
     <x v="134"/>
@@ -7470,7 +6701,7 @@
     <x v="86"/>
     <n v="9776"/>
     <n v="119"/>
-    <n v="-2.3999999999999998E-3"/>
+    <n v="-0.0024"/>
     <x v="0"/>
     <x v="2"/>
     <x v="136"/>
@@ -7479,7 +6710,7 @@
     <x v="15"/>
     <n v="6609"/>
     <n v="129"/>
-    <n v="1.9E-3"/>
+    <n v="0.0019"/>
     <x v="1"/>
     <x v="2"/>
     <x v="137"/>
@@ -7488,7 +6719,7 @@
     <x v="42"/>
     <n v="9574"/>
     <n v="576"/>
-    <n v="-3.8999999999999998E-3"/>
+    <n v="-0.0039"/>
     <x v="0"/>
     <x v="2"/>
     <x v="138"/>
@@ -7497,7 +6728,7 @@
     <x v="87"/>
     <n v="5166"/>
     <n v="410"/>
-    <n v="-1.6299999999999999E-2"/>
+    <n v="-0.0163"/>
     <x v="1"/>
     <x v="2"/>
     <x v="139"/>
@@ -7506,7 +6737,7 @@
     <x v="24"/>
     <n v="7207"/>
     <n v="53"/>
-    <n v="7.4000000000000003E-3"/>
+    <n v="0.0074"/>
     <x v="0"/>
     <x v="2"/>
     <x v="140"/>
@@ -7515,7 +6746,7 @@
     <x v="88"/>
     <n v="4938"/>
     <n v="83"/>
-    <n v="-1.18E-2"/>
+    <n v="-0.0118"/>
     <x v="1"/>
     <x v="2"/>
     <x v="141"/>
@@ -7524,7 +6755,7 @@
     <x v="55"/>
     <n v="6831"/>
     <n v="175"/>
-    <n v="-2.5999999999999999E-3"/>
+    <n v="-0.0026"/>
     <x v="0"/>
     <x v="2"/>
     <x v="142"/>
@@ -7533,7 +6764,7 @@
     <x v="53"/>
     <n v="4799"/>
     <n v="48"/>
-    <n v="-8.0000000000000002E-3"/>
+    <n v="-0.008"/>
     <x v="1"/>
     <x v="2"/>
     <x v="143"/>
@@ -7542,7 +6773,7 @@
     <x v="89"/>
     <n v="5971"/>
     <n v="197"/>
-    <n v="-8.3000000000000001E-3"/>
+    <n v="-0.0083"/>
     <x v="0"/>
     <x v="2"/>
     <x v="144"/>
@@ -7551,7 +6782,7 @@
     <x v="90"/>
     <n v="4572"/>
     <n v="161"/>
-    <n v="3.7999999999999999E-2"/>
+    <n v="0.038"/>
     <x v="1"/>
     <x v="2"/>
     <x v="145"/>
@@ -7560,7 +6791,7 @@
     <x v="38"/>
     <n v="5967"/>
     <n v="16"/>
-    <n v="4.0000000000000001E-3"/>
+    <n v="0.004"/>
     <x v="0"/>
     <x v="2"/>
     <x v="146"/>
@@ -7569,7 +6800,7 @@
     <x v="91"/>
     <n v="3747"/>
     <n v="417"/>
-    <n v="-1.47E-2"/>
+    <n v="-0.0147"/>
     <x v="1"/>
     <x v="2"/>
     <x v="147"/>
@@ -7578,7 +6809,7 @@
     <x v="69"/>
     <n v="5894"/>
     <n v="360"/>
-    <n v="-1.52E-2"/>
+    <n v="-0.0152"/>
     <x v="0"/>
     <x v="2"/>
     <x v="148"/>
@@ -7587,7 +6818,7 @@
     <x v="13"/>
     <n v="3559"/>
     <n v="54"/>
-    <n v="7.7000000000000002E-3"/>
+    <n v="0.0077"/>
     <x v="1"/>
     <x v="2"/>
     <x v="149"/>
@@ -7596,7 +6827,7 @@
     <x v="1"/>
     <n v="5665"/>
     <n v="23"/>
-    <n v="-8.0999999999999996E-3"/>
+    <n v="-0.0081"/>
     <x v="0"/>
     <x v="2"/>
     <x v="150"/>
@@ -7605,7 +6836,7 @@
     <x v="26"/>
     <n v="3147"/>
     <n v="44"/>
-    <n v="2.9899999999999999E-2"/>
+    <n v="0.0299"/>
     <x v="1"/>
     <x v="2"/>
     <x v="151"/>
@@ -7614,7 +6845,7 @@
     <x v="92"/>
     <n v="5586"/>
     <n v="47"/>
-    <n v="-8.3000000000000001E-3"/>
+    <n v="-0.0083"/>
     <x v="0"/>
     <x v="2"/>
     <x v="152"/>
@@ -7623,7 +6854,7 @@
     <x v="34"/>
     <n v="3041"/>
     <n v="17"/>
-    <n v="-2.1700000000000001E-2"/>
+    <n v="-0.0217"/>
     <x v="1"/>
     <x v="2"/>
     <x v="153"/>
@@ -7632,7 +6863,7 @@
     <x v="30"/>
     <n v="4879"/>
     <n v="8"/>
-    <n v="-1.2E-2"/>
+    <n v="-0.012"/>
     <x v="0"/>
     <x v="2"/>
     <x v="154"/>
@@ -7641,7 +6872,7 @@
     <x v="93"/>
     <n v="2919"/>
     <n v="28"/>
-    <n v="4.8999999999999998E-3"/>
+    <n v="0.0049"/>
     <x v="1"/>
     <x v="2"/>
     <x v="155"/>
@@ -7650,7 +6881,7 @@
     <x v="94"/>
     <n v="4772"/>
     <n v="130"/>
-    <n v="-9.4999999999999998E-3"/>
+    <n v="-0.0095"/>
     <x v="0"/>
     <x v="2"/>
     <x v="156"/>
@@ -7668,7 +6899,7 @@
     <x v="65"/>
     <n v="4532"/>
     <n v="52"/>
-    <n v="-1.9400000000000001E-2"/>
+    <n v="-0.0194"/>
     <x v="0"/>
     <x v="2"/>
     <x v="158"/>
@@ -7677,7 +6908,7 @@
     <x v="95"/>
     <n v="2764"/>
     <n v="31"/>
-    <n v="4.5999999999999999E-3"/>
+    <n v="0.0046"/>
     <x v="1"/>
     <x v="2"/>
     <x v="159"/>
@@ -7686,7 +6917,7 @@
     <x v="96"/>
     <n v="4175"/>
     <n v="35"/>
-    <n v="4.1300000000000003E-2"/>
+    <n v="0.0413"/>
     <x v="0"/>
     <x v="2"/>
     <x v="160"/>
@@ -7695,7 +6926,7 @@
     <x v="97"/>
     <n v="2558"/>
     <n v="225"/>
-    <n v="-7.1000000000000004E-3"/>
+    <n v="-0.0071"/>
     <x v="1"/>
     <x v="2"/>
     <x v="161"/>
@@ -7704,7 +6935,7 @@
     <x v="98"/>
     <n v="4133"/>
     <n v="75"/>
-    <n v="-5.4999999999999997E-3"/>
+    <n v="-0.0055"/>
     <x v="0"/>
     <x v="2"/>
     <x v="162"/>
@@ -7713,7 +6944,7 @@
     <x v="99"/>
     <n v="2447"/>
     <n v="695"/>
-    <n v="-3.3000000000000002E-2"/>
+    <n v="-0.033"/>
     <x v="1"/>
     <x v="2"/>
     <x v="163"/>
@@ -7722,7 +6953,7 @@
     <x v="6"/>
     <n v="4068"/>
     <n v="190"/>
-    <n v="2.3E-3"/>
+    <n v="0.0023"/>
     <x v="0"/>
     <x v="2"/>
     <x v="164"/>
@@ -7731,7 +6962,7 @@
     <x v="100"/>
     <n v="2303"/>
     <n v="28"/>
-    <n v="-1.0999999999999999E-2"/>
+    <n v="-0.011"/>
     <x v="1"/>
     <x v="2"/>
     <x v="165"/>
@@ -7740,7 +6971,7 @@
     <x v="101"/>
     <n v="3921"/>
     <n v="17"/>
-    <n v="-6.4999999999999997E-3"/>
+    <n v="-0.0065"/>
     <x v="0"/>
     <x v="2"/>
     <x v="166"/>
@@ -7758,7 +6989,7 @@
     <x v="52"/>
     <n v="3821"/>
     <n v="125"/>
-    <n v="1.6000000000000001E-3"/>
+    <n v="0.0016"/>
     <x v="0"/>
     <x v="2"/>
     <x v="168"/>
@@ -7767,7 +6998,7 @@
     <x v="102"/>
     <n v="2129"/>
     <n v="57"/>
-    <n v="2.9399999999999999E-2"/>
+    <n v="0.0294"/>
     <x v="1"/>
     <x v="2"/>
     <x v="169"/>
@@ -7776,7 +7007,7 @@
     <x v="82"/>
     <n v="3819"/>
     <n v="326"/>
-    <n v="-1.41E-2"/>
+    <n v="-0.0141"/>
     <x v="0"/>
     <x v="2"/>
     <x v="170"/>
@@ -7785,7 +7016,7 @@
     <x v="57"/>
     <n v="2079"/>
     <n v="308"/>
-    <n v="-7.4000000000000003E-3"/>
+    <n v="-0.0074"/>
     <x v="1"/>
     <x v="2"/>
     <x v="171"/>
@@ -7794,7 +7025,7 @@
     <x v="16"/>
     <n v="3795"/>
     <n v="35"/>
-    <n v="2.3E-2"/>
+    <n v="0.023"/>
     <x v="0"/>
     <x v="2"/>
     <x v="172"/>
@@ -7803,7 +7034,7 @@
     <x v="29"/>
     <n v="1862"/>
     <n v="14"/>
-    <n v="-3.8E-3"/>
+    <n v="-0.0038"/>
     <x v="1"/>
     <x v="2"/>
     <x v="173"/>
@@ -7812,7 +7043,7 @@
     <x v="64"/>
     <n v="3713"/>
     <n v="64"/>
-    <n v="-1.1900000000000001E-2"/>
+    <n v="-0.0119"/>
     <x v="0"/>
     <x v="2"/>
     <x v="174"/>
@@ -7830,7 +7061,7 @@
     <x v="104"/>
     <n v="3671"/>
     <n v="37"/>
-    <n v="2.0299999999999999E-2"/>
+    <n v="0.0203"/>
     <x v="0"/>
     <x v="2"/>
     <x v="176"/>
@@ -7839,7 +7070,7 @@
     <x v="105"/>
     <n v="1739"/>
     <n v="42"/>
-    <n v="-1.7000000000000001E-2"/>
+    <n v="-0.017"/>
     <x v="1"/>
     <x v="2"/>
     <x v="177"/>
@@ -7848,7 +7079,7 @@
     <x v="40"/>
     <n v="3576"/>
     <n v="21"/>
-    <n v="-1.47E-2"/>
+    <n v="-0.0147"/>
     <x v="0"/>
     <x v="2"/>
     <x v="178"/>
@@ -7857,7 +7088,7 @@
     <x v="106"/>
     <n v="1698"/>
     <n v="1146"/>
-    <n v="3.39E-2"/>
+    <n v="0.0339"/>
     <x v="1"/>
     <x v="2"/>
     <x v="179"/>
@@ -7866,7 +7097,7 @@
     <x v="4"/>
     <n v="31197"/>
     <n v="53"/>
-    <n v="1.3599999999999999E-2"/>
+    <n v="0.0136"/>
     <x v="0"/>
     <x v="3"/>
     <x v="180"/>
@@ -7875,7 +7106,7 @@
     <x v="0"/>
     <n v="57108"/>
     <n v="964"/>
-    <n v="1.6999999999999999E-3"/>
+    <n v="0.0017"/>
     <x v="1"/>
     <x v="3"/>
     <x v="181"/>
@@ -7884,7 +7115,7 @@
     <x v="6"/>
     <n v="20999"/>
     <n v="966"/>
-    <n v="-1.8200000000000001E-2"/>
+    <n v="-0.0182"/>
     <x v="0"/>
     <x v="3"/>
     <x v="182"/>
@@ -7893,7 +7124,7 @@
     <x v="63"/>
     <n v="17007"/>
     <n v="52"/>
-    <n v="1.23E-2"/>
+    <n v="0.0123"/>
     <x v="1"/>
     <x v="3"/>
     <x v="183"/>
@@ -7902,7 +7133,7 @@
     <x v="96"/>
     <n v="16096"/>
     <n v="126"/>
-    <n v="7.6E-3"/>
+    <n v="0.0076"/>
     <x v="0"/>
     <x v="3"/>
     <x v="184"/>
@@ -7911,7 +7142,7 @@
     <x v="107"/>
     <n v="16048"/>
     <n v="19"/>
-    <n v="-1.1999999999999999E-3"/>
+    <n v="-0.0012"/>
     <x v="1"/>
     <x v="3"/>
     <x v="185"/>
@@ -7920,7 +7151,7 @@
     <x v="20"/>
     <n v="11955"/>
     <n v="3924"/>
-    <n v="-1.2999999999999999E-2"/>
+    <n v="-0.013"/>
     <x v="0"/>
     <x v="3"/>
     <x v="186"/>
@@ -7929,7 +7160,7 @@
     <x v="17"/>
     <n v="11375"/>
     <n v="406"/>
-    <n v="5.4000000000000003E-3"/>
+    <n v="0.0054"/>
     <x v="1"/>
     <x v="3"/>
     <x v="187"/>
@@ -7938,7 +7169,7 @@
     <x v="22"/>
     <n v="10107"/>
     <n v="661"/>
-    <n v="1.18E-2"/>
+    <n v="0.0118"/>
     <x v="0"/>
     <x v="3"/>
     <x v="188"/>
@@ -7947,7 +7178,7 @@
     <x v="75"/>
     <n v="10592"/>
     <n v="476"/>
-    <n v="4.4999999999999997E-3"/>
+    <n v="0.0045"/>
     <x v="1"/>
     <x v="3"/>
     <x v="189"/>
@@ -7956,7 +7187,7 @@
     <x v="2"/>
     <n v="9808"/>
     <n v="51"/>
-    <n v="5.3E-3"/>
+    <n v="0.0053"/>
     <x v="0"/>
     <x v="3"/>
     <x v="190"/>
@@ -7965,7 +7196,7 @@
     <x v="23"/>
     <n v="10023"/>
     <n v="41"/>
-    <n v="-6.0000000000000001E-3"/>
+    <n v="-0.006"/>
     <x v="1"/>
     <x v="3"/>
     <x v="191"/>
@@ -7974,7 +7205,7 @@
     <x v="45"/>
     <n v="9286"/>
     <n v="46"/>
-    <n v="3.4599999999999999E-2"/>
+    <n v="0.0346"/>
     <x v="0"/>
     <x v="3"/>
     <x v="192"/>
@@ -7983,7 +7214,7 @@
     <x v="1"/>
     <n v="9185"/>
     <n v="38"/>
-    <n v="2.0999999999999999E-3"/>
+    <n v="0.0021"/>
     <x v="1"/>
     <x v="3"/>
     <x v="193"/>
@@ -7992,7 +7223,7 @@
     <x v="98"/>
     <n v="9006"/>
     <n v="165"/>
-    <n v="1.8E-3"/>
+    <n v="0.0018"/>
     <x v="0"/>
     <x v="3"/>
     <x v="194"/>
@@ -8001,7 +7232,7 @@
     <x v="108"/>
     <n v="7015"/>
     <n v="144"/>
-    <n v="1.6999999999999999E-3"/>
+    <n v="0.0017"/>
     <x v="1"/>
     <x v="3"/>
     <x v="195"/>
@@ -8010,7 +7241,7 @@
     <x v="48"/>
     <n v="8973"/>
     <n v="1480"/>
-    <n v="-1.6000000000000001E-3"/>
+    <n v="-0.0016"/>
     <x v="0"/>
     <x v="3"/>
     <x v="196"/>
@@ -8019,7 +7250,7 @@
     <x v="53"/>
     <n v="6593"/>
     <n v="67"/>
-    <n v="4.1000000000000003E-3"/>
+    <n v="0.0041"/>
     <x v="1"/>
     <x v="3"/>
     <x v="197"/>
@@ -8028,7 +7259,7 @@
     <x v="8"/>
     <n v="8766"/>
     <n v="42"/>
-    <n v="-4.7000000000000002E-3"/>
+    <n v="-0.0047"/>
     <x v="0"/>
     <x v="3"/>
     <x v="198"/>
@@ -8037,7 +7268,7 @@
     <x v="109"/>
     <n v="6355"/>
     <n v="139"/>
-    <n v="2.3E-2"/>
+    <n v="0.023"/>
     <x v="1"/>
     <x v="3"/>
     <x v="199"/>
@@ -8046,7 +7277,7 @@
     <x v="62"/>
     <n v="7495"/>
     <n v="132"/>
-    <n v="1.5800000000000002E-2"/>
+    <n v="0.0158"/>
     <x v="0"/>
     <x v="3"/>
     <x v="200"/>
@@ -8055,7 +7286,7 @@
     <x v="91"/>
     <n v="5925"/>
     <n v="684"/>
-    <n v="1.47E-2"/>
+    <n v="0.0147"/>
     <x v="1"/>
     <x v="3"/>
     <x v="201"/>
@@ -8064,7 +7295,7 @@
     <x v="10"/>
     <n v="6176"/>
     <n v="10"/>
-    <n v="-3.2000000000000002E-3"/>
+    <n v="-0.0032"/>
     <x v="0"/>
     <x v="3"/>
     <x v="202"/>
@@ -8073,7 +7304,7 @@
     <x v="39"/>
     <n v="5609"/>
     <n v="56"/>
-    <n v="4.4400000000000002E-2"/>
+    <n v="0.0444"/>
     <x v="1"/>
     <x v="3"/>
     <x v="203"/>
@@ -8082,7 +7313,7 @@
     <x v="110"/>
     <n v="5873"/>
     <n v="62"/>
-    <n v="1.1599999999999999E-2"/>
+    <n v="0.0116"/>
     <x v="0"/>
     <x v="3"/>
     <x v="204"/>
@@ -8091,7 +7322,7 @@
     <x v="92"/>
     <n v="5339"/>
     <n v="44"/>
-    <n v="4.2000000000000003E-2"/>
+    <n v="0.042"/>
     <x v="1"/>
     <x v="3"/>
     <x v="205"/>
@@ -8100,7 +7331,7 @@
     <x v="12"/>
     <n v="5797"/>
     <n v="13"/>
-    <n v="8.9999999999999993E-3"/>
+    <n v="0.008999999999999999"/>
     <x v="0"/>
     <x v="3"/>
     <x v="206"/>
@@ -8109,7 +7340,7 @@
     <x v="61"/>
     <n v="5038"/>
     <n v="328"/>
-    <n v="6.6E-3"/>
+    <n v="0.0066"/>
     <x v="1"/>
     <x v="3"/>
     <x v="207"/>
@@ -8118,7 +7349,7 @@
     <x v="55"/>
     <n v="5561"/>
     <n v="142"/>
-    <n v="-3.8E-3"/>
+    <n v="-0.0038"/>
     <x v="0"/>
     <x v="3"/>
     <x v="208"/>
@@ -8127,7 +7358,7 @@
     <x v="88"/>
     <n v="4988"/>
     <n v="86"/>
-    <n v="1.6999999999999999E-3"/>
+    <n v="0.0017"/>
     <x v="1"/>
     <x v="3"/>
     <x v="209"/>
@@ -8136,7 +7367,7 @@
     <x v="102"/>
     <n v="5300"/>
     <n v="137"/>
-    <n v="2.8199999999999999E-2"/>
+    <n v="0.0282"/>
     <x v="0"/>
     <x v="3"/>
     <x v="210"/>
@@ -8145,7 +7376,7 @@
     <x v="15"/>
     <n v="4514"/>
     <n v="88"/>
-    <n v="3.8999999999999998E-3"/>
+    <n v="0.0039"/>
     <x v="1"/>
     <x v="3"/>
     <x v="211"/>
@@ -8154,7 +7385,7 @@
     <x v="78"/>
     <n v="5128"/>
     <n v="187"/>
-    <n v="5.4000000000000003E-3"/>
+    <n v="0.0054"/>
     <x v="0"/>
     <x v="3"/>
     <x v="212"/>
@@ -8163,7 +7394,7 @@
     <x v="71"/>
     <n v="4421"/>
     <n v="52"/>
-    <n v="-5.8999999999999999E-3"/>
+    <n v="-0.0059"/>
     <x v="1"/>
     <x v="3"/>
     <x v="213"/>
@@ -8172,7 +7403,7 @@
     <x v="19"/>
     <n v="4889"/>
     <n v="66"/>
-    <n v="-2.7000000000000001E-3"/>
+    <n v="-0.0027"/>
     <x v="0"/>
     <x v="3"/>
     <x v="214"/>
@@ -8181,7 +7412,7 @@
     <x v="111"/>
     <n v="3124"/>
     <n v="97"/>
-    <n v="6.4000000000000003E-3"/>
+    <n v="0.0064"/>
     <x v="1"/>
     <x v="3"/>
     <x v="215"/>
@@ -8190,7 +7421,7 @@
     <x v="52"/>
     <n v="4642"/>
     <n v="152"/>
-    <n v="8.2000000000000007E-3"/>
+    <n v="0.008200000000000001"/>
     <x v="0"/>
     <x v="3"/>
     <x v="216"/>
@@ -8199,7 +7430,7 @@
     <x v="11"/>
     <n v="3053"/>
     <n v="82"/>
-    <n v="2.52E-2"/>
+    <n v="0.0252"/>
     <x v="1"/>
     <x v="3"/>
     <x v="217"/>
@@ -8208,7 +7439,7 @@
     <x v="25"/>
     <n v="4464"/>
     <n v="94"/>
-    <n v="2.23E-2"/>
+    <n v="0.0223"/>
     <x v="0"/>
     <x v="3"/>
     <x v="218"/>
@@ -8217,7 +7448,7 @@
     <x v="112"/>
     <n v="2983"/>
     <n v="4"/>
-    <n v="-2.8999999999999998E-3"/>
+    <n v="-0.0029"/>
     <x v="1"/>
     <x v="3"/>
     <x v="219"/>
@@ -8226,7 +7457,7 @@
     <x v="7"/>
     <n v="4041"/>
     <n v="21"/>
-    <n v="5.1999999999999998E-3"/>
+    <n v="0.0052"/>
     <x v="0"/>
     <x v="3"/>
     <x v="220"/>
@@ -8235,7 +7466,7 @@
     <x v="54"/>
     <n v="2928"/>
     <n v="43"/>
-    <n v="5.7999999999999996E-3"/>
+    <n v="0.0058"/>
     <x v="1"/>
     <x v="3"/>
     <x v="221"/>
@@ -8244,7 +7475,7 @@
     <x v="5"/>
     <n v="3806"/>
     <n v="40"/>
-    <n v="3.2000000000000002E-3"/>
+    <n v="0.0032"/>
     <x v="0"/>
     <x v="3"/>
     <x v="222"/>
@@ -8253,7 +7484,7 @@
     <x v="113"/>
     <n v="2779"/>
     <n v="63"/>
-    <n v="-6.7000000000000002E-3"/>
+    <n v="-0.0067"/>
     <x v="1"/>
     <x v="3"/>
     <x v="223"/>
@@ -8262,7 +7493,7 @@
     <x v="114"/>
     <n v="3760"/>
     <n v="268"/>
-    <n v="-1.8E-3"/>
+    <n v="-0.0018"/>
     <x v="0"/>
     <x v="3"/>
     <x v="224"/>
@@ -8271,7 +7502,7 @@
     <x v="76"/>
     <n v="2667"/>
     <n v="49"/>
-    <n v="3.0099999999999998E-2"/>
+    <n v="0.0301"/>
     <x v="1"/>
     <x v="3"/>
     <x v="225"/>
@@ -8280,7 +7511,7 @@
     <x v="115"/>
     <n v="3603"/>
     <n v="25"/>
-    <n v="-3.5000000000000001E-3"/>
+    <n v="-0.0035"/>
     <x v="0"/>
     <x v="3"/>
     <x v="226"/>
@@ -8289,7 +7520,7 @@
     <x v="41"/>
     <n v="2604"/>
     <n v="124"/>
-    <n v="-2.3999999999999998E-3"/>
+    <n v="-0.0024"/>
     <x v="1"/>
     <x v="3"/>
     <x v="227"/>
@@ -8298,7 +7529,7 @@
     <x v="86"/>
     <n v="3322"/>
     <n v="41"/>
-    <n v="-1.1999999999999999E-3"/>
+    <n v="-0.0012"/>
     <x v="0"/>
     <x v="3"/>
     <x v="228"/>
@@ -8307,7 +7538,7 @@
     <x v="29"/>
     <n v="2569"/>
     <n v="20"/>
-    <n v="1.1599999999999999E-2"/>
+    <n v="0.0116"/>
     <x v="1"/>
     <x v="3"/>
     <x v="229"/>
@@ -8316,7 +7547,7 @@
     <x v="95"/>
     <n v="3304"/>
     <n v="37"/>
-    <n v="1.1000000000000001E-3"/>
+    <n v="0.0011"/>
     <x v="0"/>
     <x v="3"/>
     <x v="230"/>
@@ -8334,7 +7565,7 @@
     <x v="67"/>
     <n v="3203"/>
     <n v="115"/>
-    <n v="2.5100000000000001E-2"/>
+    <n v="0.0251"/>
     <x v="0"/>
     <x v="3"/>
     <x v="232"/>
@@ -8343,7 +7574,7 @@
     <x v="117"/>
     <n v="2436"/>
     <n v="71"/>
-    <n v="-4.4999999999999997E-3"/>
+    <n v="-0.0045"/>
     <x v="1"/>
     <x v="3"/>
     <x v="233"/>
@@ -8352,7 +7583,7 @@
     <x v="118"/>
     <n v="3052"/>
     <n v="297"/>
-    <n v="2E-3"/>
+    <n v="0.002"/>
     <x v="0"/>
     <x v="3"/>
     <x v="234"/>
@@ -8361,7 +7592,7 @@
     <x v="119"/>
     <n v="2367"/>
     <n v="48"/>
-    <n v="2.6499999999999999E-2"/>
+    <n v="0.0265"/>
     <x v="1"/>
     <x v="3"/>
     <x v="235"/>
@@ -8379,7 +7610,7 @@
     <x v="51"/>
     <n v="2148"/>
     <n v="67"/>
-    <n v="6.0000000000000001E-3"/>
+    <n v="0.006"/>
     <x v="1"/>
     <x v="3"/>
     <x v="237"/>
@@ -8388,7 +7619,7 @@
     <x v="65"/>
     <n v="2875"/>
     <n v="34"/>
-    <n v="-9.4999999999999998E-3"/>
+    <n v="-0.0095"/>
     <x v="0"/>
     <x v="3"/>
     <x v="238"/>
@@ -8397,7 +7628,7 @@
     <x v="21"/>
     <n v="2059"/>
     <n v="200"/>
-    <n v="6.4000000000000003E-3"/>
+    <n v="0.0064"/>
     <x v="1"/>
     <x v="3"/>
     <x v="239"/>
@@ -8406,7 +7637,7 @@
     <x v="120"/>
     <n v="89077"/>
     <n v="2988"/>
-    <n v="-3.2000000000000002E-3"/>
+    <n v="-0.0032"/>
     <x v="0"/>
     <x v="4"/>
     <x v="240"/>
@@ -8415,7 +7646,7 @@
     <x v="26"/>
     <n v="18258"/>
     <n v="247"/>
-    <n v="-2.1100000000000001E-2"/>
+    <n v="-0.0211"/>
     <x v="1"/>
     <x v="4"/>
     <x v="241"/>
@@ -8424,7 +7655,7 @@
     <x v="2"/>
     <n v="18201"/>
     <n v="96"/>
-    <n v="1.8599999999999998E-2"/>
+    <n v="0.0186"/>
     <x v="0"/>
     <x v="4"/>
     <x v="242"/>
@@ -8433,7 +7664,7 @@
     <x v="107"/>
     <n v="16463"/>
     <n v="20"/>
-    <n v="2.3999999999999998E-3"/>
+    <n v="0.0024"/>
     <x v="1"/>
     <x v="4"/>
     <x v="243"/>
@@ -8442,7 +7673,7 @@
     <x v="4"/>
     <n v="15007"/>
     <n v="25"/>
-    <n v="-2.3699999999999999E-2"/>
+    <n v="-0.0237"/>
     <x v="0"/>
     <x v="4"/>
     <x v="244"/>
@@ -8451,7 +7682,7 @@
     <x v="6"/>
     <n v="16272"/>
     <n v="755"/>
-    <n v="4.3999999999999997E-2"/>
+    <n v="0.044"/>
     <x v="1"/>
     <x v="4"/>
     <x v="245"/>
@@ -8460,7 +7691,7 @@
     <x v="62"/>
     <n v="13602"/>
     <n v="230"/>
-    <n v="-1.1900000000000001E-2"/>
+    <n v="-0.0119"/>
     <x v="0"/>
     <x v="4"/>
     <x v="246"/>
@@ -8469,7 +7700,7 @@
     <x v="22"/>
     <n v="13352"/>
     <n v="871"/>
-    <n v="1.04E-2"/>
+    <n v="0.0104"/>
     <x v="1"/>
     <x v="4"/>
     <x v="247"/>
@@ -8478,7 +7709,7 @@
     <x v="10"/>
     <n v="13594"/>
     <n v="22"/>
-    <n v="-1.14E-2"/>
+    <n v="-0.0114"/>
     <x v="0"/>
     <x v="4"/>
     <x v="248"/>
@@ -8487,7 +7718,7 @@
     <x v="53"/>
     <n v="10664"/>
     <n v="108"/>
-    <n v="5.1000000000000004E-3"/>
+    <n v="0.0051"/>
     <x v="1"/>
     <x v="4"/>
     <x v="249"/>
@@ -8496,7 +7727,7 @@
     <x v="119"/>
     <n v="11406"/>
     <n v="228"/>
-    <n v="7.9000000000000008E-3"/>
+    <n v="0.007900000000000001"/>
     <x v="0"/>
     <x v="4"/>
     <x v="250"/>
@@ -8514,7 +7745,7 @@
     <x v="78"/>
     <n v="10957"/>
     <n v="396"/>
-    <n v="-3.5999999999999999E-3"/>
+    <n v="-0.0036"/>
     <x v="0"/>
     <x v="4"/>
     <x v="252"/>
@@ -8523,7 +7754,7 @@
     <x v="96"/>
     <n v="10147"/>
     <n v="76"/>
-    <n v="-4.8899999999999999E-2"/>
+    <n v="-0.0489"/>
     <x v="1"/>
     <x v="4"/>
     <x v="253"/>
@@ -8532,7 +7763,7 @@
     <x v="121"/>
     <n v="8541"/>
     <n v="237"/>
-    <n v="9.7000000000000003E-3"/>
+    <n v="0.0097"/>
     <x v="0"/>
     <x v="4"/>
     <x v="254"/>
@@ -8541,7 +7772,7 @@
     <x v="20"/>
     <n v="9712"/>
     <n v="3185"/>
-    <n v="-9.7999999999999997E-3"/>
+    <n v="-0.0098"/>
     <x v="1"/>
     <x v="4"/>
     <x v="255"/>
@@ -8550,7 +7781,7 @@
     <x v="110"/>
     <n v="8405"/>
     <n v="87"/>
-    <n v="-1E-3"/>
+    <n v="-0.001"/>
     <x v="0"/>
     <x v="4"/>
     <x v="256"/>
@@ -8559,7 +7790,7 @@
     <x v="63"/>
     <n v="9681"/>
     <n v="30"/>
-    <n v="2.3E-2"/>
+    <n v="0.023"/>
     <x v="1"/>
     <x v="4"/>
     <x v="257"/>
@@ -8568,7 +7799,7 @@
     <x v="39"/>
     <n v="8363"/>
     <n v="81"/>
-    <n v="2.4199999999999999E-2"/>
+    <n v="0.0242"/>
     <x v="0"/>
     <x v="4"/>
     <x v="258"/>
@@ -8577,7 +7808,7 @@
     <x v="41"/>
     <n v="9412"/>
     <n v="461"/>
-    <n v="2.5000000000000001E-3"/>
+    <n v="0.0025"/>
     <x v="1"/>
     <x v="4"/>
     <x v="259"/>
@@ -8586,7 +7817,7 @@
     <x v="0"/>
     <n v="8044"/>
     <n v="136"/>
-    <n v="5.1000000000000004E-3"/>
+    <n v="0.0051"/>
     <x v="0"/>
     <x v="4"/>
     <x v="260"/>
@@ -8595,7 +7826,7 @@
     <x v="30"/>
     <n v="8931"/>
     <n v="16"/>
-    <n v="-3.3999999999999998E-3"/>
+    <n v="-0.0034"/>
     <x v="1"/>
     <x v="4"/>
     <x v="261"/>
@@ -8604,7 +7835,7 @@
     <x v="102"/>
     <n v="7781"/>
     <n v="193"/>
-    <n v="1.4999999999999999E-2"/>
+    <n v="0.015"/>
     <x v="0"/>
     <x v="4"/>
     <x v="262"/>
@@ -8613,7 +7844,7 @@
     <x v="42"/>
     <n v="8083"/>
     <n v="486"/>
-    <n v="6.4999999999999997E-3"/>
+    <n v="0.0065"/>
     <x v="1"/>
     <x v="4"/>
     <x v="263"/>
@@ -8622,7 +7853,7 @@
     <x v="12"/>
     <n v="6763"/>
     <n v="15"/>
-    <n v="2.2000000000000001E-3"/>
+    <n v="0.0022"/>
     <x v="0"/>
     <x v="4"/>
     <x v="264"/>
@@ -8631,7 +7862,7 @@
     <x v="109"/>
     <n v="7999"/>
     <n v="172"/>
-    <n v="9.5999999999999992E-3"/>
+    <n v="0.009599999999999999"/>
     <x v="1"/>
     <x v="4"/>
     <x v="265"/>
@@ -8640,7 +7871,7 @@
     <x v="48"/>
     <n v="6746"/>
     <n v="1090"/>
-    <n v="-8.0999999999999996E-3"/>
+    <n v="-0.0081"/>
     <x v="0"/>
     <x v="4"/>
     <x v="266"/>
@@ -8649,7 +7880,7 @@
     <x v="122"/>
     <n v="6973"/>
     <n v="2258"/>
-    <n v="-1.78E-2"/>
+    <n v="-0.0178"/>
     <x v="1"/>
     <x v="4"/>
     <x v="267"/>
@@ -8658,7 +7889,7 @@
     <x v="123"/>
     <n v="6661"/>
     <n v="21"/>
-    <n v="-6.4000000000000003E-3"/>
+    <n v="-0.0064"/>
     <x v="0"/>
     <x v="4"/>
     <x v="268"/>
@@ -8667,7 +7898,7 @@
     <x v="45"/>
     <n v="6805"/>
     <n v="33"/>
-    <n v="2.3999999999999998E-3"/>
+    <n v="0.0024"/>
     <x v="1"/>
     <x v="4"/>
     <x v="269"/>
@@ -8676,7 +7907,7 @@
     <x v="8"/>
     <n v="6505"/>
     <n v="31"/>
-    <n v="9.5999999999999992E-3"/>
+    <n v="0.009599999999999999"/>
     <x v="0"/>
     <x v="4"/>
     <x v="270"/>
@@ -8685,7 +7916,7 @@
     <x v="75"/>
     <n v="6378"/>
     <n v="290"/>
-    <n v="3.1699999999999999E-2"/>
+    <n v="0.0317"/>
     <x v="1"/>
     <x v="4"/>
     <x v="271"/>
@@ -8694,7 +7925,7 @@
     <x v="124"/>
     <n v="6136"/>
     <n v="25"/>
-    <n v="1.4500000000000001E-2"/>
+    <n v="0.0145"/>
     <x v="0"/>
     <x v="4"/>
     <x v="272"/>
@@ -8703,7 +7934,7 @@
     <x v="19"/>
     <n v="6011"/>
     <n v="81"/>
-    <n v="1.8700000000000001E-2"/>
+    <n v="0.0187"/>
     <x v="1"/>
     <x v="4"/>
     <x v="273"/>
@@ -8712,7 +7943,7 @@
     <x v="34"/>
     <n v="5618"/>
     <n v="33"/>
-    <n v="5.7000000000000002E-3"/>
+    <n v="0.0057"/>
     <x v="0"/>
     <x v="4"/>
     <x v="274"/>
@@ -8721,7 +7952,7 @@
     <x v="66"/>
     <n v="5294"/>
     <n v="339"/>
-    <n v="-3.2399999999999998E-2"/>
+    <n v="-0.0324"/>
     <x v="1"/>
     <x v="4"/>
     <x v="275"/>
@@ -8730,7 +7961,7 @@
     <x v="43"/>
     <n v="5139"/>
     <n v="421"/>
-    <n v="1.23E-2"/>
+    <n v="0.0123"/>
     <x v="0"/>
     <x v="4"/>
     <x v="276"/>
@@ -8739,7 +7970,7 @@
     <x v="55"/>
     <n v="4737"/>
     <n v="122"/>
-    <n v="6.4999999999999997E-3"/>
+    <n v="0.0065"/>
     <x v="1"/>
     <x v="4"/>
     <x v="277"/>
@@ -8748,7 +7979,7 @@
     <x v="112"/>
     <n v="5037"/>
     <n v="8"/>
-    <n v="3.4200000000000001E-2"/>
+    <n v="0.0342"/>
     <x v="0"/>
     <x v="4"/>
     <x v="278"/>
@@ -8757,7 +7988,7 @@
     <x v="76"/>
     <n v="4420"/>
     <n v="72"/>
-    <n v="-1.66E-2"/>
+    <n v="-0.0166"/>
     <x v="1"/>
     <x v="4"/>
     <x v="279"/>
@@ -8766,7 +7997,7 @@
     <x v="125"/>
     <n v="4951"/>
     <n v="38"/>
-    <n v="-7.4999999999999997E-3"/>
+    <n v="-0.0075"/>
     <x v="0"/>
     <x v="4"/>
     <x v="94"/>
@@ -8775,7 +8006,7 @@
     <x v="68"/>
     <n v="4288"/>
     <n v="856"/>
-    <n v="-2E-3"/>
+    <n v="-0.002"/>
     <x v="1"/>
     <x v="4"/>
     <x v="280"/>
@@ -8793,7 +8024,7 @@
     <x v="17"/>
     <n v="3955"/>
     <n v="142"/>
-    <n v="7.1000000000000004E-3"/>
+    <n v="0.0071"/>
     <x v="1"/>
     <x v="4"/>
     <x v="282"/>
@@ -8802,7 +8033,7 @@
     <x v="25"/>
     <n v="4695"/>
     <n v="96"/>
-    <n v="1.32E-2"/>
+    <n v="0.0132"/>
     <x v="0"/>
     <x v="4"/>
     <x v="283"/>
@@ -8811,7 +8042,7 @@
     <x v="88"/>
     <n v="3931"/>
     <n v="68"/>
-    <n v="1.04E-2"/>
+    <n v="0.0104"/>
     <x v="1"/>
     <x v="4"/>
     <x v="284"/>
@@ -8820,7 +8051,7 @@
     <x v="127"/>
     <n v="4555"/>
     <n v="125"/>
-    <n v="4.1000000000000003E-3"/>
+    <n v="0.0041"/>
     <x v="0"/>
     <x v="4"/>
     <x v="285"/>
@@ -8829,7 +8060,7 @@
     <x v="15"/>
     <n v="3546"/>
     <n v="69"/>
-    <n v="1.5599999999999999E-2"/>
+    <n v="0.0156"/>
     <x v="1"/>
     <x v="4"/>
     <x v="286"/>
@@ -8838,7 +8069,7 @@
     <x v="5"/>
     <n v="4530"/>
     <n v="48"/>
-    <n v="-2.0999999999999999E-3"/>
+    <n v="-0.0021"/>
     <x v="0"/>
     <x v="4"/>
     <x v="287"/>
@@ -8856,7 +8087,7 @@
     <x v="128"/>
     <n v="4400"/>
     <n v="86"/>
-    <n v="1.52E-2"/>
+    <n v="0.0152"/>
     <x v="0"/>
     <x v="4"/>
     <x v="289"/>
@@ -8865,7 +8096,7 @@
     <x v="64"/>
     <n v="3090"/>
     <n v="52"/>
-    <n v="4.6800000000000001E-2"/>
+    <n v="0.0468"/>
     <x v="1"/>
     <x v="4"/>
     <x v="290"/>
@@ -8874,7 +8105,7 @@
     <x v="28"/>
     <n v="4173"/>
     <n v="41"/>
-    <n v="3.2199999999999999E-2"/>
+    <n v="0.0322"/>
     <x v="0"/>
     <x v="4"/>
     <x v="291"/>
@@ -8883,7 +8114,7 @@
     <x v="71"/>
     <n v="3046"/>
     <n v="36"/>
-    <n v="3.39E-2"/>
+    <n v="0.0339"/>
     <x v="1"/>
     <x v="4"/>
     <x v="292"/>
@@ -8892,7 +8123,7 @@
     <x v="129"/>
     <n v="4000"/>
     <n v="157"/>
-    <n v="7.7000000000000002E-3"/>
+    <n v="0.0077"/>
     <x v="0"/>
     <x v="4"/>
     <x v="293"/>
@@ -8901,7 +8132,7 @@
     <x v="29"/>
     <n v="2642"/>
     <n v="20"/>
-    <n v="7.7999999999999996E-3"/>
+    <n v="0.0078"/>
     <x v="1"/>
     <x v="4"/>
     <x v="294"/>
@@ -8910,7 +8141,7 @@
     <x v="70"/>
     <n v="3742"/>
     <n v="31"/>
-    <n v="2.8799999999999999E-2"/>
+    <n v="0.0288"/>
     <x v="0"/>
     <x v="4"/>
     <x v="295"/>
@@ -8928,7 +8159,7 @@
     <x v="67"/>
     <n v="3687"/>
     <n v="129"/>
-    <n v="-1.7399999999999999E-2"/>
+    <n v="-0.0174"/>
     <x v="0"/>
     <x v="4"/>
     <x v="297"/>
@@ -8937,7 +8168,7 @@
     <x v="130"/>
     <n v="2278"/>
     <n v="429"/>
-    <n v="1.7000000000000001E-2"/>
+    <n v="0.017"/>
     <x v="1"/>
     <x v="4"/>
     <x v="298"/>
@@ -8946,7 +8177,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC14E05F-20B9-4F89-B83E-2EB326EA1644}" name="피벗 테이블1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="피벗 테이블1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G89" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -9763,9 +8994,6 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
     </ext>
@@ -10060,18 +9288,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241:F300"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="J295" sqref="J295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16082,1516 +15310,1246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1248A21-20B8-4C80-8C98-8D998617FBD3}">
-  <dimension ref="A1:G89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:KU89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="54" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="67" max="92" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="93" max="110" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="111" max="121" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="9" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="125" max="127" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="128" max="153" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="154" max="175" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="176" max="183" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="186" max="190" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="191" max="214" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="215" max="239" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="240" max="244" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="247" max="252" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="253" max="275" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="276" max="298" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="299" max="305" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="31" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="54" width="6.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="67" max="92" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="93" max="110" width="6.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="111" max="121" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="125" max="127" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="128" max="153" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="154" max="175" width="6.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="176" max="183" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="186" max="190" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="191" max="214" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="215" max="239" width="6.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="240" max="244" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="247" max="252" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="253" max="275" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="276" max="298" width="6.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="299" max="305" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="7.375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G4" t="s">
         <v>860</v>
       </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>864</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4015</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>3576</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>7591</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>5971</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>5971</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>4896</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>4896</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>11406</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>11406</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>7261</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>4722</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>11955</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>23938</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>7145</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>12739</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>10107</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>29991</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>4558</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>4558</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>10123</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>6831</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>5561</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>22515</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>9776</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>3322</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>13098</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>13832</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>13832</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>5037</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>5037</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>10587</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>28645</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>5797</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>6763</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>51792</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>3535</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>3535</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>13654</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>10629</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>16394</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>6176</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>13594</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>60447</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>5749</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>4173</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>9922</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>5300</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>7781</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <v>13081</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>5665</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>5665</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>4175</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <v>16096</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
+      <c r="G22">
         <v>20271</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>3921</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>2887</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6">
+      <c r="G23">
         <v>6808</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>4532</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <v>2875</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
+      <c r="G24">
         <v>7407</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>13411</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>15939</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>9286</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>38636</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>60681</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>20563</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26">
         <v>3806</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>4530</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26">
         <v>89580</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
+      <c r="F27">
         <v>8363</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <v>8363</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
+      <c r="E28">
         <v>3760</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6">
+      <c r="G28">
         <v>3760</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
+      <c r="E29">
         <v>3052</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6">
+      <c r="G29">
         <v>3052</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>3491</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>3819</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6">
+      <c r="G30">
         <v>7310</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>6710</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6">
+      <c r="G31">
         <v>6710</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>3725</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6">
+      <c r="D32">
         <v>9574</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6">
+      <c r="G32">
         <v>13299</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>7314</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6">
+      <c r="G33">
         <v>7314</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34">
         <v>5445</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6">
+      <c r="D34">
         <v>4879</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6">
+      <c r="G34">
         <v>10324</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>4951</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35">
         <v>4951</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>14508</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6">
+      <c r="G36">
         <v>14508</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>6661</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <v>6661</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>3203</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>3687</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>6890</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>3304</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>3304</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40">
         <v>2878</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6">
+      <c r="G40">
         <v>2878</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>4000</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42">
         <v>15000</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>4007</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42">
         <v>4068</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42">
         <v>20999</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6">
+      <c r="G42">
         <v>44074</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6">
+      <c r="D43">
         <v>4772</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6">
+      <c r="G43">
         <v>4772</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44">
         <v>28431</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <v>18597</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44">
         <v>13103</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44">
         <v>31197</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44">
         <v>15007</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44">
         <v>106335</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6">
+      <c r="D45">
         <v>5586</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6">
+      <c r="G45">
         <v>5586</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46">
         <v>5935</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46">
         <v>3945</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46">
         <v>7207</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6">
+      <c r="G46">
         <v>17087</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47">
         <v>270993</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
+      <c r="F47">
         <v>8044</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
         <v>279037</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6">
+      <c r="D48">
         <v>4133</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48">
         <v>9006</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6">
+      <c r="G48">
         <v>13139</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49">
         <v>3289</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
+      <c r="E49">
         <v>8973</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49">
         <v>6746</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49">
         <v>19008</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50">
         <v>3480</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <v>7312</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6">
+      <c r="G50">
         <v>10792</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6">
+      <c r="E51">
         <v>4041</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6">
+      <c r="G51">
         <v>4041</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6">
+      <c r="F52">
         <v>8541</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52">
         <v>8541</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6">
+      <c r="C53">
         <v>4065</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6">
+      <c r="F53">
         <v>3742</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53">
         <v>7807</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6">
+      <c r="C54">
         <v>3925</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6">
+      <c r="G54">
         <v>3925</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55">
         <v>4063</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6">
+      <c r="D55">
         <v>5967</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6">
+      <c r="G55">
         <v>10030</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6">
+      <c r="C56">
         <v>3774</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6">
+      <c r="G56">
         <v>3774</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57">
         <v>4696</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6">
+      <c r="G57">
         <v>4696</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6">
+      <c r="C58">
         <v>5460</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6">
+      <c r="F58">
         <v>5139</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58">
         <v>10599</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6">
+      <c r="D59">
         <v>3671</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6">
+      <c r="G59">
         <v>3671</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60">
         <v>5381</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6">
+      <c r="G60">
         <v>5381</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6">
+      <c r="E61">
         <v>4889</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6">
+      <c r="G61">
         <v>4889</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6">
+      <c r="C62">
         <v>216883</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6">
+      <c r="G62">
         <v>216883</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6">
+      <c r="C63">
         <v>10481</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6">
+      <c r="G63">
         <v>10481</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6">
+      <c r="D64">
         <v>3713</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6">
+      <c r="G64">
         <v>3713</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6">
+      <c r="C65">
         <v>3242</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6">
+      <c r="G65">
         <v>3242</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
+      <c r="F66">
         <v>6136</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66">
         <v>6136</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6">
+      <c r="C67">
         <v>3784</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6">
+      <c r="E67">
         <v>5128</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67">
         <v>10957</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67">
         <v>19869</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68">
         <v>9459</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68">
         <v>12718</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68">
         <v>11637</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6">
+      <c r="G68">
         <v>33814</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6">
+      <c r="F69">
         <v>4400</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69">
         <v>4400</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70">
         <v>5194</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70">
         <v>9182</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6">
+      <c r="F70">
         <v>5618</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70">
         <v>19994</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6">
+      <c r="E71">
         <v>5873</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71">
         <v>8405</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71">
         <v>14278</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6">
+      <c r="C72">
         <v>4951</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6">
+      <c r="G72">
         <v>4951</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
+      <c r="F73">
         <v>4555</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73">
         <v>4555</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6">
+      <c r="E74">
         <v>7495</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74">
         <v>13602</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74">
         <v>21097</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75">
         <v>3458</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6">
+      <c r="G75">
         <v>3458</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76">
         <v>3039</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6">
+      <c r="D76">
         <v>3821</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76">
         <v>4642</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6">
+      <c r="G76">
         <v>11502</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6">
+      <c r="E77">
         <v>4464</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77">
         <v>4695</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77">
         <v>9159</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78">
         <v>5758</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6">
+      <c r="G78">
         <v>5758</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79">
         <v>2968</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6">
+      <c r="G79">
         <v>2968</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6">
+      <c r="F80">
         <v>89077</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80">
         <v>89077</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81">
         <v>13827</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81">
         <v>7123</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81">
         <v>13771</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81">
         <v>8766</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81">
         <v>6505</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81">
         <v>49992</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82">
         <v>8604</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6">
+      <c r="D82">
         <v>3795</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6">
+      <c r="G82">
         <v>12399</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6">
+      <c r="C83">
         <v>3802</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6">
+      <c r="G83">
         <v>3802</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84">
         <v>3028</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6">
+      <c r="G84">
         <v>3028</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6">
+      <c r="E85">
         <v>3603</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6">
+      <c r="G85">
         <v>3603</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86">
         <v>44367</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86">
         <v>42558</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86">
         <v>10282</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86">
         <v>9808</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86">
         <v>18201</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86">
         <v>125216</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87">
         <v>3182</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6">
+      <c r="G87">
         <v>3182</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6">
+      <c r="D88">
         <v>5894</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6">
+      <c r="G88">
         <v>5894</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="B89" s="6">
+      <c r="A89" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B89">
         <v>511925</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89">
         <v>538885</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89">
         <v>231543</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89">
         <v>225371</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89">
         <v>305212</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89">
         <v>1812936</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17600,32 +16558,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E1" t="s">
         <v>856</v>
       </c>
-      <c r="B1" t="s">
-        <v>857</v>
-      </c>
-      <c r="C1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E1" t="s">
-        <v>860</v>
-      </c>
       <c r="F1" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -23389,7 +22347,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="A242" t="s">
         <v>725</v>
       </c>
       <c r="B242" s="1">
@@ -23401,10 +22359,10 @@
       <c r="D242" s="2">
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="E242" s="3">
-        <v>1</v>
-      </c>
-      <c r="F242" s="3" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
         <v>728</v>
       </c>
       <c r="G242" s="1">
@@ -23413,22 +22371,22 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
+      <c r="A243" t="s">
         <v>102</v>
       </c>
       <c r="B243" s="1">
         <v>18258</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243">
         <v>247</v>
       </c>
       <c r="D243" s="2">
         <v>-2.1100000000000001E-2</v>
       </c>
-      <c r="E243" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F243" s="3" t="s">
+      <c r="E243">
+        <v>-1</v>
+      </c>
+      <c r="F243" t="s">
         <v>728</v>
       </c>
       <c r="G243" s="1">
@@ -23437,22 +22395,22 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
+      <c r="A244" t="s">
         <v>9</v>
       </c>
       <c r="B244" s="1">
         <v>18201</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244">
         <v>96</v>
       </c>
       <c r="D244" s="2">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="E244" s="3">
-        <v>1</v>
-      </c>
-      <c r="F244" s="3" t="s">
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
         <v>728</v>
       </c>
       <c r="G244" s="1">
@@ -23461,22 +22419,22 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+      <c r="A245" t="s">
         <v>589</v>
       </c>
       <c r="B245" s="1">
         <v>16463</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245">
         <v>20</v>
       </c>
       <c r="D245" s="2">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="E245" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F245" s="3" t="s">
+      <c r="E245">
+        <v>-1</v>
+      </c>
+      <c r="F245" t="s">
         <v>728</v>
       </c>
       <c r="G245" s="1">
@@ -23485,22 +22443,22 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
+      <c r="A246" t="s">
         <v>17</v>
       </c>
       <c r="B246" s="1">
         <v>15007</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246">
         <v>25</v>
       </c>
       <c r="D246" s="2">
         <v>-2.3699999999999999E-2</v>
       </c>
-      <c r="E246" s="3">
-        <v>1</v>
-      </c>
-      <c r="F246" s="3" t="s">
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246" t="s">
         <v>728</v>
       </c>
       <c r="G246" s="1">
@@ -23509,22 +22467,22 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
+      <c r="A247" t="s">
         <v>25</v>
       </c>
       <c r="B247" s="1">
         <v>16272</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247">
         <v>755</v>
       </c>
       <c r="D247" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E247" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F247" s="3" t="s">
+      <c r="E247">
+        <v>-1</v>
+      </c>
+      <c r="F247" t="s">
         <v>728</v>
       </c>
       <c r="G247" s="1">
@@ -23533,22 +22491,22 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="A248" t="s">
         <v>263</v>
       </c>
       <c r="B248" s="1">
         <v>13602</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248">
         <v>230</v>
       </c>
       <c r="D248" s="2">
         <v>-1.1900000000000001E-2</v>
       </c>
-      <c r="E248" s="3">
-        <v>1</v>
-      </c>
-      <c r="F248" s="3" t="s">
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" t="s">
         <v>728</v>
       </c>
       <c r="G248" s="1">
@@ -23557,22 +22515,22 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+      <c r="A249" t="s">
         <v>89</v>
       </c>
       <c r="B249" s="1">
         <v>13352</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249">
         <v>871</v>
       </c>
       <c r="D249" s="2">
         <v>1.04E-2</v>
       </c>
-      <c r="E249" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F249" s="3" t="s">
+      <c r="E249">
+        <v>-1</v>
+      </c>
+      <c r="F249" t="s">
         <v>728</v>
       </c>
       <c r="G249" s="1">
@@ -23581,22 +22539,22 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
+      <c r="A250" t="s">
         <v>41</v>
       </c>
       <c r="B250" s="1">
         <v>13594</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250">
         <v>22</v>
       </c>
       <c r="D250" s="2">
         <v>-1.14E-2</v>
       </c>
-      <c r="E250" s="3">
-        <v>1</v>
-      </c>
-      <c r="F250" s="3" t="s">
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" t="s">
         <v>728</v>
       </c>
       <c r="G250" s="1">
@@ -23605,22 +22563,22 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
+      <c r="A251" t="s">
         <v>204</v>
       </c>
       <c r="B251" s="1">
         <v>10664</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251">
         <v>108</v>
       </c>
       <c r="D251" s="2">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E251" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F251" s="3" t="s">
+      <c r="E251">
+        <v>-1</v>
+      </c>
+      <c r="F251" t="s">
         <v>728</v>
       </c>
       <c r="G251" s="1">
@@ -23629,22 +22587,22 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
+      <c r="A252" t="s">
         <v>714</v>
       </c>
       <c r="B252" s="1">
         <v>11406</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252">
         <v>228</v>
       </c>
       <c r="D252" s="2">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E252" s="3">
-        <v>1</v>
-      </c>
-      <c r="F252" s="3" t="s">
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" t="s">
         <v>728</v>
       </c>
       <c r="G252" s="1">
@@ -23653,22 +22611,22 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
+      <c r="A253" t="s">
         <v>93</v>
       </c>
       <c r="B253" s="1">
         <v>10211</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253">
         <v>42</v>
       </c>
       <c r="D253" s="2">
         <v>0</v>
       </c>
-      <c r="E253" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F253" s="3" t="s">
+      <c r="E253">
+        <v>-1</v>
+      </c>
+      <c r="F253" t="s">
         <v>728</v>
       </c>
       <c r="G253" s="1">
@@ -23677,22 +22635,22 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
+      <c r="A254" t="s">
         <v>381</v>
       </c>
       <c r="B254" s="1">
         <v>10957</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254">
         <v>396</v>
       </c>
       <c r="D254" s="2">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="E254" s="3">
-        <v>1</v>
-      </c>
-      <c r="F254" s="3" t="s">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
         <v>728</v>
       </c>
       <c r="G254" s="1">
@@ -23701,22 +22659,22 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
+      <c r="A255" t="s">
         <v>519</v>
       </c>
       <c r="B255" s="1">
         <v>10147</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255">
         <v>76</v>
       </c>
       <c r="D255" s="2">
         <v>-4.8899999999999999E-2</v>
       </c>
-      <c r="E255" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F255" s="3" t="s">
+      <c r="E255">
+        <v>-1</v>
+      </c>
+      <c r="F255" t="s">
         <v>728</v>
       </c>
       <c r="G255" s="1">
@@ -23725,22 +22683,22 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
+      <c r="A256" t="s">
         <v>759</v>
       </c>
       <c r="B256" s="1">
         <v>8541</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256">
         <v>237</v>
       </c>
       <c r="D256" s="2">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="E256" s="3">
-        <v>1</v>
-      </c>
-      <c r="F256" s="3" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256" t="s">
         <v>728</v>
       </c>
       <c r="G256" s="1">
@@ -23749,7 +22707,7 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
+      <c r="A257" t="s">
         <v>81</v>
       </c>
       <c r="B257" s="1">
@@ -23761,10 +22719,10 @@
       <c r="D257" s="2">
         <v>-9.7999999999999997E-3</v>
       </c>
-      <c r="E257" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F257" s="3" t="s">
+      <c r="E257">
+        <v>-1</v>
+      </c>
+      <c r="F257" t="s">
         <v>728</v>
       </c>
       <c r="G257" s="1">
@@ -23773,22 +22731,22 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
+      <c r="A258" t="s">
         <v>639</v>
       </c>
       <c r="B258" s="1">
         <v>8405</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258">
         <v>87</v>
       </c>
       <c r="D258" s="2">
         <v>-1E-3</v>
       </c>
-      <c r="E258" s="3">
-        <v>1</v>
-      </c>
-      <c r="F258" s="3" t="s">
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
         <v>728</v>
       </c>
       <c r="G258" s="1">
@@ -23797,22 +22755,22 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
+      <c r="A259" t="s">
         <v>288</v>
       </c>
       <c r="B259" s="1">
         <v>9681</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259">
         <v>30</v>
       </c>
       <c r="D259" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="E259" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F259" s="3" t="s">
+      <c r="E259">
+        <v>-1</v>
+      </c>
+      <c r="F259" t="s">
         <v>728</v>
       </c>
       <c r="G259" s="1">
@@ -23821,22 +22779,22 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
+      <c r="A260" t="s">
         <v>151</v>
       </c>
       <c r="B260" s="1">
         <v>8363</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260">
         <v>81</v>
       </c>
       <c r="D260" s="2">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="E260" s="3">
-        <v>1</v>
-      </c>
-      <c r="F260" s="3" t="s">
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
         <v>728</v>
       </c>
       <c r="G260" s="1">
@@ -23845,22 +22803,22 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
+      <c r="A261" t="s">
         <v>157</v>
       </c>
       <c r="B261" s="1">
         <v>9412</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261">
         <v>461</v>
       </c>
       <c r="D261" s="2">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E261" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F261" s="3" t="s">
+      <c r="E261">
+        <v>-1</v>
+      </c>
+      <c r="F261" t="s">
         <v>728</v>
       </c>
       <c r="G261" s="1">
@@ -23869,22 +22827,22 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
+      <c r="A262" t="s">
         <v>0</v>
       </c>
       <c r="B262" s="1">
         <v>8044</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262">
         <v>136</v>
       </c>
       <c r="D262" s="2">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E262" s="3">
-        <v>1</v>
-      </c>
-      <c r="F262" s="3" t="s">
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
         <v>728</v>
       </c>
       <c r="G262" s="1">
@@ -23893,22 +22851,22 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
+      <c r="A263" t="s">
         <v>117</v>
       </c>
       <c r="B263" s="1">
         <v>8931</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263">
         <v>16</v>
       </c>
       <c r="D263" s="2">
         <v>-3.3999999999999998E-3</v>
       </c>
-      <c r="E263" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F263" s="3" t="s">
+      <c r="E263">
+        <v>-1</v>
+      </c>
+      <c r="F263" t="s">
         <v>728</v>
       </c>
       <c r="G263" s="1">
@@ -23917,22 +22875,22 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
+      <c r="A264" t="s">
         <v>546</v>
       </c>
       <c r="B264" s="1">
         <v>7781</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264">
         <v>193</v>
       </c>
       <c r="D264" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E264" s="3">
-        <v>1</v>
-      </c>
-      <c r="F264" s="3" t="s">
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264" t="s">
         <v>728</v>
       </c>
       <c r="G264" s="1">
@@ -23941,22 +22899,22 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="3" t="s">
+      <c r="A265" t="s">
         <v>161</v>
       </c>
       <c r="B265" s="1">
         <v>8083</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265">
         <v>486</v>
       </c>
       <c r="D265" s="2">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E265" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F265" s="3" t="s">
+      <c r="E265">
+        <v>-1</v>
+      </c>
+      <c r="F265" t="s">
         <v>728</v>
       </c>
       <c r="G265" s="1">
@@ -23965,22 +22923,22 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" s="3" t="s">
+      <c r="A266" t="s">
         <v>49</v>
       </c>
       <c r="B266" s="1">
         <v>6763</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266">
         <v>15</v>
       </c>
       <c r="D266" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E266" s="3">
-        <v>1</v>
-      </c>
-      <c r="F266" s="3" t="s">
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
         <v>728</v>
       </c>
       <c r="G266" s="1">
@@ -23989,22 +22947,22 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
+      <c r="A267" t="s">
         <v>625</v>
       </c>
       <c r="B267" s="1">
         <v>7999</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267">
         <v>172</v>
       </c>
       <c r="D267" s="2">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="E267" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F267" s="3" t="s">
+      <c r="E267">
+        <v>-1</v>
+      </c>
+      <c r="F267" t="s">
         <v>728</v>
       </c>
       <c r="G267" s="1">
@@ -24013,7 +22971,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
+      <c r="A268" t="s">
         <v>185</v>
       </c>
       <c r="B268" s="1">
@@ -24025,10 +22983,10 @@
       <c r="D268" s="2">
         <v>-8.0999999999999996E-3</v>
       </c>
-      <c r="E268" s="3">
-        <v>1</v>
-      </c>
-      <c r="F268" s="3" t="s">
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268" t="s">
         <v>728</v>
       </c>
       <c r="G268" s="1">
@@ -24037,7 +22995,7 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
+      <c r="A269" t="s">
         <v>787</v>
       </c>
       <c r="B269" s="1">
@@ -24049,10 +23007,10 @@
       <c r="D269" s="2">
         <v>-1.78E-2</v>
       </c>
-      <c r="E269" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F269" s="3" t="s">
+      <c r="E269">
+        <v>-1</v>
+      </c>
+      <c r="F269" t="s">
         <v>728</v>
       </c>
       <c r="G269" s="1">
@@ -24061,22 +23019,22 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="3" t="s">
+      <c r="A270" t="s">
         <v>791</v>
       </c>
       <c r="B270" s="1">
         <v>6661</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270">
         <v>21</v>
       </c>
       <c r="D270" s="2">
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="E270" s="3">
-        <v>1</v>
-      </c>
-      <c r="F270" s="3" t="s">
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270" t="s">
         <v>728</v>
       </c>
       <c r="G270" s="1">
@@ -24085,22 +23043,22 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="3" t="s">
+      <c r="A271" t="s">
         <v>173</v>
       </c>
       <c r="B271" s="1">
         <v>6805</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271">
         <v>33</v>
       </c>
       <c r="D271" s="2">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="E271" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F271" s="3" t="s">
+      <c r="E271">
+        <v>-1</v>
+      </c>
+      <c r="F271" t="s">
         <v>728</v>
       </c>
       <c r="G271" s="1">
@@ -24109,22 +23067,22 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="3" t="s">
+      <c r="A272" t="s">
         <v>33</v>
       </c>
       <c r="B272" s="1">
         <v>6505</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272">
         <v>31</v>
       </c>
       <c r="D272" s="2">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="E272" s="3">
-        <v>1</v>
-      </c>
-      <c r="F272" s="3" t="s">
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272" t="s">
         <v>728</v>
       </c>
       <c r="G272" s="1">
@@ -24133,22 +23091,22 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="3" t="s">
+      <c r="A273" t="s">
         <v>371</v>
       </c>
       <c r="B273" s="1">
         <v>6378</v>
       </c>
-      <c r="C273" s="3">
+      <c r="C273">
         <v>290</v>
       </c>
       <c r="D273" s="2">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="E273" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F273" s="3" t="s">
+      <c r="E273">
+        <v>-1</v>
+      </c>
+      <c r="F273" t="s">
         <v>728</v>
       </c>
       <c r="G273" s="1">
@@ -24157,22 +23115,22 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="3" t="s">
+      <c r="A274" t="s">
         <v>799</v>
       </c>
       <c r="B274" s="1">
         <v>6136</v>
       </c>
-      <c r="C274" s="3">
+      <c r="C274">
         <v>25</v>
       </c>
       <c r="D274" s="2">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="E274" s="3">
-        <v>1</v>
-      </c>
-      <c r="F274" s="3" t="s">
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274" t="s">
         <v>728</v>
       </c>
       <c r="G274" s="1">
@@ -24181,22 +23139,22 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
+      <c r="A275" t="s">
         <v>77</v>
       </c>
       <c r="B275" s="1">
         <v>6011</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275">
         <v>81</v>
       </c>
       <c r="D275" s="2">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="E275" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F275" s="3" t="s">
+      <c r="E275">
+        <v>-1</v>
+      </c>
+      <c r="F275" t="s">
         <v>728</v>
       </c>
       <c r="G275" s="1">
@@ -24205,22 +23163,22 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
+      <c r="A276" t="s">
         <v>133</v>
       </c>
       <c r="B276" s="1">
         <v>5618</v>
       </c>
-      <c r="C276" s="3">
+      <c r="C276">
         <v>33</v>
       </c>
       <c r="D276" s="2">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="E276" s="3">
-        <v>1</v>
-      </c>
-      <c r="F276" s="3" t="s">
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276" t="s">
         <v>728</v>
       </c>
       <c r="G276" s="1">
@@ -24229,22 +23187,22 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
+      <c r="A277" t="s">
         <v>329</v>
       </c>
       <c r="B277" s="1">
         <v>5294</v>
       </c>
-      <c r="C277" s="3">
+      <c r="C277">
         <v>339</v>
       </c>
       <c r="D277" s="2">
         <v>-3.2399999999999998E-2</v>
       </c>
-      <c r="E277" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F277" s="3" t="s">
+      <c r="E277">
+        <v>-1</v>
+      </c>
+      <c r="F277" t="s">
         <v>728</v>
       </c>
       <c r="G277" s="1">
@@ -24253,22 +23211,22 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
+      <c r="A278" t="s">
         <v>165</v>
       </c>
       <c r="B278" s="1">
         <v>5139</v>
       </c>
-      <c r="C278" s="3">
+      <c r="C278">
         <v>421</v>
       </c>
       <c r="D278" s="2">
         <v>1.23E-2</v>
       </c>
-      <c r="E278" s="3">
-        <v>1</v>
-      </c>
-      <c r="F278" s="3" t="s">
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278" t="s">
         <v>728</v>
       </c>
       <c r="G278" s="1">
@@ -24277,22 +23235,22 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
+      <c r="A279" t="s">
         <v>209</v>
       </c>
       <c r="B279" s="1">
         <v>4737</v>
       </c>
-      <c r="C279" s="3">
+      <c r="C279">
         <v>122</v>
       </c>
       <c r="D279" s="2">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E279" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F279" s="3" t="s">
+      <c r="E279">
+        <v>-1</v>
+      </c>
+      <c r="F279" t="s">
         <v>728</v>
       </c>
       <c r="G279" s="1">
@@ -24301,22 +23259,22 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" s="3" t="s">
+      <c r="A280" t="s">
         <v>671</v>
       </c>
       <c r="B280" s="1">
         <v>5037</v>
       </c>
-      <c r="C280" s="3">
+      <c r="C280">
         <v>8</v>
       </c>
       <c r="D280" s="2">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="E280" s="3">
-        <v>1</v>
-      </c>
-      <c r="F280" s="3" t="s">
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280" t="s">
         <v>728</v>
       </c>
       <c r="G280" s="1">
@@ -24325,22 +23283,22 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
+      <c r="A281" t="s">
         <v>375</v>
       </c>
       <c r="B281" s="1">
         <v>4420</v>
       </c>
-      <c r="C281" s="3">
+      <c r="C281">
         <v>72</v>
       </c>
       <c r="D281" s="2">
         <v>-1.66E-2</v>
       </c>
-      <c r="E281" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F281" s="3" t="s">
+      <c r="E281">
+        <v>-1</v>
+      </c>
+      <c r="F281" t="s">
         <v>728</v>
       </c>
       <c r="G281" s="1">
@@ -24349,22 +23307,22 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" s="3" t="s">
+      <c r="A282" t="s">
         <v>816</v>
       </c>
       <c r="B282" s="1">
         <v>4951</v>
       </c>
-      <c r="C282" s="3">
+      <c r="C282">
         <v>38</v>
       </c>
       <c r="D282" s="2">
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="E282" s="3">
-        <v>1</v>
-      </c>
-      <c r="F282" s="3" t="s">
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" t="s">
         <v>728</v>
       </c>
       <c r="G282" s="1">
@@ -24373,22 +23331,22 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="3" t="s">
+      <c r="A283" t="s">
         <v>342</v>
       </c>
       <c r="B283" s="1">
         <v>4288</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C283">
         <v>856</v>
       </c>
       <c r="D283" s="2">
         <v>-2E-3</v>
       </c>
-      <c r="E283" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F283" s="3" t="s">
+      <c r="E283">
+        <v>-1</v>
+      </c>
+      <c r="F283" t="s">
         <v>728</v>
       </c>
       <c r="G283" s="1">
@@ -24397,22 +23355,22 @@
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="3" t="s">
+      <c r="A284" t="s">
         <v>821</v>
       </c>
       <c r="B284" s="1">
         <v>4896</v>
       </c>
-      <c r="C284" s="3">
+      <c r="C284">
         <v>79</v>
       </c>
       <c r="D284" s="2">
         <v>0</v>
       </c>
-      <c r="E284" s="3">
-        <v>1</v>
-      </c>
-      <c r="F284" s="3" t="s">
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="s">
         <v>728</v>
       </c>
       <c r="G284" s="1">
@@ -24421,22 +23379,22 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="3" t="s">
+      <c r="A285" t="s">
         <v>69</v>
       </c>
       <c r="B285" s="1">
         <v>3955</v>
       </c>
-      <c r="C285" s="3">
+      <c r="C285">
         <v>142</v>
       </c>
       <c r="D285" s="2">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E285" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F285" s="3" t="s">
+      <c r="E285">
+        <v>-1</v>
+      </c>
+      <c r="F285" t="s">
         <v>728</v>
       </c>
       <c r="G285" s="1">
@@ -24445,22 +23403,22 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="3" t="s">
+      <c r="A286" t="s">
         <v>99</v>
       </c>
       <c r="B286" s="1">
         <v>4695</v>
       </c>
-      <c r="C286" s="3">
+      <c r="C286">
         <v>96</v>
       </c>
       <c r="D286" s="2">
         <v>1.32E-2</v>
       </c>
-      <c r="E286" s="3">
-        <v>1</v>
-      </c>
-      <c r="F286" s="3" t="s">
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286" t="s">
         <v>728</v>
       </c>
       <c r="G286" s="1">
@@ -24469,22 +23427,22 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="3" t="s">
+      <c r="A287" t="s">
         <v>466</v>
       </c>
       <c r="B287" s="1">
         <v>3931</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C287">
         <v>68</v>
       </c>
       <c r="D287" s="2">
         <v>1.04E-2</v>
       </c>
-      <c r="E287" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F287" s="3" t="s">
+      <c r="E287">
+        <v>-1</v>
+      </c>
+      <c r="F287" t="s">
         <v>728</v>
       </c>
       <c r="G287" s="1">
@@ -24493,22 +23451,22 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" s="3" t="s">
+      <c r="A288" t="s">
         <v>827</v>
       </c>
       <c r="B288" s="1">
         <v>4555</v>
       </c>
-      <c r="C288" s="3">
+      <c r="C288">
         <v>125</v>
       </c>
       <c r="D288" s="2">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="E288" s="3">
-        <v>1</v>
-      </c>
-      <c r="F288" s="3" t="s">
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" t="s">
         <v>728</v>
       </c>
       <c r="G288" s="1">
@@ -24517,22 +23475,22 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
+      <c r="A289" t="s">
         <v>61</v>
       </c>
       <c r="B289" s="1">
         <v>3546</v>
       </c>
-      <c r="C289" s="3">
+      <c r="C289">
         <v>69</v>
       </c>
       <c r="D289" s="2">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="E289" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F289" s="3" t="s">
+      <c r="E289">
+        <v>-1</v>
+      </c>
+      <c r="F289" t="s">
         <v>728</v>
       </c>
       <c r="G289" s="1">
@@ -24541,22 +23499,22 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
+      <c r="A290" t="s">
         <v>21</v>
       </c>
       <c r="B290" s="1">
         <v>4530</v>
       </c>
-      <c r="C290" s="3">
+      <c r="C290">
         <v>48</v>
       </c>
       <c r="D290" s="2">
         <v>-2.0999999999999999E-3</v>
       </c>
-      <c r="E290" s="3">
-        <v>1</v>
-      </c>
-      <c r="F290" s="3" t="s">
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="s">
         <v>728</v>
       </c>
       <c r="G290" s="1">
@@ -24565,22 +23523,22 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="3" t="s">
+      <c r="A291" t="s">
         <v>496</v>
       </c>
       <c r="B291" s="1">
         <v>3381</v>
       </c>
-      <c r="C291" s="3">
+      <c r="C291">
         <v>27</v>
       </c>
       <c r="D291" s="2">
         <v>0</v>
       </c>
-      <c r="E291" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F291" s="3" t="s">
+      <c r="E291">
+        <v>-1</v>
+      </c>
+      <c r="F291" t="s">
         <v>728</v>
       </c>
       <c r="G291" s="1">
@@ -24589,22 +23547,22 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="3" t="s">
+      <c r="A292" t="s">
         <v>835</v>
       </c>
       <c r="B292" s="1">
         <v>4400</v>
       </c>
-      <c r="C292" s="3">
+      <c r="C292">
         <v>86</v>
       </c>
       <c r="D292" s="2">
         <v>1.52E-2</v>
       </c>
-      <c r="E292" s="3">
-        <v>1</v>
-      </c>
-      <c r="F292" s="3" t="s">
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292" t="s">
         <v>728</v>
       </c>
       <c r="G292" s="1">
@@ -24613,22 +23571,22 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
+      <c r="A293" t="s">
         <v>300</v>
       </c>
       <c r="B293" s="1">
         <v>3090</v>
       </c>
-      <c r="C293" s="3">
+      <c r="C293">
         <v>52</v>
       </c>
       <c r="D293" s="2">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="E293" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F293" s="3" t="s">
+      <c r="E293">
+        <v>-1</v>
+      </c>
+      <c r="F293" t="s">
         <v>728</v>
       </c>
       <c r="G293" s="1">
@@ -24637,22 +23595,22 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
+      <c r="A294" t="s">
         <v>109</v>
       </c>
       <c r="B294" s="1">
         <v>4173</v>
       </c>
-      <c r="C294" s="3">
+      <c r="C294">
         <v>41</v>
       </c>
       <c r="D294" s="2">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="E294" s="3">
-        <v>1</v>
-      </c>
-      <c r="F294" s="3" t="s">
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294" t="s">
         <v>728</v>
       </c>
       <c r="G294" s="1">
@@ -24661,22 +23619,22 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
+      <c r="A295" t="s">
         <v>352</v>
       </c>
       <c r="B295" s="1">
         <v>3046</v>
       </c>
-      <c r="C295" s="3">
+      <c r="C295">
         <v>36</v>
       </c>
       <c r="D295" s="2">
         <v>3.39E-2</v>
       </c>
-      <c r="E295" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F295" s="3" t="s">
+      <c r="E295">
+        <v>-1</v>
+      </c>
+      <c r="F295" t="s">
         <v>728</v>
       </c>
       <c r="G295" s="1">
@@ -24685,22 +23643,22 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
+      <c r="A296" t="s">
         <v>843</v>
       </c>
       <c r="B296" s="1">
         <v>4000</v>
       </c>
-      <c r="C296" s="3">
+      <c r="C296">
         <v>157</v>
       </c>
       <c r="D296" s="2">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E296" s="3">
-        <v>1</v>
-      </c>
-      <c r="F296" s="3" t="s">
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296" t="s">
         <v>728</v>
       </c>
       <c r="G296" s="1">
@@ -24709,22 +23667,22 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
+      <c r="A297" t="s">
         <v>113</v>
       </c>
       <c r="B297" s="1">
         <v>2642</v>
       </c>
-      <c r="C297" s="3">
+      <c r="C297">
         <v>20</v>
       </c>
       <c r="D297" s="2">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="E297" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F297" s="3" t="s">
+      <c r="E297">
+        <v>-1</v>
+      </c>
+      <c r="F297" t="s">
         <v>728</v>
       </c>
       <c r="G297" s="1">
@@ -24733,22 +23691,22 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
+      <c r="A298" t="s">
         <v>349</v>
       </c>
       <c r="B298" s="1">
         <v>3742</v>
       </c>
-      <c r="C298" s="3">
+      <c r="C298">
         <v>31</v>
       </c>
       <c r="D298" s="2">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="E298" s="3">
-        <v>1</v>
-      </c>
-      <c r="F298" s="3" t="s">
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298" t="s">
         <v>728</v>
       </c>
       <c r="G298" s="1">
@@ -24757,22 +23715,22 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
+      <c r="A299" t="s">
         <v>29</v>
       </c>
       <c r="B299" s="1">
         <v>2550</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C299">
         <v>13</v>
       </c>
       <c r="D299" s="2">
         <v>0</v>
       </c>
-      <c r="E299" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F299" s="3" t="s">
+      <c r="E299">
+        <v>-1</v>
+      </c>
+      <c r="F299" t="s">
         <v>728</v>
       </c>
       <c r="G299" s="1">
@@ -24781,22 +23739,22 @@
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
+      <c r="A300" t="s">
         <v>338</v>
       </c>
       <c r="B300" s="1">
         <v>3687</v>
       </c>
-      <c r="C300" s="3">
+      <c r="C300">
         <v>129</v>
       </c>
       <c r="D300" s="2">
         <v>-1.7399999999999999E-2</v>
       </c>
-      <c r="E300" s="3">
-        <v>1</v>
-      </c>
-      <c r="F300" s="3" t="s">
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300" t="s">
         <v>728</v>
       </c>
       <c r="G300" s="1">
@@ -24805,22 +23763,22 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
+      <c r="A301" t="s">
         <v>852</v>
       </c>
       <c r="B301" s="1">
         <v>2278</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C301">
         <v>429</v>
       </c>
       <c r="D301" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E301" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F301" s="3" t="s">
+      <c r="E301">
+        <v>-1</v>
+      </c>
+      <c r="F301" t="s">
         <v>728</v>
       </c>
       <c r="G301" s="1">
@@ -24829,7 +23787,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G121" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G121" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4406,7 +4406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F896"/>
+  <dimension ref="A1:F956"/>
   <sheetViews>
     <sheetView topLeftCell="A624" workbookViewId="0">
       <selection activeCell="A597" sqref="A597:F656"/>
@@ -31299,6 +31299,1806 @@
       <c r="F896" t="inlineStr">
         <is>
           <t>2022-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>36,516</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>-0.75%</t>
+        </is>
+      </c>
+      <c r="E897" t="n">
+        <v>1</v>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>142,401</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>2,489</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>+0.70%</t>
+        </is>
+      </c>
+      <c r="E898" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>15,809</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>+5.89%</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>1</v>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>23,459</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>+0.61%</t>
+        </is>
+      </c>
+      <c r="E900" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>12,901</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>+0.16%</t>
+        </is>
+      </c>
+      <c r="E901" t="n">
+        <v>1</v>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>19,029</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>6,068</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="E902" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>12,723</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>+3.23%</t>
+        </is>
+      </c>
+      <c r="E903" t="n">
+        <v>1</v>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>12,701</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>+0.57%</t>
+        </is>
+      </c>
+      <c r="E904" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>12,351</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>+0.52%</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>1</v>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>12,368</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>-1.04%</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>11,009</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>1</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>11,664</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>+1.06%</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>10,972</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>1</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>11,542</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>9,520</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>1</v>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>9,006</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>-1.33%</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>8,890</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>+1.43%</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>1</v>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>8,739</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>-1.29%</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>8,755</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>1,755</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>1</v>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>7,182</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>+0.67%</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>7,595</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>+1.34%</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>1</v>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>5,808</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>+0.40%</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>7,442</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>1</v>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>대덕전자</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>5,154</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>-1.98%</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>현대제철</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>6,892</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>+0.46%</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>1</v>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>5,004</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>TIGER 미국S&amp;P500</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>4,999</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>1</v>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>4,457</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>+2.21%</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>하이브</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>4,983</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>-3.28%</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>1</v>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>4,219</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>-1.60%</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>4,646</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>+1.06%</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>1</v>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>3,837</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>+0.49%</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>4,518</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>-0.40%</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>1</v>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>해성디에스</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>3,816</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>-0.77%</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>현대건설</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>4,387</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>-0.22%</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>1</v>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>3,652</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>+0.47%</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>4,044</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>+1.31%</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
+        <v>1</v>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>3,536</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>+0.15%</t>
+        </is>
+      </c>
+      <c r="E934" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>롯데지주</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>3,961</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>+0.49%</t>
+        </is>
+      </c>
+      <c r="E935" t="n">
+        <v>1</v>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>3,507</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>+14.45%</t>
+        </is>
+      </c>
+      <c r="E936" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>넷마블</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>3,934</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>-0.66%</t>
+        </is>
+      </c>
+      <c r="E937" t="n">
+        <v>1</v>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>3,411</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>+0.20%</t>
+        </is>
+      </c>
+      <c r="E938" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>현대에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>3,587</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>+7.25%</t>
+        </is>
+      </c>
+      <c r="E939" t="n">
+        <v>1</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>DL이앤씨</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>2,911</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>+1.79%</t>
+        </is>
+      </c>
+      <c r="E940" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>한솔케미칼</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>3,496</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>+0.24%</t>
+        </is>
+      </c>
+      <c r="E941" t="n">
+        <v>1</v>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>2,902</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>+0.92%</t>
+        </is>
+      </c>
+      <c r="E942" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>3,331</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>+1.66%</t>
+        </is>
+      </c>
+      <c r="E943" t="n">
+        <v>1</v>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2,877</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>+1.82%</t>
+        </is>
+      </c>
+      <c r="E944" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>3,249</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>+0.31%</t>
+        </is>
+      </c>
+      <c r="E945" t="n">
+        <v>1</v>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>2,781</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>+0.14%</t>
+        </is>
+      </c>
+      <c r="E946" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>한국가스공사</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>3,008</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>-2.71%</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>1</v>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>2,580</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>+0.52%</t>
+        </is>
+      </c>
+      <c r="E948" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>2,570</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>-0.82%</t>
+        </is>
+      </c>
+      <c r="E949" t="n">
+        <v>1</v>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>2,308</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>+0.96%</t>
+        </is>
+      </c>
+      <c r="E950" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>2,484</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>+1.85%</t>
+        </is>
+      </c>
+      <c r="E951" t="n">
+        <v>1</v>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>2,280</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
+      </c>
+      <c r="E952" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>2,443</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>+0.20%</t>
+        </is>
+      </c>
+      <c r="E953" t="n">
+        <v>1</v>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>LS ELECTRIC</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>2,086</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>+5.24%</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>2,427</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>+0.15%</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>1</v>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>2,080</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4405,7 +4405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1016"/>
+  <dimension ref="A1:F1316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
@@ -34810,6 +34810,9006 @@
       <c r="F1016" t="inlineStr">
         <is>
           <t>2022-09-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>135,436</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>2,424</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>-7.04%</t>
+        </is>
+      </c>
+      <c r="E1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>333,227</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>5,959</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
+        </is>
+      </c>
+      <c r="E1018" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>30,485</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>+3.07%</t>
+        </is>
+      </c>
+      <c r="E1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>31,813</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1020" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>25,823</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>7,952</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>-0.61%</t>
+        </is>
+      </c>
+      <c r="E1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>SK스퀘어</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>29,938</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>+5.65%</t>
+        </is>
+      </c>
+      <c r="E1022" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>21,720</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>+7.55%</t>
+        </is>
+      </c>
+      <c r="E1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>24,887</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>1,389</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
+      <c r="E1024" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>21,428</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>+3.37%</t>
+        </is>
+      </c>
+      <c r="E1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>24,189</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>+2.71%</t>
+        </is>
+      </c>
+      <c r="E1026" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>20,663</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>-0.31%</t>
+        </is>
+      </c>
+      <c r="E1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>18,200</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="E1028" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>15,200</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>+0.86%</t>
+        </is>
+      </c>
+      <c r="E1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1029" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>14,485</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="E1030" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1030" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>11,860</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>+0.81%</t>
+        </is>
+      </c>
+      <c r="E1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>14,337</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>-0.12%</t>
+        </is>
+      </c>
+      <c r="E1032" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1032" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>11,202</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>+9.52%</t>
+        </is>
+      </c>
+      <c r="E1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1033" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>12,474</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="E1034" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1034" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>10,910</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>+1.66%</t>
+        </is>
+      </c>
+      <c r="E1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1035" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>11,882</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>+4.37%</t>
+        </is>
+      </c>
+      <c r="E1036" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1036" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>9,619</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>1,930</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>-0.40%</t>
+        </is>
+      </c>
+      <c r="E1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1037" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>11,794</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1038" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1038" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>+2.79%</t>
+        </is>
+      </c>
+      <c r="E1039" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1039" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>10,871</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1040" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1040" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>7,992</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>-2.29%</t>
+        </is>
+      </c>
+      <c r="E1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1041" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>10,276</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>+3.66%</t>
+        </is>
+      </c>
+      <c r="E1042" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>제이알글로벌리츠</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>7,799</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>1,661</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>+5.92%</t>
+        </is>
+      </c>
+      <c r="E1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1043" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>10,092</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="E1044" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1044" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>7,115</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>+0.49%</t>
+        </is>
+      </c>
+      <c r="E1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>10,048</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1046" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>6,972</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="E1047" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>9,843</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>+1.15%</t>
+        </is>
+      </c>
+      <c r="E1048" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>TIGER 원유선물인버스(H)</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>6,145</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>1,783</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E1049" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>7,835</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>+3.56%</t>
+        </is>
+      </c>
+      <c r="E1050" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>5,095</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>1,056</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="E1051" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>7,451</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="E1052" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1052" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>5,089</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>+1.50%</t>
+        </is>
+      </c>
+      <c r="E1053" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1053" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>7,407</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>+0.74%</t>
+        </is>
+      </c>
+      <c r="E1054" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1054" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>4,956</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>-2.54%</t>
+        </is>
+      </c>
+      <c r="E1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>7,079</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>+3.03%</t>
+        </is>
+      </c>
+      <c r="E1056" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>4,954</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>+15.14%</t>
+        </is>
+      </c>
+      <c r="E1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>삼성중공업</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>6,808</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>1,197</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="E1058" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>4,867</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>-2.32%</t>
+        </is>
+      </c>
+      <c r="E1059" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1059" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>6,618</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>+2.79%</t>
+        </is>
+      </c>
+      <c r="E1060" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1060" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>4,769</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>+2.22%</t>
+        </is>
+      </c>
+      <c r="E1061" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1061" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>한국조선해양</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>6,134</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>-0.23%</t>
+        </is>
+      </c>
+      <c r="E1062" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>4,210</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1063" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1063" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>5,904</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="E1064" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1064" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>4,113</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>+4.06%</t>
+        </is>
+      </c>
+      <c r="E1065" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>5,841</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>+0.52%</t>
+        </is>
+      </c>
+      <c r="E1066" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>3,822</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>-2.41%</t>
+        </is>
+      </c>
+      <c r="E1067" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>5,785</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>+1.75%</t>
+        </is>
+      </c>
+      <c r="E1068" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>3,795</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>+6.89%</t>
+        </is>
+      </c>
+      <c r="E1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>5,052</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
+      <c r="E1070" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>3,692</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>오리온</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>4,538</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>+2.87%</t>
+        </is>
+      </c>
+      <c r="E1072" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150레버리지</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>3,577</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>+4.30%</t>
+        </is>
+      </c>
+      <c r="E1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>4,493</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="E1074" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>2,840</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>+1.78%</t>
+        </is>
+      </c>
+      <c r="E1075" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>4,228</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>+0.78%</t>
+        </is>
+      </c>
+      <c r="E1076" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>135,436</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>2,424</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>-7.04%</t>
+        </is>
+      </c>
+      <c r="E1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>333,227</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>5,959</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
+        </is>
+      </c>
+      <c r="E1078" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>30,485</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>+3.07%</t>
+        </is>
+      </c>
+      <c r="E1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>31,813</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1080" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>25,823</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>7,952</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>-0.61%</t>
+        </is>
+      </c>
+      <c r="E1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>SK스퀘어</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>29,938</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>+5.65%</t>
+        </is>
+      </c>
+      <c r="E1082" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>21,720</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>+7.55%</t>
+        </is>
+      </c>
+      <c r="E1083" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>24,887</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>1,389</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
+      <c r="E1084" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>21,428</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>+3.37%</t>
+        </is>
+      </c>
+      <c r="E1085" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>24,189</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>+2.71%</t>
+        </is>
+      </c>
+      <c r="E1086" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>20,663</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>-0.31%</t>
+        </is>
+      </c>
+      <c r="E1087" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>18,200</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="E1088" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>15,200</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>+0.86%</t>
+        </is>
+      </c>
+      <c r="E1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>14,485</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="E1090" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>11,860</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>+0.81%</t>
+        </is>
+      </c>
+      <c r="E1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>14,337</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>-0.12%</t>
+        </is>
+      </c>
+      <c r="E1092" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>11,202</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>+9.52%</t>
+        </is>
+      </c>
+      <c r="E1093" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>12,474</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="E1094" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>10,910</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>+1.66%</t>
+        </is>
+      </c>
+      <c r="E1095" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>11,882</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>+4.37%</t>
+        </is>
+      </c>
+      <c r="E1096" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>9,619</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>1,930</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>-0.40%</t>
+        </is>
+      </c>
+      <c r="E1097" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>11,794</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1098" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>+2.79%</t>
+        </is>
+      </c>
+      <c r="E1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>10,871</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>7,992</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>-2.29%</t>
+        </is>
+      </c>
+      <c r="E1101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>10,276</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>+3.66%</t>
+        </is>
+      </c>
+      <c r="E1102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>제이알글로벌리츠</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>7,799</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>1,661</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>+5.92%</t>
+        </is>
+      </c>
+      <c r="E1103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>10,092</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="E1104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>7,115</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>+0.49%</t>
+        </is>
+      </c>
+      <c r="E1105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>10,048</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>6,972</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="E1107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>9,843</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>+1.15%</t>
+        </is>
+      </c>
+      <c r="E1108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>TIGER 원유선물인버스(H)</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>6,145</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>1,783</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E1109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>7,835</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>+3.56%</t>
+        </is>
+      </c>
+      <c r="E1110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>5,095</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>1,056</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="E1111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1111" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>7,451</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="E1112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1112" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>5,089</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>+1.50%</t>
+        </is>
+      </c>
+      <c r="E1113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1113" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>7,407</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>+0.74%</t>
+        </is>
+      </c>
+      <c r="E1114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1114" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>4,956</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>-2.54%</t>
+        </is>
+      </c>
+      <c r="E1115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1115" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>7,079</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>+3.03%</t>
+        </is>
+      </c>
+      <c r="E1116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1116" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>4,954</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>+15.14%</t>
+        </is>
+      </c>
+      <c r="E1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>삼성중공업</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>6,808</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>1,197</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="E1118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>4,867</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>-2.32%</t>
+        </is>
+      </c>
+      <c r="E1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1119" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>6,618</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>+2.79%</t>
+        </is>
+      </c>
+      <c r="E1120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1120" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>4,769</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>+2.22%</t>
+        </is>
+      </c>
+      <c r="E1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1121" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>한국조선해양</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>6,134</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>-0.23%</t>
+        </is>
+      </c>
+      <c r="E1122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1122" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>4,210</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1123" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>5,904</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="E1124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1124" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>4,113</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>+4.06%</t>
+        </is>
+      </c>
+      <c r="E1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1125" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>5,841</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>+0.52%</t>
+        </is>
+      </c>
+      <c r="E1126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1126" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>3,822</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>-2.41%</t>
+        </is>
+      </c>
+      <c r="E1127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>5,785</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>+1.75%</t>
+        </is>
+      </c>
+      <c r="E1128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>3,795</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>+6.89%</t>
+        </is>
+      </c>
+      <c r="E1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1129" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>5,052</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
+      <c r="E1130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>3,692</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1131" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>오리온</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>4,538</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>+2.87%</t>
+        </is>
+      </c>
+      <c r="E1132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150레버리지</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>3,577</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>+4.30%</t>
+        </is>
+      </c>
+      <c r="E1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>4,493</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="E1134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>2,840</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>+1.78%</t>
+        </is>
+      </c>
+      <c r="E1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>4,228</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>+0.78%</t>
+        </is>
+      </c>
+      <c r="E1136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1136" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>135,436</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>2,424</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>-7.04%</t>
+        </is>
+      </c>
+      <c r="E1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1137" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>333,227</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>5,959</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
+        </is>
+      </c>
+      <c r="E1138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1138" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>30,485</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>+3.07%</t>
+        </is>
+      </c>
+      <c r="E1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1139" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>31,813</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1140" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>25,823</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>7,952</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>-0.61%</t>
+        </is>
+      </c>
+      <c r="E1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1141" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>SK스퀘어</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>29,938</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>+5.65%</t>
+        </is>
+      </c>
+      <c r="E1142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1142" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>21,720</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>+7.55%</t>
+        </is>
+      </c>
+      <c r="E1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1143" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>24,887</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>1,389</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
+      <c r="E1144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1144" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>21,428</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>+3.37%</t>
+        </is>
+      </c>
+      <c r="E1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1145" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>24,189</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>+2.71%</t>
+        </is>
+      </c>
+      <c r="E1146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>20,663</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>-0.31%</t>
+        </is>
+      </c>
+      <c r="E1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1147" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>18,200</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="E1148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1148" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>15,200</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>+0.86%</t>
+        </is>
+      </c>
+      <c r="E1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>14,485</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="E1150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>11,860</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>+0.81%</t>
+        </is>
+      </c>
+      <c r="E1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>14,337</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>-0.12%</t>
+        </is>
+      </c>
+      <c r="E1152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1152" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>11,202</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>+9.52%</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>12,474</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1154" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>10,910</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>+1.66%</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1155" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>11,882</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>+4.37%</t>
+        </is>
+      </c>
+      <c r="E1156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1156" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>9,619</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>1,930</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>-0.40%</t>
+        </is>
+      </c>
+      <c r="E1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1157" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>11,794</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1158" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>+2.79%</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1159" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>10,871</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1160" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>7,992</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>-2.29%</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1161" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>10,276</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>+3.66%</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1162" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>제이알글로벌리츠</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>7,799</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>1,661</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>+5.92%</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1163" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>10,092</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1164" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>7,115</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>+0.49%</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1165" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>10,048</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1166" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>6,972</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>9,843</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>+1.15%</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1168" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>TIGER 원유선물인버스(H)</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>6,145</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>1,783</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1169" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>7,835</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>+3.56%</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1170" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>5,095</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>1,056</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1171" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>7,451</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1172" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>5,089</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>+1.50%</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1173" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>7,407</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>+0.74%</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1174" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>4,956</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>-2.54%</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1175" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>7,079</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>+3.03%</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1176" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>4,954</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>+15.14%</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1177" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>삼성중공업</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>6,808</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>1,197</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1178" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>4,867</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>-2.32%</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1179" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>6,618</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>+2.79%</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1180" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>4,769</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>+2.22%</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1181" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>한국조선해양</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>6,134</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>-0.23%</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1182" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>4,210</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1183" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>5,904</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1184" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>4,113</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>+4.06%</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1185" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>5,841</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>+0.52%</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1186" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>3,822</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>-2.41%</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1187" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>5,785</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>+1.75%</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1188" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>3,795</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>+6.89%</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1189" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>5,052</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1190" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>3,692</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1191" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>오리온</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>4,538</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>+2.87%</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1192" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150레버리지</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>3,577</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>+4.30%</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>4,493</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2,840</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>+1.78%</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>4,228</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>+0.78%</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1196" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>135,436</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>2,424</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>-7.04%</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1197" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>333,227</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>5,959</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1198" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>30,485</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>+3.07%</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1199" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>31,813</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>25,823</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7,952</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>-0.61%</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>SK스퀘어</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>29,938</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>+5.65%</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>21,720</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>+7.55%</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1203" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>24,887</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>1,389</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1204" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>21,428</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>+3.37%</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1205" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>24,189</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>+2.71%</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1206" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>20,663</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>-0.31%</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1207" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>18,200</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1208" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>15,200</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>+0.86%</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1209" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>14,485</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>11,860</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>+0.81%</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>14,337</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>-0.12%</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>11,202</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>+9.52%</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>12,474</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>10,910</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>+1.66%</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1215" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>11,882</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>+4.37%</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1216" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>9,619</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>1,930</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>-0.40%</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>11,794</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>+2.79%</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>10,871</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>7,992</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>-2.29%</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1221" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>10,276</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>+3.66%</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>제이알글로벌리츠</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>7,799</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>1,661</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>+5.92%</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>10,092</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1224" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>7,115</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>+0.49%</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>10,048</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>6,972</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>9,843</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>+1.15%</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1228" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>TIGER 원유선물인버스(H)</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>6,145</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>1,783</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1229" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>7,835</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>+3.56%</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>5,095</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>1,056</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>7,451</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>5,089</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>+1.50%</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>7,407</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>+0.74%</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>4,956</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>-2.54%</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1235" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>7,079</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>+3.03%</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1236" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>4,954</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>+15.14%</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1237" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>삼성중공업</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>6,808</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>1,197</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1238" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>4,867</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>-2.32%</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1239" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>6,618</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>+2.79%</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1240" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>4,769</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>+2.22%</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1241" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>한국조선해양</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>6,134</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>-0.23%</t>
+        </is>
+      </c>
+      <c r="E1242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1242" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>4,210</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1243" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>5,904</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="E1244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1244" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>4,113</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>+4.06%</t>
+        </is>
+      </c>
+      <c r="E1245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1245" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>5,841</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>+0.52%</t>
+        </is>
+      </c>
+      <c r="E1246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1246" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>3,822</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>-2.41%</t>
+        </is>
+      </c>
+      <c r="E1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1247" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>5,785</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>+1.75%</t>
+        </is>
+      </c>
+      <c r="E1248" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1248" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>3,795</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>+6.89%</t>
+        </is>
+      </c>
+      <c r="E1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1249" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>5,052</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
+      <c r="E1250" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1250" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>3,692</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1251" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>오리온</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>4,538</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>+2.87%</t>
+        </is>
+      </c>
+      <c r="E1252" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1252" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150레버리지</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>3,577</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>+4.30%</t>
+        </is>
+      </c>
+      <c r="E1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1253" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>4,493</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="E1254" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1254" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>2,840</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>+1.78%</t>
+        </is>
+      </c>
+      <c r="E1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1255" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>4,228</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>+0.78%</t>
+        </is>
+      </c>
+      <c r="E1256" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>135,436</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>2,424</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>-7.21%</t>
+        </is>
+      </c>
+      <c r="E1257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>333,227</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>5,959</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>+4.14%</t>
+        </is>
+      </c>
+      <c r="E1258" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1258" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>30,485</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>+3.68%</t>
+        </is>
+      </c>
+      <c r="E1259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1259" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>31,813</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>+3.32%</t>
+        </is>
+      </c>
+      <c r="E1260" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1260" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>25,823</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>7,952</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>-4.61%</t>
+        </is>
+      </c>
+      <c r="E1261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1261" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>SK스퀘어</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>29,938</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>+1.19%</t>
+        </is>
+      </c>
+      <c r="E1262" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1262" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>21,720</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>+2.05%</t>
+        </is>
+      </c>
+      <c r="E1263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1263" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>24,887</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>1,389</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>+0.56%</t>
+        </is>
+      </c>
+      <c r="E1264" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1264" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>21,428</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>+1.55%</t>
+        </is>
+      </c>
+      <c r="E1265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1265" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>24,189</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>+0.26%</t>
+        </is>
+      </c>
+      <c r="E1266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>20,663</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>+0.62%</t>
+        </is>
+      </c>
+      <c r="E1267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1267" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>18,200</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>+3.11%</t>
+        </is>
+      </c>
+      <c r="E1268" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>15,200</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>-6.31%</t>
+        </is>
+      </c>
+      <c r="E1269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1269" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>14,485</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>+4.05%</t>
+        </is>
+      </c>
+      <c r="E1270" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1270" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>11,860</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>+2.56%</t>
+        </is>
+      </c>
+      <c r="E1271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1271" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>14,337</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>+1.36%</t>
+        </is>
+      </c>
+      <c r="E1272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1272" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>11,202</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>+4.17%</t>
+        </is>
+      </c>
+      <c r="E1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1273" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>12,474</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>+1.57%</t>
+        </is>
+      </c>
+      <c r="E1274" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1274" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>10,910</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>+5.78%</t>
+        </is>
+      </c>
+      <c r="E1275" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1275" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>11,882</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>+1.40%</t>
+        </is>
+      </c>
+      <c r="E1276" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>9,619</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>1,930</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>-2.31%</t>
+        </is>
+      </c>
+      <c r="E1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1277" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>11,794</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>+3.02%</t>
+        </is>
+      </c>
+      <c r="E1278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1278" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="E1279" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1279" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>10,871</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>+2.12%</t>
+        </is>
+      </c>
+      <c r="E1280" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1280" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>7,992</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>-1.95%</t>
+        </is>
+      </c>
+      <c r="E1281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1281" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>10,276</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>-1.95%</t>
+        </is>
+      </c>
+      <c r="E1282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1282" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>제이알글로벌리츠</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>7,799</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>1,661</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>+2.53%</t>
+        </is>
+      </c>
+      <c r="E1283" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1283" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>10,092</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>+2.96%</t>
+        </is>
+      </c>
+      <c r="E1284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1284" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>7,115</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>+4.76%</t>
+        </is>
+      </c>
+      <c r="E1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1285" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>10,048</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>+3.85%</t>
+        </is>
+      </c>
+      <c r="E1286" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1286" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>6,972</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>-9.56%</t>
+        </is>
+      </c>
+      <c r="E1287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1287" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>9,843</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>-2.51%</t>
+        </is>
+      </c>
+      <c r="E1288" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1288" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>TIGER 원유선물인버스(H)</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>6,145</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>1,783</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>-5.65%</t>
+        </is>
+      </c>
+      <c r="E1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1289" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>7,835</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>-4.58%</t>
+        </is>
+      </c>
+      <c r="E1290" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1290" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>5,095</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>1,056</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>+5.59%</t>
+        </is>
+      </c>
+      <c r="E1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1291" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>7,451</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>+0.16%</t>
+        </is>
+      </c>
+      <c r="E1292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1292" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>5,089</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>+2.95%</t>
+        </is>
+      </c>
+      <c r="E1293" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1293" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>7,407</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>+2.65%</t>
+        </is>
+      </c>
+      <c r="E1294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1294" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>4,956</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>-2.81%</t>
+        </is>
+      </c>
+      <c r="E1295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1295" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>7,079</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>-1.47%</t>
+        </is>
+      </c>
+      <c r="E1296" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>4,954</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>+5.71%</t>
+        </is>
+      </c>
+      <c r="E1297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>삼성중공업</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>6,808</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>1,197</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1298" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1298" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>4,867</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>+1.87%</t>
+        </is>
+      </c>
+      <c r="E1299" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>6,618</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>-1.36%</t>
+        </is>
+      </c>
+      <c r="E1300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>4,769</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>+2.76%</t>
+        </is>
+      </c>
+      <c r="E1301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>한국조선해양</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>6,134</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>-1.25%</t>
+        </is>
+      </c>
+      <c r="E1302" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1302" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>4,210</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>+5.41%</t>
+        </is>
+      </c>
+      <c r="E1303" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1303" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>5,904</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>+1.70%</t>
+        </is>
+      </c>
+      <c r="E1304" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>4,113</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>+1.74%</t>
+        </is>
+      </c>
+      <c r="E1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>5,841</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>+2.95%</t>
+        </is>
+      </c>
+      <c r="E1306" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>3,822</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>+0.11%</t>
+        </is>
+      </c>
+      <c r="E1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>5,785</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>+1.29%</t>
+        </is>
+      </c>
+      <c r="E1308" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>3,795</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1309" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>5,052</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1310" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>3,692</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>+3.75%</t>
+        </is>
+      </c>
+      <c r="E1311" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>오리온</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>4,538</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>+2.17%</t>
+        </is>
+      </c>
+      <c r="E1312" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150레버리지</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>3,577</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>+5.92%</t>
+        </is>
+      </c>
+      <c r="E1313" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1313" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>4,493</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>+3.24%</t>
+        </is>
+      </c>
+      <c r="E1314" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1314" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>2,840</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>+4.75%</t>
+        </is>
+      </c>
+      <c r="E1315" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>4,228</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>+1.55%</t>
+        </is>
+      </c>
+      <c r="E1316" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1316" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4405,7 +4405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1316"/>
+  <dimension ref="A1:F1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
@@ -43810,6 +43810,1806 @@
       <c r="F1316" t="inlineStr">
         <is>
           <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>75,696</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>1,313</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>-2.93%</t>
+        </is>
+      </c>
+      <c r="E1317" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1317" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>49,563</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>16,026</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>+5.74%</t>
+        </is>
+      </c>
+      <c r="E1318" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1318" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>59,137</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>-1.50%</t>
+        </is>
+      </c>
+      <c r="E1319" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1319" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>46,715</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>-4.71%</t>
+        </is>
+      </c>
+      <c r="E1320" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1320" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>58,168</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>-0.40%</t>
+        </is>
+      </c>
+      <c r="E1321" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>22,981</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>-1.51%</t>
+        </is>
+      </c>
+      <c r="E1322" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1322" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>54,559</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>-5.08%</t>
+        </is>
+      </c>
+      <c r="E1323" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>21,020</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>1,168</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>-2.51%</t>
+        </is>
+      </c>
+      <c r="E1324" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>50,958</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>-3.27%</t>
+        </is>
+      </c>
+      <c r="E1325" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1325" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>13,571</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>-1.21%</t>
+        </is>
+      </c>
+      <c r="E1326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1326" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>26,729</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1327" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1327" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>한미약품</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>13,273</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>-4.59%</t>
+        </is>
+      </c>
+      <c r="E1328" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1328" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>26,283</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>-3.02%</t>
+        </is>
+      </c>
+      <c r="E1329" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1329" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>11,204</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>-1.35%</t>
+        </is>
+      </c>
+      <c r="E1330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1330" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>24,141</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>-2.26%</t>
+        </is>
+      </c>
+      <c r="E1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1331" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>8,652</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>-3.38%</t>
+        </is>
+      </c>
+      <c r="E1332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1332" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>21,633</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>-4.29%</t>
+        </is>
+      </c>
+      <c r="E1333" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1333" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>8,589</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="E1334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1334" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>19,762</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>+1.34%</t>
+        </is>
+      </c>
+      <c r="E1335" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1335" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>8,042</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>-1.23%</t>
+        </is>
+      </c>
+      <c r="E1336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1336" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>18,866</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>-4.86%</t>
+        </is>
+      </c>
+      <c r="E1337" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1337" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>7,668</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>-2.07%</t>
+        </is>
+      </c>
+      <c r="E1338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1338" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>12,187</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>-2.46%</t>
+        </is>
+      </c>
+      <c r="E1339" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1339" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>삼성중공업</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>7,390</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>1,298</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>-2.11%</t>
+        </is>
+      </c>
+      <c r="E1340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1340" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>12,002</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>-2.58%</t>
+        </is>
+      </c>
+      <c r="E1341" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1341" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>6,951</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>-1.61%</t>
+        </is>
+      </c>
+      <c r="E1342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1342" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>11,492</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>-1.55%</t>
+        </is>
+      </c>
+      <c r="E1343" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1343" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>6,754</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>-2.07%</t>
+        </is>
+      </c>
+      <c r="E1344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1344" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>9,787</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>-0.24%</t>
+        </is>
+      </c>
+      <c r="E1345" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1345" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>한국조선해양</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>6,284</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>-2.38%</t>
+        </is>
+      </c>
+      <c r="E1346" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1346" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>9,252</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>-5.77%</t>
+        </is>
+      </c>
+      <c r="E1347" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1347" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>롯데케미칼</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>5,980</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>-3.10%</t>
+        </is>
+      </c>
+      <c r="E1348" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1348" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>9,002</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>-0.57%</t>
+        </is>
+      </c>
+      <c r="E1349" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1349" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>5,712</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>-2.61%</t>
+        </is>
+      </c>
+      <c r="E1350" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1350" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>SK스퀘어</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>7,661</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>-0.46%</t>
+        </is>
+      </c>
+      <c r="E1351" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1351" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>5,490</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="E1352" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1352" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>7,522</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>-4.19%</t>
+        </is>
+      </c>
+      <c r="E1353" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1353" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>4,927</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>-4.57%</t>
+        </is>
+      </c>
+      <c r="E1354" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1354" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>6,992</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>-1.05%</t>
+        </is>
+      </c>
+      <c r="E1355" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1355" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>한미사이언스</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>4,739</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>-6.07%</t>
+        </is>
+      </c>
+      <c r="E1356" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1356" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>6,952</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>-3.74%</t>
+        </is>
+      </c>
+      <c r="E1357" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1357" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>4,638</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>-2.15%</t>
+        </is>
+      </c>
+      <c r="E1358" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1358" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>5,361</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>-4.06%</t>
+        </is>
+      </c>
+      <c r="E1359" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1359" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>4,583</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>-3.72%</t>
+        </is>
+      </c>
+      <c r="E1360" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1360" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>현대미포조선</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>5,346</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>-1.39%</t>
+        </is>
+      </c>
+      <c r="E1361" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1361" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>F&amp;F</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>4,158</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>-2.65%</t>
+        </is>
+      </c>
+      <c r="E1362" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1362" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>5,202</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>1,073</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>+3.83%</t>
+        </is>
+      </c>
+      <c r="E1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1363" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>4,051</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>-3.90%</t>
+        </is>
+      </c>
+      <c r="E1364" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1364" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>4,788</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>-2.03%</t>
+        </is>
+      </c>
+      <c r="E1365" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1365" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>3,979</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>-1.56%</t>
+        </is>
+      </c>
+      <c r="E1366" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1366" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>4,339</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="E1367" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1367" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>현대중공업</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>3,846</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>-1.57%</t>
+        </is>
+      </c>
+      <c r="E1368" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1368" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>삼성에스디에스</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>4,217</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="E1369" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1369" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>3,814</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>+3.39%</t>
+        </is>
+      </c>
+      <c r="E1370" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1370" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>4,155</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>-2.61%</t>
+        </is>
+      </c>
+      <c r="E1371" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1371" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>BGF리테일</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>3,673</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>-1.61%</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1372" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>4,087</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>-2.54%</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1373" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>3,261</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>-1.25%</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1374" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>4,087</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>-2.12%</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1375" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>3,110</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>-2.98%</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1376" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4412,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1076"/>
+  <dimension ref="A1:F1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -34820,8 +34820,6 @@
         </is>
       </c>
     </row>
-    <row r="1015"/>
-    <row r="1016"/>
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
@@ -36619,6 +36617,9006 @@
       <c r="F1076" t="inlineStr">
         <is>
           <t>2022-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>34,106</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
+      </c>
+      <c r="E1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>159,403</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>2,832</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>-0.36%</t>
+        </is>
+      </c>
+      <c r="E1078" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>21,713</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>-1.85%</t>
+        </is>
+      </c>
+      <c r="E1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>34,447</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>-2.62%</t>
+        </is>
+      </c>
+      <c r="E1080" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>20,628</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>-4.58%</t>
+        </is>
+      </c>
+      <c r="E1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>28,576</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>-1.33%</t>
+        </is>
+      </c>
+      <c r="E1082" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>17,480</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1083" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>26,648</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>1,492</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>+0.28%</t>
+        </is>
+      </c>
+      <c r="E1084" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>15,276</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>+1.26%</t>
+        </is>
+      </c>
+      <c r="E1085" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>16,524</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="E1086" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>현대에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>11,848</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>-3.20%</t>
+        </is>
+      </c>
+      <c r="E1087" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>15,208</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>-0.63%</t>
+        </is>
+      </c>
+      <c r="E1088" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>10,534</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>+0.18%</t>
+        </is>
+      </c>
+      <c r="E1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>13,521</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="E1090" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>9,370</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>-2.23%</t>
+        </is>
+      </c>
+      <c r="E1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>13,145</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>-1.89%</t>
+        </is>
+      </c>
+      <c r="E1092" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>8,700</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>+1.13%</t>
+        </is>
+      </c>
+      <c r="E1093" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>12,770</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>-3.49%</t>
+        </is>
+      </c>
+      <c r="E1094" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>6,789</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
+        </is>
+      </c>
+      <c r="E1095" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>-1.79%</t>
+        </is>
+      </c>
+      <c r="E1096" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>6,663</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1097" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>9,364</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>-0.77%</t>
+        </is>
+      </c>
+      <c r="E1098" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>6,158</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>-2.80%</t>
+        </is>
+      </c>
+      <c r="E1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>8,775</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>-1.94%</t>
+        </is>
+      </c>
+      <c r="E1100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>5,199</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
+        </is>
+      </c>
+      <c r="E1101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>7,231</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>+0.20%</t>
+        </is>
+      </c>
+      <c r="E1102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>5,122</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>-4.56%</t>
+        </is>
+      </c>
+      <c r="E1103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>6,847</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
+        </is>
+      </c>
+      <c r="E1104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>4,624</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="E1105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>6,489</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>-3.33%</t>
+        </is>
+      </c>
+      <c r="E1106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>SK스퀘어</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>4,486</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>-2.23%</t>
+        </is>
+      </c>
+      <c r="E1107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>6,469</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>1,308</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>+0.91%</t>
+        </is>
+      </c>
+      <c r="E1108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>TIGER 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>4,260</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>1,279</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>+1.78%</t>
+        </is>
+      </c>
+      <c r="E1109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>5,559</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>KCC</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>4,192</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>-2.28%</t>
+        </is>
+      </c>
+      <c r="E1111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1111" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>5,135</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>1,023</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>+0.89%</t>
+        </is>
+      </c>
+      <c r="E1112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1112" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>효성첨단소재</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>4,119</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>-3.18%</t>
+        </is>
+      </c>
+      <c r="E1113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1113" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>두산퓨얼셀</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>4,823</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>+0.15%</t>
+        </is>
+      </c>
+      <c r="E1114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1114" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>3,777</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>1,270</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>+1.87%</t>
+        </is>
+      </c>
+      <c r="E1115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1115" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>4,169</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>+1.94%</t>
+        </is>
+      </c>
+      <c r="E1116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1116" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>대우조선해양</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>3,727</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>+0.50%</t>
+        </is>
+      </c>
+      <c r="E1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>3,919</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>-3.24%</t>
+        </is>
+      </c>
+      <c r="E1118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>제이알글로벌리츠</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>3,725</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
+      <c r="E1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1119" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>3,815</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>-1.76%</t>
+        </is>
+      </c>
+      <c r="E1120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1120" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>3,717</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1121" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>3,793</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>+1.24%</t>
+        </is>
+      </c>
+      <c r="E1122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1122" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>3,527</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>+1.00%</t>
+        </is>
+      </c>
+      <c r="E1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1123" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>만도</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>3,556</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>+0.40%</t>
+        </is>
+      </c>
+      <c r="E1124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1124" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>3,442</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>-1.28%</t>
+        </is>
+      </c>
+      <c r="E1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1125" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>한국가스공사</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>3,464</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>-0.79%</t>
+        </is>
+      </c>
+      <c r="E1126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1126" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>HD현대</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>3,123</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>-1.34%</t>
+        </is>
+      </c>
+      <c r="E1127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>3,163</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
+        </is>
+      </c>
+      <c r="E1128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>솔루엠</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>3,062</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>-1.11%</t>
+        </is>
+      </c>
+      <c r="E1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1129" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>3,132</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>+0.48%</t>
+        </is>
+      </c>
+      <c r="E1130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>두산밥캣</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>2,955</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>-1.37%</t>
+        </is>
+      </c>
+      <c r="E1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1131" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>현대제철</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>2,995</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>-1.29%</t>
+        </is>
+      </c>
+      <c r="E1132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>2,921</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>-0.16%</t>
+        </is>
+      </c>
+      <c r="E1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>2,816</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>-1.67%</t>
+        </is>
+      </c>
+      <c r="E1134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>한미글로벌</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>2,743</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>-2.08%</t>
+        </is>
+      </c>
+      <c r="E1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>두산</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>2,772</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>+6.97%</t>
+        </is>
+      </c>
+      <c r="E1136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1136" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>54,743</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>+1.52%</t>
+        </is>
+      </c>
+      <c r="E1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1137" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>41,274</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>-3.34%</t>
+        </is>
+      </c>
+      <c r="E1138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1138" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>19,858</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>-5.46%</t>
+        </is>
+      </c>
+      <c r="E1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1139" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>38,094</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="E1140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1140" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>18,381</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>+1.38%</t>
+        </is>
+      </c>
+      <c r="E1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1141" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>17,157</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>-2.52%</t>
+        </is>
+      </c>
+      <c r="E1142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1142" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>15,592</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="E1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1143" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>16,298</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>-6.23%</t>
+        </is>
+      </c>
+      <c r="E1144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1144" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>11,817</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>-1.63%</t>
+        </is>
+      </c>
+      <c r="E1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1145" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>14,521</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>+0.36%</t>
+        </is>
+      </c>
+      <c r="E1146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>11,217</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>-4.31%</t>
+        </is>
+      </c>
+      <c r="E1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1147" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>13,645</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>-5.84%</t>
+        </is>
+      </c>
+      <c r="E1148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1148" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>제이알글로벌리츠</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>9,515</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>1,960</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>-0.82%</t>
+        </is>
+      </c>
+      <c r="E1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>12,082</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>-2.44%</t>
+        </is>
+      </c>
+      <c r="E1150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>9,285</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>+0.48%</t>
+        </is>
+      </c>
+      <c r="E1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>11,916</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>-15.02%</t>
+        </is>
+      </c>
+      <c r="E1152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1152" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>9,234</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>+0.72%</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>11,231</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>+0.39%</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1154" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>8,882</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>+0.97%</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1155" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>11,100</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>-8.30%</t>
+        </is>
+      </c>
+      <c r="E1156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1156" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>6,893</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>-2.79%</t>
+        </is>
+      </c>
+      <c r="E1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1157" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>11,021</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>-3.79%</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1158" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>6,679</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>-1.87%</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1159" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>현대제철</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>10,488</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1160" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>6,343</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>+3.27%</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1161" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>10,454</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>3,255</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>+1.56%</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1162" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>삼성에스디에스</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>6,176</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>+0.82%</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1163" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>10,445</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>-4.05%</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1164" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>6,147</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>-2.14%</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1165" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>10,425</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>-1.52%</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1166" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>6,099</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>9,079</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>-0.58%</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1168" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>5,589</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>-2.90%</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1169" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>9,071</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>-0.85%</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1170" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>5,472</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1171" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>F&amp;F</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>7,916</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>+2.33%</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1172" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>현대글로비스</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>5,279</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1173" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>6,009</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>-3.71%</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1174" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>5,082</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>+0.55%</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1175" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>동국제강</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>5,540</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>+1.00%</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1176" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>5,032</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>+1.01%</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1177" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>5,537</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1178" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>4,186</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>+0.85%</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1179" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>5,173</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>-1.81%</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1180" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>4,168</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>-0.14%</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1181" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>효성첨단소재</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>4,936</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>-3.54%</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1182" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>4,150</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>-3.50%</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1183" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>4,582</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>-2.33%</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1184" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>3,732</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>-2.79%</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1185" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>3,892</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>-0.14%</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1186" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>두산밥캣</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>3,371</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1187" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>3,834</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>+0.90%</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1188" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>LG유플러스</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>3,242</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>+1.78%</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1189" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>CJ제일제당</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>3,711</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1190" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>3,184</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>-2.87%</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1191" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>코오롱인더</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>3,409</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>-3.70%</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1192" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>3,153</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>TIGER 원유선물Enhanced(H)</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>3,214</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>-3.23%</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>3,064</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>-1.89%</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>KCC</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>3,087</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>-5.45%</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1196" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>54,743</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>+1.52%</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1197" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>41,274</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>-3.34%</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1198" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>19,858</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>-5.46%</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1199" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>38,094</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>18,381</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>+1.38%</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>17,157</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>-2.52%</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>15,592</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1203" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>16,298</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>-6.23%</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1204" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>11,817</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>-1.63%</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1205" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>14,521</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>+0.36%</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1206" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>11,217</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>-4.31%</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1207" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>13,645</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>-5.84%</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1208" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>제이알글로벌리츠</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>9,515</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>1,960</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>-0.82%</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1209" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>12,082</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>-2.44%</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>9,285</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>+0.48%</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>11,916</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>-15.02%</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>9,234</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>+0.72%</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>11,231</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>+0.39%</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>8,882</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>+0.97%</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1215" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>11,100</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>-8.30%</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1216" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>6,893</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>-2.79%</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>11,021</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>-3.79%</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>6,679</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>-1.87%</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>현대제철</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>10,488</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>6,343</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>+3.27%</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1221" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>10,454</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>3,255</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>+1.56%</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>삼성에스디에스</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>6,176</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>+0.82%</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>10,445</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>-4.05%</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1224" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>6,147</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>-2.14%</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>10,425</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>-1.52%</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>6,099</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>9,079</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>-0.58%</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1228" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>5,589</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>-2.90%</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1229" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>9,071</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>-0.85%</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>5,472</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>F&amp;F</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>7,916</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>+2.33%</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>현대글로비스</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>5,279</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>6,009</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>-3.71%</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>5,082</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>+0.55%</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1235" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>동국제강</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>5,540</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>+1.00%</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1236" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>5,032</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>+1.01%</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1237" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>5,537</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1238" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>4,186</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>+0.85%</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1239" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>5,173</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>-1.81%</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1240" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>4,168</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>-0.14%</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1241" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>효성첨단소재</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>4,936</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>-3.54%</t>
+        </is>
+      </c>
+      <c r="E1242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1242" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>4,150</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>-3.50%</t>
+        </is>
+      </c>
+      <c r="E1243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1243" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>4,582</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>-2.33%</t>
+        </is>
+      </c>
+      <c r="E1244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1244" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>3,732</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>-2.79%</t>
+        </is>
+      </c>
+      <c r="E1245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1245" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>3,892</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>-0.14%</t>
+        </is>
+      </c>
+      <c r="E1246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1246" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>두산밥캣</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>3,371</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="E1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1247" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>3,834</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>+0.90%</t>
+        </is>
+      </c>
+      <c r="E1248" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1248" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>LG유플러스</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>3,242</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>+1.78%</t>
+        </is>
+      </c>
+      <c r="E1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1249" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>CJ제일제당</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>3,711</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
+      </c>
+      <c r="E1250" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1250" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>3,184</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>-2.87%</t>
+        </is>
+      </c>
+      <c r="E1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1251" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>코오롱인더</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>3,409</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>-3.70%</t>
+        </is>
+      </c>
+      <c r="E1252" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1252" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>3,153</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1253" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>TIGER 원유선물Enhanced(H)</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>3,214</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>-3.23%</t>
+        </is>
+      </c>
+      <c r="E1254" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1254" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>3,064</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>-1.89%</t>
+        </is>
+      </c>
+      <c r="E1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1255" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>KCC</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>3,087</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>-5.45%</t>
+        </is>
+      </c>
+      <c r="E1256" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>54,743</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>-1.24%</t>
+        </is>
+      </c>
+      <c r="E1257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>41,274</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>+0.90%</t>
+        </is>
+      </c>
+      <c r="E1258" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1258" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>19,858</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>+0.81%</t>
+        </is>
+      </c>
+      <c r="E1259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1259" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>38,094</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>+0.11%</t>
+        </is>
+      </c>
+      <c r="E1260" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1260" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>18,381</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="E1261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1261" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>17,157</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>-3.07%</t>
+        </is>
+      </c>
+      <c r="E1262" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1262" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>15,592</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>-1.53%</t>
+        </is>
+      </c>
+      <c r="E1263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1263" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>16,298</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="E1264" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1264" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>11,817</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>-0.04%</t>
+        </is>
+      </c>
+      <c r="E1265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1265" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>14,521</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>+1.25%</t>
+        </is>
+      </c>
+      <c r="E1266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>11,217</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>+1.13%</t>
+        </is>
+      </c>
+      <c r="E1267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1267" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>13,645</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>+1.58%</t>
+        </is>
+      </c>
+      <c r="E1268" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>제이알글로벌리츠</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>9,515</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>1,960</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
+      <c r="E1269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1269" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>12,082</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>-0.68%</t>
+        </is>
+      </c>
+      <c r="E1270" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1270" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>9,285</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
+        </is>
+      </c>
+      <c r="E1271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1271" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>11,916</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>-1.57%</t>
+        </is>
+      </c>
+      <c r="E1272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1272" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>9,234</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>+0.36%</t>
+        </is>
+      </c>
+      <c r="E1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1273" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>11,231</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>-1.16%</t>
+        </is>
+      </c>
+      <c r="E1274" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1274" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>8,882</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>-2.12%</t>
+        </is>
+      </c>
+      <c r="E1275" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1275" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>11,100</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>-0.90%</t>
+        </is>
+      </c>
+      <c r="E1276" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>6,893</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
+      <c r="E1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1277" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>11,021</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>-2.76%</t>
+        </is>
+      </c>
+      <c r="E1278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1278" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>6,679</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>-0.38%</t>
+        </is>
+      </c>
+      <c r="E1279" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1279" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>현대제철</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>10,488</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>-1.73%</t>
+        </is>
+      </c>
+      <c r="E1280" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1280" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>6,343</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>-3.96%</t>
+        </is>
+      </c>
+      <c r="E1281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1281" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>10,454</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>3,255</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1282" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>삼성에스디에스</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>6,176</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>-1.22%</t>
+        </is>
+      </c>
+      <c r="E1283" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1283" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>10,445</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
+        </is>
+      </c>
+      <c r="E1284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1284" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>6,147</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="E1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1285" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>10,425</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>+0.66%</t>
+        </is>
+      </c>
+      <c r="E1286" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1286" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>6,099</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
+      <c r="E1287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1287" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>9,079</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>+0.78%</t>
+        </is>
+      </c>
+      <c r="E1288" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1288" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>5,589</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="E1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1289" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>9,071</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>-2.56%</t>
+        </is>
+      </c>
+      <c r="E1290" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1290" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>5,472</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="E1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1291" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>F&amp;F</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>7,916</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>+0.32%</t>
+        </is>
+      </c>
+      <c r="E1292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1292" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>현대글로비스</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>5,279</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>-2.49%</t>
+        </is>
+      </c>
+      <c r="E1293" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1293" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>6,009</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>-1.08%</t>
+        </is>
+      </c>
+      <c r="E1294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1294" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>5,082</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>-0.18%</t>
+        </is>
+      </c>
+      <c r="E1295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1295" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>동국제강</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>5,540</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>-5.94%</t>
+        </is>
+      </c>
+      <c r="E1296" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>5,032</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>-0.70%</t>
+        </is>
+      </c>
+      <c r="E1297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>5,537</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>-1.00%</t>
+        </is>
+      </c>
+      <c r="E1298" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1298" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>4,186</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1299" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>5,173</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>+0.26%</t>
+        </is>
+      </c>
+      <c r="E1300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>4,168</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>-3.26%</t>
+        </is>
+      </c>
+      <c r="E1301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>효성첨단소재</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>4,936</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="E1302" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1302" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>4,150</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>+1.57%</t>
+        </is>
+      </c>
+      <c r="E1303" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1303" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>4,582</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>+1.06%</t>
+        </is>
+      </c>
+      <c r="E1304" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>3,732</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
+      </c>
+      <c r="E1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>3,892</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="E1306" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>두산밥캣</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>3,371</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>-2.78%</t>
+        </is>
+      </c>
+      <c r="E1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>3,834</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1308" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>LG유플러스</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>3,242</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E1309" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>CJ제일제당</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>3,711</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>+2.46%</t>
+        </is>
+      </c>
+      <c r="E1310" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>3,184</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>-1.58%</t>
+        </is>
+      </c>
+      <c r="E1311" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>코오롱인더</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>3,409</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>-1.73%</t>
+        </is>
+      </c>
+      <c r="E1312" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>3,153</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>-5.02%</t>
+        </is>
+      </c>
+      <c r="E1313" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1313" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>TIGER 원유선물Enhanced(H)</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>3,214</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>+0.65%</t>
+        </is>
+      </c>
+      <c r="E1314" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1314" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>3,064</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1315" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>KCC</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>3,087</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>-1.86%</t>
+        </is>
+      </c>
+      <c r="E1316" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1316" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>31,806</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>+2.18%</t>
+        </is>
+      </c>
+      <c r="E1317" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1317" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>40,192</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
+      </c>
+      <c r="E1318" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1318" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>21,062</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>+1.48%</t>
+        </is>
+      </c>
+      <c r="E1319" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1319" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>26,768</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>+2.25%</t>
+        </is>
+      </c>
+      <c r="E1320" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1320" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>20,735</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>+1.22%</t>
+        </is>
+      </c>
+      <c r="E1321" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>25,500</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
+        </is>
+      </c>
+      <c r="E1322" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1322" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>16,916</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1323" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>17,327</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>+1.25%</t>
+        </is>
+      </c>
+      <c r="E1324" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>15,637</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="E1325" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1325" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>14,109</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>+0.22%</t>
+        </is>
+      </c>
+      <c r="E1326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1326" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>14,470</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>+1.09%</t>
+        </is>
+      </c>
+      <c r="E1327" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1327" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>10,869</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>+0.76%</t>
+        </is>
+      </c>
+      <c r="E1328" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1328" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>12,831</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E1329" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1329" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>8,532</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>+1.49%</t>
+        </is>
+      </c>
+      <c r="E1330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1330" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>10,706</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1331" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>8,387</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="E1332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1332" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>9,648</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
+      <c r="E1333" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1333" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>7,177</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
+      <c r="E1334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1334" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>9,530</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>+0.87%</t>
+        </is>
+      </c>
+      <c r="E1335" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1335" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>6,375</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>+1.99%</t>
+        </is>
+      </c>
+      <c r="E1336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1336" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>9,379</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>+0.75%</t>
+        </is>
+      </c>
+      <c r="E1337" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1337" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>한국조선해양</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>6,321</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>+1.58%</t>
+        </is>
+      </c>
+      <c r="E1338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1338" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>8,615</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>2,637</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>-1.21%</t>
+        </is>
+      </c>
+      <c r="E1339" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1339" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>6,074</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
+      </c>
+      <c r="E1340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1340" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>현대중공업</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>8,605</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>+2.16%</t>
+        </is>
+      </c>
+      <c r="E1341" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1341" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>5,319</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>+3.59%</t>
+        </is>
+      </c>
+      <c r="E1342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1342" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>8,222</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>+0.85%</t>
+        </is>
+      </c>
+      <c r="E1343" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1343" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>현대글로비스</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>5,260</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>+4.35%</t>
+        </is>
+      </c>
+      <c r="E1344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1344" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>7,790</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>+1.26%</t>
+        </is>
+      </c>
+      <c r="E1345" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1345" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>5,105</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>+4.25%</t>
+        </is>
+      </c>
+      <c r="E1346" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1346" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>7,616</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>+0.83%</t>
+        </is>
+      </c>
+      <c r="E1347" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1347" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>5,087</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>+0.83%</t>
+        </is>
+      </c>
+      <c r="E1348" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1348" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>7,451</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>+4.11%</t>
+        </is>
+      </c>
+      <c r="E1349" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1349" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>두산</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>4,783</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>+4.34%</t>
+        </is>
+      </c>
+      <c r="E1350" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1350" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>6,241</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>+0.69%</t>
+        </is>
+      </c>
+      <c r="E1351" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1351" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>4,716</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>+1.82%</t>
+        </is>
+      </c>
+      <c r="E1352" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1352" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>현대에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>5,942</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>+3.18%</t>
+        </is>
+      </c>
+      <c r="E1353" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1353" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>4,564</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>+1.04%</t>
+        </is>
+      </c>
+      <c r="E1354" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1354" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>5,110</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>-1.79%</t>
+        </is>
+      </c>
+      <c r="E1355" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1355" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>3,559</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>+0.19%</t>
+        </is>
+      </c>
+      <c r="E1356" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1356" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>4,602</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>+1.54%</t>
+        </is>
+      </c>
+      <c r="E1357" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1357" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>3,453</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
+      <c r="E1358" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1358" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>4,359</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>-1.05%</t>
+        </is>
+      </c>
+      <c r="E1359" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1359" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>태경비케이</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>3,272</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>+1.82%</t>
+        </is>
+      </c>
+      <c r="E1360" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1360" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>4,199</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>+0.52%</t>
+        </is>
+      </c>
+      <c r="E1361" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1361" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>DL이앤씨</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>3,040</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>+3.01%</t>
+        </is>
+      </c>
+      <c r="E1362" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1362" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>3,921</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1363" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>현대건설</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>2,963</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>+1.96%</t>
+        </is>
+      </c>
+      <c r="E1364" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1364" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>현대일렉트릭</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>3,917</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>+1.31%</t>
+        </is>
+      </c>
+      <c r="E1365" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1365" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>삼성중공업</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>2,616</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>+0.55%</t>
+        </is>
+      </c>
+      <c r="E1366" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1366" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>3,890</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>+0.56%</t>
+        </is>
+      </c>
+      <c r="E1367" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1367" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>F&amp;F</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>2,569</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>+3.64%</t>
+        </is>
+      </c>
+      <c r="E1368" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1368" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>삼성엔지니어링</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>3,542</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>+5.29%</t>
+        </is>
+      </c>
+      <c r="E1369" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1369" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>호텔신라</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>2,537</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>+1.77%</t>
+        </is>
+      </c>
+      <c r="E1370" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1370" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>3,492</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>+3.35%</t>
+        </is>
+      </c>
+      <c r="E1371" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1371" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>2,474</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>+1.70%</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1372" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>현대미포조선</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>3,251</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>+0.62%</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1373" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>한세실업</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>2,442</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>+0.31%</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1374" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>한미글로벌</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>3,050</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>+0.69%</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1375" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>2,280</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>-2.87%</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1376" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4412,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1736"/>
+  <dimension ref="A1:F1796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -56417,6 +56417,1806 @@
       <c r="F1736" t="inlineStr">
         <is>
           <t>2022-09-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>68,498</t>
+        </is>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>1,019</t>
+        </is>
+      </c>
+      <c r="D1737" t="inlineStr">
+        <is>
+          <t>+0.15%</t>
+        </is>
+      </c>
+      <c r="E1737" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1737" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>117,958</t>
+        </is>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>2,194</t>
+        </is>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>+0.19%</t>
+        </is>
+      </c>
+      <c r="E1738" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1738" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>TIGER MSCI Korea TR</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>47,583</t>
+        </is>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
+      </c>
+      <c r="E1739" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1739" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>44,738</t>
+        </is>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D1740" t="inlineStr">
+        <is>
+          <t>-7.55%</t>
+        </is>
+      </c>
+      <c r="E1740" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1740" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>43,696</t>
+        </is>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>+3.34%</t>
+        </is>
+      </c>
+      <c r="E1741" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1741" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>32,812</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>+0.41%</t>
+        </is>
+      </c>
+      <c r="E1742" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1742" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>26,511</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>+1.51%</t>
+        </is>
+      </c>
+      <c r="E1743" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1743" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>24,120</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>+1.34%</t>
+        </is>
+      </c>
+      <c r="E1744" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1744" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>25,622</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
+      <c r="E1745" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1745" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>22,321</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>+0.18%</t>
+        </is>
+      </c>
+      <c r="E1746" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1746" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>17,924</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>+0.41%</t>
+        </is>
+      </c>
+      <c r="E1747" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1747" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>19,592</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>-2.69%</t>
+        </is>
+      </c>
+      <c r="E1748" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1748" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>17,564</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>+0.34%</t>
+        </is>
+      </c>
+      <c r="E1749" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1749" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>19,498</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>+1.37%</t>
+        </is>
+      </c>
+      <c r="E1750" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1750" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>15,282</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>+9.09%</t>
+        </is>
+      </c>
+      <c r="E1751" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1751" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>16,622</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>+1.60%</t>
+        </is>
+      </c>
+      <c r="E1752" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1752" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>13,021</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>+1.50%</t>
+        </is>
+      </c>
+      <c r="E1753" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1753" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>13,641</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
+      </c>
+      <c r="E1754" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1754" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>11,967</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
+        </is>
+      </c>
+      <c r="E1755" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1755" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>13,139</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>+0.24%</t>
+        </is>
+      </c>
+      <c r="E1756" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1756" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>11,418</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>-1.24%</t>
+        </is>
+      </c>
+      <c r="E1757" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1757" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>TIGER 원유선물Enhanced(H)</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>12,539</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>2,910</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1758" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>10,649</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>+0.12%</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1759" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>11,763</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>-1.56%</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1760" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>한화시스템</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>9,082</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>-2.44%</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1761" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>9,750</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>2,691</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1762" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>8,932</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>-1.84%</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1763" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>8,436</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>+4.82%</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1764" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>8,728</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>+0.95%</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1765" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>7,893</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1766" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>8,704</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>+2.86%</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1767" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>대우조선해양</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>7,746</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>-14.83%</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1768" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>8,659</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>+0.35%</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1769" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>7,593</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>-0.67%</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1770" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>현대에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>8,505</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>+1.11%</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1771" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>삼성엔지니어링</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>7,320</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>+2.06%</t>
+        </is>
+      </c>
+      <c r="E1772" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1772" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>8,244</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1773" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>6,260</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>+0.16%</t>
+        </is>
+      </c>
+      <c r="E1774" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1774" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>7,734</t>
+        </is>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>+0.91%</t>
+        </is>
+      </c>
+      <c r="E1775" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1775" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>5,472</t>
+        </is>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>-1.31%</t>
+        </is>
+      </c>
+      <c r="E1776" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1776" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>7,665</t>
+        </is>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>+0.63%</t>
+        </is>
+      </c>
+      <c r="E1777" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1777" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>삼천리</t>
+        </is>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>5,061</t>
+        </is>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>-0.79%</t>
+        </is>
+      </c>
+      <c r="E1778" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1778" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>7,575</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>+0.84%</t>
+        </is>
+      </c>
+      <c r="E1779" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1779" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>CJ제일제당</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>4,137</t>
+        </is>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="E1780" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1780" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>7,184</t>
+        </is>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="E1781" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1781" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>한국조선해양</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>4,088</t>
+        </is>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1782" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1782" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>6,716</t>
+        </is>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>+3.83%</t>
+        </is>
+      </c>
+      <c r="E1783" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1783" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>호텔신라</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>4,058</t>
+        </is>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>+0.69%</t>
+        </is>
+      </c>
+      <c r="E1784" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1784" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>6,329</t>
+        </is>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>+3.21%</t>
+        </is>
+      </c>
+      <c r="E1785" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1785" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>삼성증권</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>4,042</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>+0.16%</t>
+        </is>
+      </c>
+      <c r="E1786" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1786" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>6,194</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>+2.58%</t>
+        </is>
+      </c>
+      <c r="E1787" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1787" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>강원랜드</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>3,992</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>+1.42%</t>
+        </is>
+      </c>
+      <c r="E1788" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1788" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>6,186</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>+1.11%</t>
+        </is>
+      </c>
+      <c r="E1789" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1789" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>3,795</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1790" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1790" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>5,918</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>+1.58%</t>
+        </is>
+      </c>
+      <c r="E1791" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1791" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>3,644</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>+0.05%</t>
+        </is>
+      </c>
+      <c r="E1792" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1792" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>5,329</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>+1.32%</t>
+        </is>
+      </c>
+      <c r="E1793" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1793" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>3,509</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>-0.85%</t>
+        </is>
+      </c>
+      <c r="E1794" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1794" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>현대일렉트릭</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>5,066</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>+0.17%</t>
+        </is>
+      </c>
+      <c r="E1795" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1795" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>3,405</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>-1.09%</t>
+        </is>
+      </c>
+      <c r="E1796" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1796" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4412,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1796"/>
+  <dimension ref="A1:F1856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -58217,6 +58217,1806 @@
       <c r="F1796" t="inlineStr">
         <is>
           <t>2022-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>32,293</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>+2.31%</t>
+        </is>
+      </c>
+      <c r="E1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1797" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>73,527</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>1,365</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>-0.55%</t>
+        </is>
+      </c>
+      <c r="E1798" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1798" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>12,262</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>-0.77%</t>
+        </is>
+      </c>
+      <c r="E1799" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1799" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>36,905</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>+1.46%</t>
+        </is>
+      </c>
+      <c r="E1800" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1800" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>한미사이언스</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>10,094</t>
+        </is>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>+1.71%</t>
+        </is>
+      </c>
+      <c r="E1801" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1801" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>32,466</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
+        </is>
+      </c>
+      <c r="E1802" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1802" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>8,624</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>-1.04%</t>
+        </is>
+      </c>
+      <c r="E1803" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1803" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>28,898</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="E1804" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1804" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>7,387</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
+      </c>
+      <c r="E1805" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1805" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>25,015</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>+1.58%</t>
+        </is>
+      </c>
+      <c r="E1806" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1806" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>7,371</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>1,950</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>+1.23%</t>
+        </is>
+      </c>
+      <c r="E1807" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1807" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>18,366</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>-1.02%</t>
+        </is>
+      </c>
+      <c r="E1808" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1808" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>6,767</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>+3.20%</t>
+        </is>
+      </c>
+      <c r="E1809" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1809" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>17,223</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>+0.32%</t>
+        </is>
+      </c>
+      <c r="E1810" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1810" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>이마트</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>5,829</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>+0.46%</t>
+        </is>
+      </c>
+      <c r="E1811" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1811" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>14,894</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>+0.62%</t>
+        </is>
+      </c>
+      <c r="E1812" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1812" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>5,294</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>-1.25%</t>
+        </is>
+      </c>
+      <c r="E1813" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1813" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>13,466</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>1,075</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>-1.11%</t>
+        </is>
+      </c>
+      <c r="E1814" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1814" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>오리온</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>5,189</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
+        </is>
+      </c>
+      <c r="E1815" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1815" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>13,336</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+      <c r="E1816" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1816" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>KODEX 삼성그룹</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>4,990</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
+      <c r="E1817" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1817" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>12,002</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>-3.37%</t>
+        </is>
+      </c>
+      <c r="E1818" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1818" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>4,984</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
+        </is>
+      </c>
+      <c r="E1819" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1819" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>11,607</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
+      </c>
+      <c r="E1820" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1820" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>4,220</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>-2.96%</t>
+        </is>
+      </c>
+      <c r="E1821" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1821" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>10,434</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>-1.37%</t>
+        </is>
+      </c>
+      <c r="E1822" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1822" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>4,172</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
+        </is>
+      </c>
+      <c r="E1823" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1823" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>두산</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>10,066</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>-3.04%</t>
+        </is>
+      </c>
+      <c r="E1824" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1824" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>TIGER 미국S&amp;P500</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>4,103</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="E1825" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1825" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>8,400</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>+0.67%</t>
+        </is>
+      </c>
+      <c r="E1826" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1826" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>3,847</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
+      </c>
+      <c r="E1827" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1827" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>7,780</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>+1.46%</t>
+        </is>
+      </c>
+      <c r="E1828" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1828" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>현대백화점</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>3,696</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>-2.36%</t>
+        </is>
+      </c>
+      <c r="E1829" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1829" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>5,887</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>-0.51%</t>
+        </is>
+      </c>
+      <c r="E1830" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1830" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>한화시스템</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>3,580</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>-2.48%</t>
+        </is>
+      </c>
+      <c r="E1831" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1831" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>대우조선해양</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>5,876</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>+0.98%</t>
+        </is>
+      </c>
+      <c r="E1832" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1832" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>삼양식품</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>3,237</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E1833" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1833" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>5,307</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>-1.30%</t>
+        </is>
+      </c>
+      <c r="E1834" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1834" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>TIGER 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>3,178</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>+1.04%</t>
+        </is>
+      </c>
+      <c r="E1835" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1835" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>BNK금융지주</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>5,196</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
+        </is>
+      </c>
+      <c r="E1836" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1836" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>3,172</t>
+        </is>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="E1837" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1837" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>4,624</t>
+        </is>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>-0.20%</t>
+        </is>
+      </c>
+      <c r="E1838" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1838" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>3,144</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>+0.47%</t>
+        </is>
+      </c>
+      <c r="E1839" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1839" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>한국조선해양</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>4,584</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>+0.13%</t>
+        </is>
+      </c>
+      <c r="E1840" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1840" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>후성</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>3,118</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>-0.39%</t>
+        </is>
+      </c>
+      <c r="E1841" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1841" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>4,306</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>-0.73%</t>
+        </is>
+      </c>
+      <c r="E1842" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1842" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>3,085</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>+0.46%</t>
+        </is>
+      </c>
+      <c r="E1843" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1843" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>씨에스윈드</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>3,901</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>+0.96%</t>
+        </is>
+      </c>
+      <c r="E1844" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1844" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>한전기술</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>3,082</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>+0.17%</t>
+        </is>
+      </c>
+      <c r="E1845" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1845" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>3,893</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>-1.90%</t>
+        </is>
+      </c>
+      <c r="E1846" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1846" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>3,081</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>+2.82%</t>
+        </is>
+      </c>
+      <c r="E1847" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1847" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>3,817</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>-1.00%</t>
+        </is>
+      </c>
+      <c r="E1848" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1848" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>2,964</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>+0.81%</t>
+        </is>
+      </c>
+      <c r="E1849" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1849" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>3,704</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>+0.61%</t>
+        </is>
+      </c>
+      <c r="E1850" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1850" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>2,891</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>+0.25%</t>
+        </is>
+      </c>
+      <c r="E1851" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1851" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>3,629</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>-2.26%</t>
+        </is>
+      </c>
+      <c r="E1852" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1852" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>KODEX WTI원유선물(H)</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>2,797</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>+0.40%</t>
+        </is>
+      </c>
+      <c r="E1853" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1853" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>3,584</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
+      </c>
+      <c r="E1854" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1854" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>한미약품</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>2,780</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1855" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1855" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>3,359</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
+      </c>
+      <c r="E1856" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1856" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4412,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1856"/>
+  <dimension ref="A1:F1916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -60017,6 +60017,1806 @@
       <c r="F1856" t="inlineStr">
         <is>
           <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>25,044</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>+1.72%</t>
+        </is>
+      </c>
+      <c r="E1857" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1857" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>129,112</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>2,439</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>+0.95%</t>
+        </is>
+      </c>
+      <c r="E1858" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1858" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>24,090</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>1,646</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>+2.04%</t>
+        </is>
+      </c>
+      <c r="E1859" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1859" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>29,271</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>+3.61%</t>
+        </is>
+      </c>
+      <c r="E1860" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1860" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>22,446</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>-0.58%</t>
+        </is>
+      </c>
+      <c r="E1861" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1861" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>27,115</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>+7.29%</t>
+        </is>
+      </c>
+      <c r="E1862" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1862" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>14,284</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1863" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>18,739</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>+0.95%</t>
+        </is>
+      </c>
+      <c r="E1864" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1864" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>13,651</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>+5.48%</t>
+        </is>
+      </c>
+      <c r="E1865" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1865" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>17,082</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>+2.77%</t>
+        </is>
+      </c>
+      <c r="E1866" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1866" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>11,214</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>+0.88%</t>
+        </is>
+      </c>
+      <c r="E1867" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1867" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>16,664</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>4,487</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>-3.13%</t>
+        </is>
+      </c>
+      <c r="E1868" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1868" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>9,062</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>+3.34%</t>
+        </is>
+      </c>
+      <c r="E1869" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1869" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>15,813</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>-1.17%</t>
+        </is>
+      </c>
+      <c r="E1870" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1870" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>8,645</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>+2.65%</t>
+        </is>
+      </c>
+      <c r="E1871" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1871" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>14,085</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>+2.13%</t>
+        </is>
+      </c>
+      <c r="E1872" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1872" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>8,528</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>+1.35%</t>
+        </is>
+      </c>
+      <c r="E1873" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1873" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>두산</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>11,421</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>+4.90%</t>
+        </is>
+      </c>
+      <c r="E1874" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1874" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>8,459</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>+1.13%</t>
+        </is>
+      </c>
+      <c r="E1875" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1875" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>9,476</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>+0.70%</t>
+        </is>
+      </c>
+      <c r="E1876" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1876" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>8,306</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E1877" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1877" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>9,257</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>+2.67%</t>
+        </is>
+      </c>
+      <c r="E1878" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1878" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>7,056</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>+4.26%</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1879" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>9,168</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>+1.49%</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1880" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>6,191</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>+1.57%</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1881" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>7,850</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>1,456</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>-1.57%</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1882" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>호텔신라</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>5,728</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>+2.60%</t>
+        </is>
+      </c>
+      <c r="E1883" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1883" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>7,798</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>+1.95%</t>
+        </is>
+      </c>
+      <c r="E1884" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1884" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>5,482</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>+1.81%</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1885" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>6,989</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>+0.14%</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1886" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>5,426</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>+2.40%</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1887" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>6,589</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>+3.73%</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1888" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>+1.37%</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1889" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>삼성중공업</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>6,581</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>1,218</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>+0.56%</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>대우조선해양</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>4,700</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>+1.30%</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>5,047</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>+1.55%</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>오리온</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>4,696</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>-2.35%</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1893" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>4,882</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>+0.76%</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1894" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>4,635</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>-1.65%</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1895" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>4,741</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1896" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>SK스퀘어</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>4,521</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>+1.93%</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1897" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>4,602</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>+3.98%</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1898" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>TIGER 미국S&amp;P500선물(H)</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>4,339</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>+2.27%</t>
+        </is>
+      </c>
+      <c r="E1899" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1899" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>현대미포조선</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>4,432</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>+3.48%</t>
+        </is>
+      </c>
+      <c r="E1900" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1900" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>4,202</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>+0.52%</t>
+        </is>
+      </c>
+      <c r="E1901" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1901" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>3,958</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>+1.53%</t>
+        </is>
+      </c>
+      <c r="E1902" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1902" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>4,120</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>-1.26%</t>
+        </is>
+      </c>
+      <c r="E1903" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1903" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>하나투어</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>3,816</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>-0.17%</t>
+        </is>
+      </c>
+      <c r="E1904" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1904" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>한솔케미칼</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>3,990</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>+1.45%</t>
+        </is>
+      </c>
+      <c r="E1905" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1905" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>3,582</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>+3.46%</t>
+        </is>
+      </c>
+      <c r="E1906" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1906" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>TIGER 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>3,877</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>-3.23%</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1907" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>3,397</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>+1.17%</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1908" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>현대백화점</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>3,849</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>+0.18%</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1909" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>3,116</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>+6.95%</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1910" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>롯데케미칼</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>3,778</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1911" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1911" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>씨에스윈드</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>3,017</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>+1.96%</t>
+        </is>
+      </c>
+      <c r="E1912" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1912" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>3,717</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>+0.48%</t>
+        </is>
+      </c>
+      <c r="E1913" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1913" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>현대에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>2,996</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>+6.81%</t>
+        </is>
+      </c>
+      <c r="E1914" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1914" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>3,661</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>+0.91%</t>
+        </is>
+      </c>
+      <c r="E1915" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1915" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>2,923</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="E1916" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1916" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4412,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1916"/>
+  <dimension ref="A1:F2156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -61817,6 +61817,7206 @@
       <c r="F1916" t="inlineStr">
         <is>
           <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>21,861</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>+0.23%</t>
+        </is>
+      </c>
+      <c r="E1917" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1917" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>35,822</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>-2.51%</t>
+        </is>
+      </c>
+      <c r="E1918" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1918" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>18,782</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
+      </c>
+      <c r="E1919" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1919" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>17,636</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>-3.64%</t>
+        </is>
+      </c>
+      <c r="E1920" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1920" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>18,343</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1921" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1921" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>16,929</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>1,380</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>-2.13%</t>
+        </is>
+      </c>
+      <c r="E1922" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1922" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>16,364</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>-5.74%</t>
+        </is>
+      </c>
+      <c r="E1923" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1923" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>10,861</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>-2.55%</t>
+        </is>
+      </c>
+      <c r="E1924" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1924" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>15,661</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>-2.65%</t>
+        </is>
+      </c>
+      <c r="E1925" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1925" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>10,730</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>+2.40%</t>
+        </is>
+      </c>
+      <c r="E1926" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1926" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>12,923</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>-3.86%</t>
+        </is>
+      </c>
+      <c r="E1927" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1927" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>10,675</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>-1.33%</t>
+        </is>
+      </c>
+      <c r="E1928" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1928" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>하이브</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>11,475</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1929" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1929" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>8,517</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
+      </c>
+      <c r="E1930" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1930" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>11,392</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>-2.19%</t>
+        </is>
+      </c>
+      <c r="E1931" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1931" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>8,028</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>+1.08%</t>
+        </is>
+      </c>
+      <c r="E1932" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1932" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>11,179</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>-1.75%</t>
+        </is>
+      </c>
+      <c r="E1933" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1933" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>6,455</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>-0.46%</t>
+        </is>
+      </c>
+      <c r="E1934" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1934" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>11,021</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>-2.61%</t>
+        </is>
+      </c>
+      <c r="E1935" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1935" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>5,903</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>1,484</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>+2.22%</t>
+        </is>
+      </c>
+      <c r="E1936" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1936" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>9,659</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>+2.54%</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1937" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>5,285</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>+1.50%</t>
+        </is>
+      </c>
+      <c r="E1938" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1938" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>9,599</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>-3.63%</t>
+        </is>
+      </c>
+      <c r="E1939" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1939" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>4,187</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>+1.20%</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1940" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>8,690</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>-1.36%</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1941" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>호텔신라</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>3,005</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>-0.83%</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1942" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>7,543</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="E1943" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1943" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>2,959</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>-0.04%</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1944" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>7,505</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1945" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2,956</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>-1.98%</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1946" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>7,434</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>-1.90%</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1947" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>효성첨단소재</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>2,883</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>-4.07%</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1948" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>6,528</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>-1.13%</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1949" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>2,706</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>-3.27%</t>
+        </is>
+      </c>
+      <c r="E1950" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>6,485</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>-3.29%</t>
+        </is>
+      </c>
+      <c r="E1951" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>2,628</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>-2.60%</t>
+        </is>
+      </c>
+      <c r="E1952" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>6,178</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>-2.05%</t>
+        </is>
+      </c>
+      <c r="E1953" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>2,612</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>-2.56%</t>
+        </is>
+      </c>
+      <c r="E1954" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>6,126</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>-2.68%</t>
+        </is>
+      </c>
+      <c r="E1955" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>2,577</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>-1.29%</t>
+        </is>
+      </c>
+      <c r="E1956" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>6,104</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>-1.40%</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1957" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>롯데관광개발</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>2,293</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>+0.93%</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1958" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>4,928</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>-3.24%</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1959" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>아이에스동서</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>2,288</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>+0.67%</t>
+        </is>
+      </c>
+      <c r="E1960" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>4,690</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>+0.51%</t>
+        </is>
+      </c>
+      <c r="E1961" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>하나투어</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>2,163</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>-1.09%</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>4,560</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>+0.97%</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>1,972</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>4,254</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>씨에스윈드</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>1,870</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>-1.31%</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>휠라홀딩스</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>4,084</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>-6.83%</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>1,814</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>TIGER 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>3,940</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>1,006</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>+2.61%</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>명신산업</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>1,800</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>-4.19%</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1970" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>3,638</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>+0.24%</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>LS</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>1,602</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1972" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>기업은행</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>3,584</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1973" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>강원랜드</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>1,533</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>-2.51%</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1974" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>3,528</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1975" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>삼성중공업</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>1,499</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1976" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>69,166</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>1,286</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>+0.95%</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1977" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>32,867</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>-1.53%</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1978" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>30,313</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>+2.85%</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1979" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>21,916</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>-3.07%</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1980" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>20,548</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>+2.15%</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1981" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>15,480</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>+2.41%</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1982" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>15,521</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1983" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>11,091</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>-2.75%</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1984" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>14,461</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>+2.03%</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>10,972</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>+0.37%</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>13,875</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>+1.60%</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1987" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>10,304</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>-1.05%</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1988" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>10,795</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>9,665</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>-3.49%</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>10,649</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>8,251</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>1,347</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>+0.66%</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1992" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>9,760</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>7,569</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>-4.97%</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>9,705</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>1,697</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>+0.88%</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1995" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>6,540</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>-4.73%</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1996" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>9,527</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>1,757</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>+0.46%</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1997" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>6,195</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1998" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>9,476</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>-3.95%</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1999" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>5,646</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2000" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>9,248</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>-0.55%</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2001" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>4,465</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2002" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>8,787</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>-0.69%</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2003" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>4,377</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>+2.63%</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2004" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>8,618</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>-1.09%</t>
+        </is>
+      </c>
+      <c r="E2005" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2005" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>4,142</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E2006" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2006" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>삼성엔지니어링</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>8,320</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>+3.64%</t>
+        </is>
+      </c>
+      <c r="E2007" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2007" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>HL만도</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>4,100</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>-3.90%</t>
+        </is>
+      </c>
+      <c r="E2008" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2008" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>7,692</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2009" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2009" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>TIGER 미국필라델피아반도체나스닥</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>3,995</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>-1.94%</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2010" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>7,517</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>-1.76%</t>
+        </is>
+      </c>
+      <c r="E2011" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2011" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>신풍제약</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>3,654</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>-6.79%</t>
+        </is>
+      </c>
+      <c r="E2012" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2012" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>6,626</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>-0.49%</t>
+        </is>
+      </c>
+      <c r="E2013" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2013" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>현대차2우B</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>3,428</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2014" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>5,404</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>-1.75%</t>
+        </is>
+      </c>
+      <c r="E2015" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2015" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>3,427</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>-2.39%</t>
+        </is>
+      </c>
+      <c r="E2016" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2016" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>5,054</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>+0.77%</t>
+        </is>
+      </c>
+      <c r="E2017" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2017" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>3,263</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>-2.76%</t>
+        </is>
+      </c>
+      <c r="E2018" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2018" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>5,036</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>+3.18%</t>
+        </is>
+      </c>
+      <c r="E2019" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2019" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>3,073</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>-4.61%</t>
+        </is>
+      </c>
+      <c r="E2020" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2020" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>4,182</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>-3.05%</t>
+        </is>
+      </c>
+      <c r="E2021" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2021" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>3,021</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>-8.37%</t>
+        </is>
+      </c>
+      <c r="E2022" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2022" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>영원무역</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>4,014</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>-6.11%</t>
+        </is>
+      </c>
+      <c r="E2023" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2023" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>2,800</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>-2.28%</t>
+        </is>
+      </c>
+      <c r="E2024" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2024" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>3,991</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E2025" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2025" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>2,786</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>-6.25%</t>
+        </is>
+      </c>
+      <c r="E2026" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2026" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>삼성에스디에스</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>3,730</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>-1.71%</t>
+        </is>
+      </c>
+      <c r="E2027" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2027" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>2,774</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="E2028" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2028" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>3,729</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>-1.24%</t>
+        </is>
+      </c>
+      <c r="E2029" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2029" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>2,764</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>-1.90%</t>
+        </is>
+      </c>
+      <c r="E2030" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2030" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>대덕전자</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>3,617</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>+3.16%</t>
+        </is>
+      </c>
+      <c r="E2031" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2031" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>삼천리</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>2,482</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>+0.75%</t>
+        </is>
+      </c>
+      <c r="E2032" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2032" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>롯데케미칼</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>3,511</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>-1.37%</t>
+        </is>
+      </c>
+      <c r="E2033" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2033" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>2,444</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>-1.26%</t>
+        </is>
+      </c>
+      <c r="E2034" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2034" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>3,329</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>-0.48%</t>
+        </is>
+      </c>
+      <c r="E2035" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2035" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>2,146</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>-1.71%</t>
+        </is>
+      </c>
+      <c r="E2036" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2036" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>69,166</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>1,286</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>+0.95%</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2037" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>32,867</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>-1.53%</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2038" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>30,313</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>+2.85%</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2039" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>21,916</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>-3.07%</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2040" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>20,548</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>+2.15%</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2041" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>15,480</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>+2.41%</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2042" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>15,521</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2043" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>11,091</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>-2.75%</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2044" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>14,461</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>+2.03%</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2045" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>10,972</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>+0.37%</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2046" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>13,875</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>+1.60%</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2047" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>10,304</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>-1.05%</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2048" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>10,795</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2049" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>9,665</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>-3.49%</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2050" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>10,649</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2051" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>8,251</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>1,347</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>+0.66%</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2052" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>9,760</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2053" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>7,569</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>-4.97%</t>
+        </is>
+      </c>
+      <c r="E2054" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2054" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>9,705</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>1,697</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>+0.88%</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2055" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>6,540</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>-4.73%</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2056" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>9,527</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>1,757</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>+0.46%</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2057" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>6,195</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2058" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>9,476</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>-3.95%</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2059" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>5,646</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2060" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>9,248</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>-0.55%</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2061" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>4,465</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2062" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>8,787</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>-0.69%</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2063" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>4,377</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>+2.63%</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2064" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>8,618</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>-1.09%</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2065" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>4,142</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2066" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>삼성엔지니어링</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>8,320</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>+3.64%</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2067" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>HL만도</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>4,100</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>-3.90%</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2068" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>7,692</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2069" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>TIGER 미국필라델피아반도체나스닥</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>3,995</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>-1.94%</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2070" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>7,517</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>-1.76%</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2071" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>신풍제약</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>3,654</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>-6.79%</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2072" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>6,626</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>-0.49%</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2073" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>현대차2우B</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>3,428</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2074" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>5,404</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>-1.75%</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2075" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>3,427</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>-2.39%</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2076" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>5,054</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>+0.77%</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2077" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>3,263</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>-2.76%</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2078" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>5,036</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>+3.18%</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2079" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>3,073</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>-4.61%</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2080" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>4,182</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>-3.05%</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2081" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>3,021</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>-8.37%</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2082" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>영원무역</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>4,014</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>-6.11%</t>
+        </is>
+      </c>
+      <c r="E2083" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2083" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>2,800</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>-2.28%</t>
+        </is>
+      </c>
+      <c r="E2084" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2084" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>3,991</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2085" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>2,786</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>-6.25%</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2086" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>삼성에스디에스</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>3,730</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>-1.71%</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2087" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>2,774</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2088" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>3,729</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>-1.24%</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2089" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>2,764</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>-1.90%</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2090" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>대덕전자</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>3,617</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>+3.16%</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2091" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>삼천리</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>2,482</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>+0.75%</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2092" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>롯데케미칼</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>3,511</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>-1.37%</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2093" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>2,444</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>-1.26%</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2094" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>3,329</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>-0.48%</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2095" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>2,146</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>-1.71%</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2096" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>69,166</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>1,286</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>+0.95%</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2097" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>32,867</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>-1.53%</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2098" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>30,313</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>+2.85%</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2099" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>21,916</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>-3.07%</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2100" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>20,548</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>+2.15%</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2101" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>15,480</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>+2.41%</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2102" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>15,521</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2103" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>11,091</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>-2.75%</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2104" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>14,461</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>+2.03%</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2105" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>10,972</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>+0.37%</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2106" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>13,875</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>+1.60%</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2107" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>10,304</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>-1.05%</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2108" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>10,795</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2109" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>9,665</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>-3.49%</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2110" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>10,649</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2111" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>8,251</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>1,347</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>+0.66%</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2112" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>9,760</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2113" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>7,569</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>-4.97%</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2114" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>9,705</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>1,697</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>+0.88%</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2115" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>6,540</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>-4.73%</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2116" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>9,527</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>1,757</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>+0.46%</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2117" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>6,195</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2118" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>9,476</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>-3.95%</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2119" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>5,646</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2120" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>9,248</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>-0.55%</t>
+        </is>
+      </c>
+      <c r="E2121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2121" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>4,465</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2122" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>8,787</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>-0.69%</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2123" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>4,377</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>+2.63%</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2124" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>8,618</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>-1.09%</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2125" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>4,142</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2126" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>삼성엔지니어링</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>8,320</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>+3.64%</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2127" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>HL만도</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>4,100</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>-3.90%</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2128" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>7,692</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2129" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>TIGER 미국필라델피아반도체나스닥</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>3,995</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>-1.94%</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2130" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>7,517</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>-1.76%</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2131" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>신풍제약</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>3,654</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>-6.79%</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2132" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>6,626</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>-0.49%</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2133" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>현대차2우B</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>3,428</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2134" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>5,404</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>-1.75%</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2135" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>3,427</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>-2.39%</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2136" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>5,054</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>+0.77%</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2137" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>3,263</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>-2.76%</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2138" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>5,036</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>+3.18%</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2139" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>3,073</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>-4.61%</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2140" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>4,182</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>-3.05%</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2141" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>3,021</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>-8.37%</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2142" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>영원무역</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>4,014</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>-6.11%</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2143" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2,800</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>-2.28%</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2144" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>3,991</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2145" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>팬오션</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>2,786</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>-6.25%</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>삼성에스디에스</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>3,730</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>-1.71%</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>2,774</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>3,729</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>-1.24%</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>2,764</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>-1.90%</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>대덕전자</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>3,617</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>+3.16%</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>삼천리</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>2,482</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>+0.75%</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>롯데케미칼</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>3,511</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>-1.37%</t>
+        </is>
+      </c>
+      <c r="E2153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>2,444</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>-1.26%</t>
+        </is>
+      </c>
+      <c r="E2154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2154" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>3,329</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>-0.48%</t>
+        </is>
+      </c>
+      <c r="E2155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2155" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>2,146</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>-1.71%</t>
+        </is>
+      </c>
+      <c r="E2156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2156" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4412,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2156"/>
+  <dimension ref="A1:F2276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -69017,6 +69017,3606 @@
       <c r="F2156" t="inlineStr">
         <is>
           <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>41,326</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
+      </c>
+      <c r="E2157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2157" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>30,554</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>+2.25%</t>
+        </is>
+      </c>
+      <c r="E2158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2158" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>20,688</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>+0.95%</t>
+        </is>
+      </c>
+      <c r="E2159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2159" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>24,456</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>+2.39%</t>
+        </is>
+      </c>
+      <c r="E2160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2160" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>14,726</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>+0.63%</t>
+        </is>
+      </c>
+      <c r="E2161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2161" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>22,675</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>+2.76%</t>
+        </is>
+      </c>
+      <c r="E2162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2162" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>14,233</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>+3.99%</t>
+        </is>
+      </c>
+      <c r="E2163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2163" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>19,438</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>5,790</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>-2.28%</t>
+        </is>
+      </c>
+      <c r="E2164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2164" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>13,764</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>-5.38%</t>
+        </is>
+      </c>
+      <c r="E2165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2165" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>18,181</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
+        </is>
+      </c>
+      <c r="E2166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2166" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>11,807</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="E2167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2167" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>12,780</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>+10.07%</t>
+        </is>
+      </c>
+      <c r="E2168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2168" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>11,181</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>-2.87%</t>
+        </is>
+      </c>
+      <c r="E2169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2169" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>12,540</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>+1.35%</t>
+        </is>
+      </c>
+      <c r="E2170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2170" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>10,588</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>+2.03%</t>
+        </is>
+      </c>
+      <c r="E2171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2171" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>한미글로벌</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>12,387</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>+5.39%</t>
+        </is>
+      </c>
+      <c r="E2172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2172" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>8,887</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>1,602</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
+      </c>
+      <c r="E2173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2173" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>10,272</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>+8.01%</t>
+        </is>
+      </c>
+      <c r="E2174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2174" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>8,597</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>+4.23%</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2175" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>9,804</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>+0.74%</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2176" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>7,967</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>+2.60%</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>8,666</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>+3.36%</t>
+        </is>
+      </c>
+      <c r="E2178" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2178" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>7,595</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>-2.15%</t>
+        </is>
+      </c>
+      <c r="E2179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2179" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>대한전선</t>
+        </is>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>8,207</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>4,619</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>+0.86%</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2180" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>7,283</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>+0.91%</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2181" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>TIGER 미국테크TOP10 INDXX</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>7,833</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2182" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>6,724</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>+2.37%</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2183" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>삼성엔지니어링</t>
+        </is>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>6,280</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>+0.97%</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2184" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>6,639</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2185" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>F&amp;F</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>6,131</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>-3.58%</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2186" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>6,226</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>-4.31%</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2187" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>5,391</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>+1.24%</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2188" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>5,606</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>+2.33%</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2189" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>한전기술</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>5,152</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>-2.93%</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2190" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>하이브</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>5,408</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>+0.82%</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2191" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>현대건설</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>4,554</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>+3.40%</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2192" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>5,395</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>-1.90%</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2193" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>4,295</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>+0.12%</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2194" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>5,366</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>+2.02%</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2195" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>현대미포조선</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>4,226</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2196" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>4,765</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>-5.33%</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2197" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>3,805</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>-2.63%</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2198" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>현대일렉트릭</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>4,730</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>-0.52%</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2199" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>3,772</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>+1.53%</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2200" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>현대두산인프라코어</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>4,484</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>+4.85%</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2201" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>3,356</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>-1.50%</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2202" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>4,324</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>+1.83%</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2203" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>3,032</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2204" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>4,250</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>+2.76%</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2205" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>2,983</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>+1.38%</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2206" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>TIGER 인버스</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>3,743</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2207" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>현대제철</t>
+        </is>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2,654</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>+6.61%</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2208" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>3,661</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2209" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>2,598</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>+1.40%</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2210" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>LG유플러스</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>3,636</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2211" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>2,459</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>+0.38%</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2212" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>+2.38%</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2213" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>2,443</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>+1.24%</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2214" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>3,275</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>-5.04%</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2215" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2,301</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>+3.91%</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2216" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>177,418</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>2,887</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>+0.16%</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2217" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>50,708</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>+3.85%</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2218" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>TIGER MSCI Korea TR</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>50,525</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>3,900</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>+0.62%</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2219" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>27,354</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>+0.15%</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2220" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>46,500</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>+0.41%</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2221" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>22,526</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2222" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>39,854</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>+0.34%</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2223" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>18,435</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>+0.45%</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2224" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>28,598</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>+0.34%</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2225" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>14,233</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>4,559</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2226" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>26,941</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2227" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>12,421</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>+8.10%</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2228" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>25,160</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2229" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>11,224</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>+1.47%</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2230" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>24,098</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>+1.97%</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2231" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>11,064</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>+0.12%</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2232" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>22,240</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>1,569</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2233" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>10,791</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>-0.75%</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2234" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>16,879</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>-0.11%</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2235" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>10,348</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>+1.15%</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2236" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>12,482</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>+0.20%</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2237" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>9,626</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>+1.23%</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2238" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>12,172</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>+2.33%</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2239" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>8,447</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>+1.36%</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2240" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>12,092</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>+0.70%</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2241" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>7,004</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>+2.72%</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2242" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>10,427</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2243" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>6,990</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>+0.24%</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2244" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>9,666</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2245" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>6,961</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>+5.85%</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2246" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>9,002</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>+2.55%</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2247" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>한미글로벌</t>
+        </is>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>6,418</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>-0.96%</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2248" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>현대글로비스</t>
+        </is>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>7,373</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>-1.36%</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2249" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>4,738</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2250" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>7,215</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>+1.35%</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2251" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>4,333</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>+1.18%</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2252" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>6,921</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>+1.45%</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2253" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t>기업은행</t>
+        </is>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>4,287</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2254" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>대덕전자</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>6,871</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>+0.41%</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2255" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>4,224</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>+0.88%</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2256" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>6,724</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>+1.08%</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2257" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>현대건설</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>4,016</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>+0.50%</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2258" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>6,108</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2259" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>3,959</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>+0.68%</t>
+        </is>
+      </c>
+      <c r="E2260" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2260" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>5,519</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>+1.24%</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2261" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>두산퓨얼셀</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>3,648</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>+4.14%</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2262" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>5,276</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>+4.63%</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2263" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>3,453</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>+0.51%</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2264" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>현대일렉트릭</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>5,100</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>+0.13%</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2265" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>한국타이어앤테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>3,384</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>-0.30%</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2266" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>현대두산인프라코어</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>4,178</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>+4.53%</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2267" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t>녹십자</t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>3,247</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>+0.80%</t>
+        </is>
+      </c>
+      <c r="E2268" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2268" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>HL만도</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>4,115</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>-1.15%</t>
+        </is>
+      </c>
+      <c r="E2269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2269" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>3,216</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>-0.61%</t>
+        </is>
+      </c>
+      <c r="E2270" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2270" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>대한전선</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>3,436</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>1,951</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>+1.98%</t>
+        </is>
+      </c>
+      <c r="E2271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150선물인버스</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>3,101</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2272" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>3,261</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
+      </c>
+      <c r="E2273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>아모레G</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>2,949</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>-0.18%</t>
+        </is>
+      </c>
+      <c r="E2274" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2274" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>한진칼</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>3,258</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>+0.61%</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>2,758</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>+1.65%</t>
+        </is>
+      </c>
+      <c r="E2276" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2276" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4412,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2276"/>
+  <dimension ref="A1:F2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -72617,6 +72617,3606 @@
       <c r="F2276" t="inlineStr">
         <is>
           <t>2022-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>TIGER TOP10</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>72,835</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>7,102</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E2277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2277" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>43,505</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
+        </is>
+      </c>
+      <c r="E2278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2278" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>72,439</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>-0.36%</t>
+        </is>
+      </c>
+      <c r="E2279" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2279" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>34,874</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>+0.18%</t>
+        </is>
+      </c>
+      <c r="E2280" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2280" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>49,812</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>+1.12%</t>
+        </is>
+      </c>
+      <c r="E2281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2281" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>27,142</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>8,789</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>+0.16%</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2282" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>47,854</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>+1.84%</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2283" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>23,387</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>-4.02%</t>
+        </is>
+      </c>
+      <c r="E2284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2284" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>31,668</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>-9.23%</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>19,962</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>-0.77%</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2286" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>26,354</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>-1.36%</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>16,898</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>+0.15%</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>23,725</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>-0.17%</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2289" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>11,856</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>+1.47%</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2290" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>22,942</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>+2.94%</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2291" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>8,122</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>-2.37%</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>TIGER 200TR</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>22,336</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>1,297</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>-0.32%</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2293" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>현대미포조선</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>7,606</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>+0.44%</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>21,542</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>5,709</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>-2.39%</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2296" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>21,414</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>+0.98%</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>5,557</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2298" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>19,259</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>5,268</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>16,672</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>-1.13%</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2301" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>CJ대한통운</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>4,422</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>-1.04%</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2302" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>16,400</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>+2.08%</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2303" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>3,668</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2304" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>13,165</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>+0.41%</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2305" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>KODEX WTI원유선물인버스(H)</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>3,220</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>+3.04%</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2306" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>12,342</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>+1.01%</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2307" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>하이브</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>3,136</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>-1.15%</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2308" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>11,964</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>-2.09%</t>
+        </is>
+      </c>
+      <c r="E2309" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2309" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>한미글로벌</t>
+        </is>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>2,997</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>+0.22%</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2310" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>11,008</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2311" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>TIGER 미국나스닥100</t>
+        </is>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>2,854</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>-1.98%</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2312" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>10,127</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2313" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>2,459</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>+0.52%</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2314" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>TIGER 200</t>
+        </is>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>8,743</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>-0.17%</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2315" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150</t>
+        </is>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>2,440</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2316" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>8,105</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>+0.31%</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2317" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>2,394</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2318" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>씨에스윈드</t>
+        </is>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>8,070</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>+3.79%</t>
+        </is>
+      </c>
+      <c r="E2319" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2319" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>해성디에스</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>2,353</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2320" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>8,006</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2321" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>TIGER 미국테크TOP10 INDXX</t>
+        </is>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>2,276</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>-2.86%</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2322" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>현대두산인프라코어</t>
+        </is>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>7,702</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>1,071</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>-0.82%</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2323" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>자화전자</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>2,251</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
+      </c>
+      <c r="E2324" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2324" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>7,268</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>-0.86%</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2325" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>2,188</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>+1.33%</t>
+        </is>
+      </c>
+      <c r="E2326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2326" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>6,924</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>+2.21%</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2327" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>KODEX 코스닥150레버리지</t>
+        </is>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>2,123</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>-1.52%</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2328" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>6,673</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2329" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>DGB금융지주</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>2,107</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2330" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>5,920</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>-2.42%</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2331" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>에이프로젠</t>
+        </is>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>1,738</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>1,657</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>+0.49%</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2332" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>GS리테일</t>
+        </is>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>5,919</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>+0.17%</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2333" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>영풍</t>
+        </is>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>1,584</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>-3.63%</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>5,571</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>+0.10%</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2335" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>더블유게임즈</t>
+        </is>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>1,507</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>+0.43%</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2336" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>49,867</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>+5.27%</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2337" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>242,733</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>3,990</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>+3.97%</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2338" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>31,861</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>+3.80%</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2339" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>58,425</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>+0.89%</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2340" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>30,696</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2341" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>44,304</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>+8.81%</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2342" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>26,474</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>+2.06%</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2343" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>24,010</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>-6.89%</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2344" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>24,897</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>+3.52%</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2345" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>13,034</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>+5.61%</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2346" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>TIGER 200</t>
+        </is>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>22,119</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>+3.45%</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2347" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>포스코케미칼</t>
+        </is>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>10,943</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>+2.05%</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>14,315</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>+3.42%</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2349" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>10,844</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>+1.93%</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2350" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>13,489</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>+7.48%</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2351" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>10,265</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>+2.21%</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2352" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>오리온</t>
+        </is>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>11,939</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2353" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>9,393</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>+1.95%</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2354" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>DN오토모티브</t>
+        </is>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>10,916</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>-1.31%</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2355" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>8,383</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>+17.52%</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2356" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>9,698</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>+2.83%</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2357" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>7,612</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>+13.73%</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2358" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>7,233</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>+0.85%</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>6,944</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>+3.45%</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>7,215</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>+1.65%</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>5,889</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>1,202</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>-3.36%</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>7,113</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>2,284</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>-6.73%</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2363" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>일동제약</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>5,860</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>+1.38%</t>
+        </is>
+      </c>
+      <c r="E2364" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2364" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>OCI</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>6,884</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>+2.97%</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2365" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>5,508</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>+1.37%</t>
+        </is>
+      </c>
+      <c r="E2366" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2366" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>HL만도</t>
+        </is>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>6,715</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>+0.98%</t>
+        </is>
+      </c>
+      <c r="E2367" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2367" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>5,094</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2368" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2368" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>6,466</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>+4.40%</t>
+        </is>
+      </c>
+      <c r="E2369" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2369" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>4,517</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>+1.20%</t>
+        </is>
+      </c>
+      <c r="E2370" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2370" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t>삼성엔지니어링</t>
+        </is>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>6,442</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>+2.54%</t>
+        </is>
+      </c>
+      <c r="E2371" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2371" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>4,232</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>+3.21%</t>
+        </is>
+      </c>
+      <c r="E2372" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2372" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>SK바이오사이언스</t>
+        </is>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>5,997</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>+5.55%</t>
+        </is>
+      </c>
+      <c r="E2373" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2373" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>3,876</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>+0.68%</t>
+        </is>
+      </c>
+      <c r="E2374" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2374" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>5,268</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>-0.74%</t>
+        </is>
+      </c>
+      <c r="E2375" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2375" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>TIGER 미국S&amp;P500</t>
+        </is>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>3,527</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>+3.05%</t>
+        </is>
+      </c>
+      <c r="E2376" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2376" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>5,153</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>+0.83%</t>
+        </is>
+      </c>
+      <c r="E2377" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2377" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>TIGER 미국나스닥100</t>
+        </is>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>3,321</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>+4.69%</t>
+        </is>
+      </c>
+      <c r="E2378" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2378" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>현대미포조선</t>
+        </is>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>4,840</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>+5.52%</t>
+        </is>
+      </c>
+      <c r="E2379" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2379" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>대덕전자</t>
+        </is>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>3,267</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>+5.10%</t>
+        </is>
+      </c>
+      <c r="E2380" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2380" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>4,840</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>+0.13%</t>
+        </is>
+      </c>
+      <c r="E2381" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2381" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>TIGER 미국테크TOP10 INDXX</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>3,246</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>+5.65%</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2382" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>4,803</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>+1.38%</t>
+        </is>
+      </c>
+      <c r="E2383" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2383" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>2,982</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>+1.68%</t>
+        </is>
+      </c>
+      <c r="E2384" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2384" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>4,579</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>+6.70%</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2385" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2,917</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>+6.35%</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2386" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>4,521</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>+1.58%</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2387" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>서울가스</t>
+        </is>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2,703</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2388" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>현대두산인프라코어</t>
+        </is>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>4,203</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>-0.14%</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2389" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2,537</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>+0.79%</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2390" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>농심</t>
+        </is>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>4,158</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
+        </is>
+      </c>
+      <c r="E2391" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2391" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>호텔신라</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>2,475</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>+2.10%</t>
+        </is>
+      </c>
+      <c r="E2392" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2392" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>현대일렉트릭</t>
+        </is>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>4,117</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>-0.52%</t>
+        </is>
+      </c>
+      <c r="E2393" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2393" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2,458</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>+5.17%</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2394" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>3,849</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>+3.34%</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2395" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>대한유화</t>
+        </is>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2,351</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>+2.53%</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2396" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
         </is>
       </c>
     </row>

--- a/python_ex/forEn.xlsx
+++ b/python_ex/forEn.xlsx
@@ -4412,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2396"/>
+  <dimension ref="A1:F2576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -76217,6 +76217,5406 @@
       <c r="F2396" t="inlineStr">
         <is>
           <t>2022-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>186,185</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>2,962</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>+4.14%</t>
+        </is>
+      </c>
+      <c r="E2397" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2397" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>38,946</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>+1.60%</t>
+        </is>
+      </c>
+      <c r="E2398" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2398" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>114,843</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>3,539</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>+4.01%</t>
+        </is>
+      </c>
+      <c r="E2399" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2399" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>18,530</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>-0.93%</t>
+        </is>
+      </c>
+      <c r="E2400" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2400" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>84,256</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>29,076</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>-7.85%</t>
+        </is>
+      </c>
+      <c r="E2401" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2401" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>16,611</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>+0.83%</t>
+        </is>
+      </c>
+      <c r="E2402" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2402" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>64,904</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E2403" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2403" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>14,157</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>+0.39%</t>
+        </is>
+      </c>
+      <c r="E2404" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2404" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>52,880</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>+3.03%</t>
+        </is>
+      </c>
+      <c r="E2405" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2405" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>14,068</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>+0.61%</t>
+        </is>
+      </c>
+      <c r="E2406" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2406" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>47,863</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>+6.04%</t>
+        </is>
+      </c>
+      <c r="E2407" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2407" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>13,416</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>+1.47%</t>
+        </is>
+      </c>
+      <c r="E2408" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2408" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>46,292</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>+11.13%</t>
+        </is>
+      </c>
+      <c r="E2409" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2409" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>12,797</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="E2410" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2410" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>34,585</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>+4.94%</t>
+        </is>
+      </c>
+      <c r="E2411" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2411" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>12,219</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>+2.10%</t>
+        </is>
+      </c>
+      <c r="E2412" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2412" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t>TIGER 200</t>
+        </is>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>32,801</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>1,011</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>+3.98%</t>
+        </is>
+      </c>
+      <c r="E2413" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2413" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>11,069</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>+0.67%</t>
+        </is>
+      </c>
+      <c r="E2414" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2414" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>28,631</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>1,176</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>+20.26%</t>
+        </is>
+      </c>
+      <c r="E2415" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2415" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>8,488</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>+0.20%</t>
+        </is>
+      </c>
+      <c r="E2416" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2416" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>28,188</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>+18.23%</t>
+        </is>
+      </c>
+      <c r="E2417" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2417" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>7,782</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>+1.89%</t>
+        </is>
+      </c>
+      <c r="E2418" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2418" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>27,659</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>+3.66%</t>
+        </is>
+      </c>
+      <c r="E2419" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2419" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>6,592</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2420" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2420" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t>현대미포조선</t>
+        </is>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>25,734</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>+5.86%</t>
+        </is>
+      </c>
+      <c r="E2421" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2421" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>6,572</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>+1.23%</t>
+        </is>
+      </c>
+      <c r="E2422" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2422" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>22,634</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>+9.94%</t>
+        </is>
+      </c>
+      <c r="E2423" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2423" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t>한국가스공사</t>
+        </is>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>6,298</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>-2.47%</t>
+        </is>
+      </c>
+      <c r="E2424" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2424" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t>호텔신라</t>
+        </is>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>22,190</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>+9.30%</t>
+        </is>
+      </c>
+      <c r="E2425" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2425" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>6,023</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
+      </c>
+      <c r="E2426" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2426" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>21,356</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>+15.55%</t>
+        </is>
+      </c>
+      <c r="E2427" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2427" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>5,007</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>+1.27%</t>
+        </is>
+      </c>
+      <c r="E2428" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2428" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>21,010</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>+13.41%</t>
+        </is>
+      </c>
+      <c r="E2429" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2429" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>4,687</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
+      </c>
+      <c r="E2430" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2430" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>20,387</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>+2.88%</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2431" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>4,604</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>-3.53%</t>
+        </is>
+      </c>
+      <c r="E2432" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2432" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>19,170</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>+29.92%</t>
+        </is>
+      </c>
+      <c r="E2433" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2433" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>4,350</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>+7.77%</t>
+        </is>
+      </c>
+      <c r="E2434" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2434" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>16,306</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>+4.10%</t>
+        </is>
+      </c>
+      <c r="E2435" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2435" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t>롯데지주</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>4,191</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>-5.63%</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2436" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>15,887</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>+7.94%</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2437" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>3,938</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>+2.10%</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2438" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>현대중공업</t>
+        </is>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>15,071</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>+5.00%</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2439" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>3,759</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>+2.96%</t>
+        </is>
+      </c>
+      <c r="E2440" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2440" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>13,305</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>+2.67%</t>
+        </is>
+      </c>
+      <c r="E2441" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2441" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>3,584</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>+4.68%</t>
+        </is>
+      </c>
+      <c r="E2442" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2442" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>13,176</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>2,783</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>-3.97%</t>
+        </is>
+      </c>
+      <c r="E2443" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2443" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t>서울가스</t>
+        </is>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>3,419</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>+0.30%</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2444" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>13,018</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>+5.86%</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2445" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>2,850</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2446" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2446" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>13,007</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>+8.11%</t>
+        </is>
+      </c>
+      <c r="E2447" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2447" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>코오롱인더</t>
+        </is>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>2,635</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>+2.30%</t>
+        </is>
+      </c>
+      <c r="E2448" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2448" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>11,490</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>+8.97%</t>
+        </is>
+      </c>
+      <c r="E2449" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2449" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>DN오토모티브</t>
+        </is>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>2,554</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="E2450" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2450" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t>한진칼</t>
+        </is>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>10,027</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>+3.59%</t>
+        </is>
+      </c>
+      <c r="E2451" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2451" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
+        <is>
+          <t>한미사이언스</t>
+        </is>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>2,423</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
+      </c>
+      <c r="E2452" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2452" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>9,817</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>+4.57%</t>
+        </is>
+      </c>
+      <c r="E2453" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2453" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t>한국금융지주</t>
+        </is>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>2,268</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>+5.93%</t>
+        </is>
+      </c>
+      <c r="E2454" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2454" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>9,643</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>+7.69%</t>
+        </is>
+      </c>
+      <c r="E2455" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2455" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>2,227</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>+1.41%</t>
+        </is>
+      </c>
+      <c r="E2456" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2456" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>186,185</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>2,962</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>+4.14%</t>
+        </is>
+      </c>
+      <c r="E2457" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2457" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>38,946</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>+1.60%</t>
+        </is>
+      </c>
+      <c r="E2458" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2458" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>114,843</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>3,539</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>+4.01%</t>
+        </is>
+      </c>
+      <c r="E2459" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2459" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>18,530</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>-0.93%</t>
+        </is>
+      </c>
+      <c r="E2460" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2460" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>84,256</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>29,076</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>-7.85%</t>
+        </is>
+      </c>
+      <c r="E2461" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2461" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>16,611</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>+0.83%</t>
+        </is>
+      </c>
+      <c r="E2462" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2462" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>64,904</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>+3.14%</t>
+        </is>
+      </c>
+      <c r="E2463" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2463" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>14,157</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>+0.39%</t>
+        </is>
+      </c>
+      <c r="E2464" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2464" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>52,880</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>+3.03%</t>
+        </is>
+      </c>
+      <c r="E2465" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2465" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>14,068</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>+0.61%</t>
+        </is>
+      </c>
+      <c r="E2466" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2466" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>47,863</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>+6.04%</t>
+        </is>
+      </c>
+      <c r="E2467" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2467" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>13,416</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>+1.47%</t>
+        </is>
+      </c>
+      <c r="E2468" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2468" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>46,292</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>+11.13%</t>
+        </is>
+      </c>
+      <c r="E2469" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2469" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>12,797</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="E2470" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2470" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>34,585</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>+4.94%</t>
+        </is>
+      </c>
+      <c r="E2471" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2471" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>12,219</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>+2.10%</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2472" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>TIGER 200</t>
+        </is>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>32,801</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>1,011</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>+3.98%</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2473" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>11,069</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>+0.67%</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2474" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>28,631</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>1,176</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>+20.26%</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2475" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>8,488</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>+0.20%</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2476" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>28,188</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>+18.23%</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2477" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>7,782</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>+1.89%</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2478" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>27,659</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>+3.66%</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2479" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>6,592</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2480" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>현대미포조선</t>
+        </is>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>25,734</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>+5.86%</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2481" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>6,572</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>+1.23%</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2482" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>22,634</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>+9.94%</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2483" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t>한국가스공사</t>
+        </is>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>6,298</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>-2.47%</t>
+        </is>
+      </c>
+      <c r="E2484" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2484" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t>호텔신라</t>
+        </is>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>22,190</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>+9.30%</t>
+        </is>
+      </c>
+      <c r="E2485" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2485" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>6,023</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
+      </c>
+      <c r="E2486" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2486" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>21,356</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>+15.55%</t>
+        </is>
+      </c>
+      <c r="E2487" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2487" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>5,007</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>+1.27%</t>
+        </is>
+      </c>
+      <c r="E2488" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2488" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>21,010</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>+13.41%</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2489" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>4,687</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2490" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>20,387</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>+2.88%</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2491" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>4,604</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>-3.53%</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2492" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>19,170</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>+29.92%</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2493" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>4,350</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>+7.77%</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2494" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>16,306</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>+4.10%</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2495" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t>롯데지주</t>
+        </is>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>4,191</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>-5.63%</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2496" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>15,887</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>+7.94%</t>
+        </is>
+      </c>
+      <c r="E2497" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2497" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>3,938</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>+2.10%</t>
+        </is>
+      </c>
+      <c r="E2498" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2498" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t>현대중공업</t>
+        </is>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>15,071</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>+5.00%</t>
+        </is>
+      </c>
+      <c r="E2499" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2499" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>3,759</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>+2.96%</t>
+        </is>
+      </c>
+      <c r="E2500" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2500" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>13,305</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>+2.67%</t>
+        </is>
+      </c>
+      <c r="E2501" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2501" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>3,584</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>+4.68%</t>
+        </is>
+      </c>
+      <c r="E2502" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2502" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>13,176</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>2,783</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>-3.97%</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2503" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t>서울가스</t>
+        </is>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>3,419</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>+0.30%</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2504" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>13,018</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>+5.86%</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2505" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2,850</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2506" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>13,007</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>+8.11%</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2507" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
+        <is>
+          <t>코오롱인더</t>
+        </is>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2,635</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>+2.30%</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2508" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>11,490</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>+8.97%</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2509" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>DN오토모티브</t>
+        </is>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2,554</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2510" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>한진칼</t>
+        </is>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>10,027</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>+3.59%</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2511" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
+        <is>
+          <t>한미사이언스</t>
+        </is>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2,423</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2512" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>9,817</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>+4.57%</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2513" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>한국금융지주</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2,268</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>+5.93%</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2514" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>9,643</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>+7.69%</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2515" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2,227</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>+1.41%</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2516" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>186,185</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>2,962</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>-1.11%</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2517" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>38,946</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>+4.90%</t>
+        </is>
+      </c>
+      <c r="E2518" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2518" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>114,843</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>3,539</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>+0.14%</t>
+        </is>
+      </c>
+      <c r="E2519" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2519" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>18,530</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>+0.27%</t>
+        </is>
+      </c>
+      <c r="E2520" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2520" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>KODEX 200선물인버스2X</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>84,256</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>29,076</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>-0.17%</t>
+        </is>
+      </c>
+      <c r="E2521" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2521" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>16,611</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>-1.92%</t>
+        </is>
+      </c>
+      <c r="E2522" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2522" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>64,904</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2523" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2523" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>14,157</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>-1.36%</t>
+        </is>
+      </c>
+      <c r="E2524" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2524" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>52,880</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
+      </c>
+      <c r="E2525" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2525" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>14,068</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>+0.20%</t>
+        </is>
+      </c>
+      <c r="E2526" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2526" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>47,863</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>+0.95%</t>
+        </is>
+      </c>
+      <c r="E2527" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2527" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>13,416</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D2528" t="inlineStr">
+        <is>
+          <t>+2.91%</t>
+        </is>
+      </c>
+      <c r="E2528" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2528" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>46,292</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2529" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2529" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>12,797</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>+0.32%</t>
+        </is>
+      </c>
+      <c r="E2530" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2530" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>34,585</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>-1.60%</t>
+        </is>
+      </c>
+      <c r="E2531" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2531" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>12,219</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>+2.79%</t>
+        </is>
+      </c>
+      <c r="E2532" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2532" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>TIGER 200</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>32,801</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>1,011</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>+0.12%</t>
+        </is>
+      </c>
+      <c r="E2533" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2533" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>11,069</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
+      <c r="E2534" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2534" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>28,631</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>1,176</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>+5.07%</t>
+        </is>
+      </c>
+      <c r="E2535" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2535" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>8,488</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2536" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2536" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>크래프톤</t>
+        </is>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>28,188</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="E2537" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2537" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>7,782</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>+1.86%</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2538" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>27,659</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2539" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>한화에어로스페이스</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>6,592</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>-2.33%</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2540" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>현대미포조선</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>25,734</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>-3.30%</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2541" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>6,572</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2542" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>22,634</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2543" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>한국가스공사</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>6,298</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>+0.28%</t>
+        </is>
+      </c>
+      <c r="E2544" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2544" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>호텔신라</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>22,190</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>-1.10%</t>
+        </is>
+      </c>
+      <c r="E2545" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2545" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>6,023</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>-1.57%</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2546" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>21,356</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2547" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2547" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>5,007</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="E2548" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2548" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>21,010</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>-4.41%</t>
+        </is>
+      </c>
+      <c r="E2549" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2549" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>4,687</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>-0.50%</t>
+        </is>
+      </c>
+      <c r="E2550" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2550" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>20,387</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>-0.70%</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2551" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>4,604</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>-1.99%</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2552" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="inlineStr">
+        <is>
+          <t>카카오페이</t>
+        </is>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>19,170</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>+12.90%</t>
+        </is>
+      </c>
+      <c r="E2553" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2553" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="inlineStr">
+        <is>
+          <t>KODEX 레버리지</t>
+        </is>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>4,350</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>+0.29%</t>
+        </is>
+      </c>
+      <c r="E2554" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2554" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t>두산에너빌리티</t>
+        </is>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>16,306</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>+3.64%</t>
+        </is>
+      </c>
+      <c r="E2555" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2555" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t>롯데지주</t>
+        </is>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>4,191</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>+0.15%</t>
+        </is>
+      </c>
+      <c r="E2556" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2556" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>15,887</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>-0.57%</t>
+        </is>
+      </c>
+      <c r="E2557" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2557" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>3,938</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>-0.36%</t>
+        </is>
+      </c>
+      <c r="E2558" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2558" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t>현대중공업</t>
+        </is>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>15,071</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2559" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>3,759</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>+2.16%</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2560" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>13,305</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>-2.60%</t>
+        </is>
+      </c>
+      <c r="E2561" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2561" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>3,584</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>+1.58%</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2562" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="inlineStr">
+        <is>
+          <t>KODEX 인버스</t>
+        </is>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>13,176</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>2,783</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2563" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="inlineStr">
+        <is>
+          <t>서울가스</t>
+        </is>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>3,419</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>+2.27%</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2564" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="inlineStr">
+        <is>
+          <t>일진머티리얼즈</t>
+        </is>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>13,018</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>+2.00%</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2565" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="inlineStr">
+        <is>
+          <t>LIG넥스원</t>
+        </is>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2,850</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>-4.91%</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2566" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="inlineStr">
+        <is>
+          <t>SK아이이테크놀로지</t>
+        </is>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>13,007</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>+2.81%</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2567" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="inlineStr">
+        <is>
+          <t>코오롱인더</t>
+        </is>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2,635</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>+2.14%</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2568" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>11,490</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>+4.94%</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2569" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="inlineStr">
+        <is>
+          <t>DN오토모티브</t>
+        </is>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2,554</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>-0.75%</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2570" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="inlineStr">
+        <is>
+          <t>한진칼</t>
+        </is>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>10,027</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>+0.24%</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2571" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="inlineStr">
+        <is>
+          <t>한미사이언스</t>
+        </is>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2,423</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>+1.31%</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2572" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="inlineStr">
+        <is>
+          <t>LX세미콘</t>
+        </is>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>9,817</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>+0.53%</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2573" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="inlineStr">
+        <is>
+          <t>한국금융지주</t>
+        </is>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>2,268</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
+      </c>
+      <c r="E2574" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2574" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>9,643</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>-1.95%</t>
+        </is>
+      </c>
+      <c r="E2575" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2575" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>2,227</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>+2.58%</t>
+        </is>
+      </c>
+      <c r="E2576" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2576" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
         </is>
       </c>
     </row>
